--- a/output/Total_time_range_data/江西省/新余市_学习考察.xlsx
+++ b/output/Total_time_range_data/江西省/新余市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6750 +436,7385 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>122</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>新余市审计局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-12-11</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://sjj.xinyu.gov.cn/sjj/tpxw/2023-12/11/content_cee2fc8366ad4a5aa044f61252e2405b.shtml</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['新余市审计局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会 _ 图片新闻 _ 新余市审计局', '为全面深入学习贯彻习近平总书记考察江西重要讲话精神,着力提升全体审计干部学习成效,12月8日下午,市审计局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会,邀请市委宣讲团成员罗忠进行专题宣讲,局在家领导班子成员、全体干部职工参加会议。', '宣讲会上,罗忠围绕“走在前、勇争先、善作为”主题,着重阐释了深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求五个方面进行宣讲,内容丰富、通俗易懂,为审计干部理解把握习近平总书记考察江西重要讲话精神提供了精准指导。', '会议强调,学习好、宣传好、贯彻好习近平总书记考察江西重要讲话精神,是当前和今后一个时期的首要政治任务,全体审计干部要学有所悟、悟有所行,以理论指引审计工作实践,切实把学习贯彻习近平总书记考察江西重要讲话精神转化为进一步做好审计工作的强大动力,打好今年的收官之战,认真谋划好明年的审计项目,为加快打造新型工业强市、奋力谱写中国式现代化新余篇章贡献审计力量。(供稿人:王佳羽)']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>122</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>分宜公路开展学习贯彻习近平总书记考察江西重要讲话精神专题宣讲</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-12-20</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://glj.xinyu.gov.cn/glj/dwgkgzzl/2023-12/20/content_8d4319a01bac45c480d777d56fc8781a.shtml</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['分宜公路：开展学习贯彻习近平总书记考察江西重要讲话精神专题宣讲 _ 党务公开工作专栏 _ 新余市公路事业发展中心', '为全面深入学习领会习近平总书记考察江西重要讲话精神，推动主题教育工作落地见效。12月19日，分宜公路分中心开展学习贯彻习近平总书记考察江西重要讲话精神专题宣讲，邀请市委宣讲团成员、市委宣传部副部长姚中国授课。', '姚中国以江西省情为导入点，从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求等五个方面做了系统全面的分析和阐释。课程内容紧扣江西省情实际、内涵丰富、视野宏伟、启迪思维、鼓舞干劲，对分宜公路分中心全体干部职工深入学习贯彻习近平总书记考察江西重要讲话精神具有很强的指导性、针对性和启发性。', '通过聆听宣讲，大家纷纷表示，将在今后的工作中，牢记殷殷嘱托，切实把习近平总书记考察江西重要讲话精神转化为干事创业的强大动力，为谱写中国式现代化新余篇章，加快打造新型工业强市贡献公路力量。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>122</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>学习经验拓思路凝心聚力推宅改市农业农村局赴吉安市永丰县考察学习宅改工作</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-12-28</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://nyj.xinyu.gov.cn/nyj/tpxw/2023-12/28/content_415739a569e2492eb31caaef1323d705.shtml</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['学习经验拓思路，凝心聚力推宅改 市农业农村局赴吉安市永丰县考察学习宅改工作 _ 图片新闻 _ 新余市农业农村局', '为进一步学优创优,开拓工作思路,学习借鉴宅改工作先进经验。近日,市农业农村局党组成员,市农业科学研究中心党组书记、主任刘小松带领市本级、各县区分管负责同志及业务负责同志赴吉安市永丰县考察学习宅改工作。', '永丰县为我省四个国家试点县之一,宅改制度成熟、宅改成效显著。本次学习采取座谈、观看宅改宣传片、实地参观相结合的方式进行。座谈会上,永丰县农业农村局从合力共为、规范管理、改革创新、融合共治等方面介绍了宅改的典型经验做法,与会人员围绕机构设置、建房审批、批后监管、合作建房、资格权认定、历史遗留问题处置等工作进行了深入交流学习、共同探讨,会场气氛热烈,好学不倦。实地参观了藤田镇易溪村、佐龙乡杨家坊村等宅改示范村,认真听取了当地介绍宅基地改革经验做法。', '参观学习过程中,学习组认真学习、用心思考,纷纷表示,这次学习不仅开阔了眼界,还开拓了思路,受益匪浅,为进一步推动我市宅改工作指明了方向、增强了信心,下一步我市将结合实际,因地制宜,在宅基地盘活、规范管理、融合发展等方面做文章,确保我市宅改工作取得实实在在的成效。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>122</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市纪委市监委召开监督推动学习贯彻习近平总书记考察江西重要讲话精神座谈会</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/2023-12/22/content_ce63d43b15674e62bd56371fe2f4c30f.shtml</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['12月20日,市纪委市监委召开监督推动学习贯彻习近平总书记考察江西重要讲话精神座谈会,市委常委、市纪委书记、市监委主任杨泽民出席会议并讲话。', '会议指出,在深入贯彻落实党的二十大精神的开局之年,习近平总书记再次亲临江西考察调研,彰显了习近平总书记对老区人民的深情大爱。习近平总书记的重要讲话高屋建瓴、思想深邃、鼓舞人心,为奋力谱写中国式现代化江西篇章指明了前进方向、提供了根本遵循。全市各级纪检监察机关要把学习贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务,以“走在前、勇争先、善作为”的标准和要求,推进全市纪检监察工作高质量发展。', '会议强调,要提高政治站位,准确把握习近平总书记考察江西重要讲话精神的核心要义、精神实质和实践要求。深入学习领会习近平总书记重要讲话精神,与贯彻党的二十大精神和党中央决策部署结合起来,与主题教育和教育整顿结合起来,转化为对党的绝对忠诚,转化为促进工作的强大动力,转化为担当实干的具体行动。要找准工作切入点着力点,推进政治监督具体化精准化常态化。深刻认识和把握“三新一高”要求,聚焦构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕等重点任务强化政治监督,确保习近平总书记重要讲话精神在新余落地落实。要驰而不息推进全面从严治党,以实际行动践行忠诚干净担当。把严的基调、严的措施、严的氛围长期坚持下去,坚定不移正风肃纪反腐;持续深化作风建设,驰而不息纠“四风”树新风,积极营造风清气正政治生态,为我市加快打造新型工业强市,奋力谱写中国式现代化新余篇章提供更加坚实保障。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>122</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>新余市公路事业发展中心开展学习贯彻习近平总书记考察江西重要讲话精神专题宣讲</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-12-08</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://glj.xinyu.gov.cn/glj/dwgkgzzl/2023-12/08/content_21b34c8416cd40deae16011314abb3f9.shtml</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['新余市公路事业发展中心开展学习贯彻习近平总书记考察江西重要讲话精神专题宣讲 _ 党务公开工作专栏 _ 新余市公路事业发展中心', '12月8日，新余市公路事业发展中心开展学习贯彻习近平总书记考察江西重要讲话精神专题宣讲，邀请市史志办主任李立峰授课，中心党组班子成员、机关全体干部职工和下属单位班子成员参加。', '从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求等五个方面，全面系统地解读了习近平总书记考察江西重要讲话精神，内涵丰富，逻辑严谨，思想深刻，对于公路系统全体干部职工深入学习贯彻习近平总书记考察江西重要讲话精神有极大的启发和帮助。', '宣讲后，深受鼓舞、倍感振奋，在今后的工作中，将牢记殷殷嘱托，切实把习近平总书记考察江西重要讲话精神', '“三大高地”、实施“五大战略”中当先锋、打头阵，为加快打造新型工业强市，奋力谱写中国式现代化新余篇章作出新的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>122</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>市住建局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-12-04</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://zjw.xinyu.gov.cn/zjw/tpxw/2023-12/04/content_33136b7ff4004e59b521db48af897fbf.shtml</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['市住建局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会 _ 图片新闻 _ 新余市住房和城乡建设局', '月28日上午，市住建局在十楼会议室召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会，邀请市委党校校委委员、副校长张萍同志作专题授课，局全体在职党员、退休党员代表参会。', '宣讲中，张萍围绕“谱写全面建设社会主义现代化国家江西篇章”，在全面理解重大意义、全面把握战略定位、全面落实重要要求三个方面进行了宣讲，从回顾习近平总书记在关键时期、重要节点亲自为江西把脉定向，充分理解此次习近平总书记考察江西的重要意义。随后，从考察地点、现场重要讲话和要求，深入分析习近平总书记对江西提出的“走在前、勇争先、善作为”目标要求，并通过数据、图表对比，解析江西在全国的位置以及长处、短处，提出“解放思想、开拓进取、扬长补短、固本兴新”十六字方针，一步一个脚印把习近平总书记为江西擘画的宏伟蓝图变为美好现实。', '此次讲课深入浅出，言简意赅，在座的每位同志对习近平总书记考察江西重要讲话精神有了一个更全面、更深刻的认识，推动全局党员干部职工更加信心百倍地走好新的赶考之路，以更强干劲、更实举措，努力把住建各项工作做得更好，不断推动住建事业取得新的更大成绩。（机关党委 彭达）']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>122</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>谢海峰带队赴鹰潭市学习考察立法工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-02-27</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/2024-02/27/content_5360953d04744584818c3f0ee6266d92.shtml</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['2月26日至27日,新余市水利局党组书记、局长、《孔目江水体保护条例》起草小组组长谢海峰带队前往鹰潭市调研立法工作。此行目的主要在于学习和借鉴鹰潭市在《鹰潭市信江饮用水水源保护条例》立法方面的先进经验,更好地推动《孔目江水体保护条例》立法工作。', '在座谈会上,鹰潭市生态环境局负责同志介绍了《鹰潭市信江饮用水水源保护条例》起草背景、起草经过、实施以来取得的主要成效、实施过程中存在的不足等情况。参会的鹰潭市相关部门负责同志就考察组关心的相关立法问题作了详尽的解答,并提出了有益建议。', '新余市水利局党组成员、副局长钟向军以及市司法局、市生态环境局有关负责同志参与考察。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>122</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>局党组成员副局长曾羽一行到江苏扬州学习考察粮库建设和粮食安全工作</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-03-18</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/tpxw/2024-03/18/content_a5d58969ae0e47ada754df5d5a58b251.shtml</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['局党组成员、副局长曾羽一行到江苏扬州学习考察粮库建设和粮食安全工作 _ 图片新闻 _ 新余市粮食局', '3月14日,局党组成员、副局长曾羽一行到江苏扬州邗江区粮储局、邗江储备粮管理公司及公道粮管所,学习考察粮库建设和粮食安全工作。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>122</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>新余市林业局到吉安市林业局考察学习林长制工作</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/2024-01/09/content_d39e9fd29cc24a499d41f6dfb2b52c60.shtml</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['1月4日,新余市林业局副局长袁志勇带领市林长办以及分宜县、渝水区、高新区和仙女湖区的领导和林长办一行到吉安市新干县考察学习林长制工作。', '考察组先后到吉安市新干县神政桥乡林长办、新干县林长制信息中心,了解林长制源头管理、护林员巡林、上报事件、处置事件情况,对林长制巡护系统进行了现场操作及交流。考察组一行还实地参观了新干县七琴镇炉福“林长+雷竹笋示范基地”建设情况。', '座谈会上,吉安市林业局和新干县林业局围绕林长制组织体系建设、源头网格化管理、压实林长责任、专职护林员建设和管理等方面展开座谈,向考察组一行进了具体的讲解。双方就“林长制”运行和考核管理等问题与考察地相关同志深入讨论交流。', '考察组对吉安市和新干县的林长制工作给予高度评价,表示回去后将认真总结吉安市和新干县林长制工作经验和特色做法,为推进新余市林长制工作提供借鉴和启示。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>122</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>市国资委举行学习贯彻习近平总书记考察江西重要讲话精神宣讲会</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/dwgk/2023-11/24/content_caf6c22163d943fca02fd4039b3d099b.shtml</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['市国资委举行学习贯彻习近平总书记考察江西重要讲话精神宣讲会 _ 党务公开 _ 新余市国有资产监督管理委员会', '为全面深入学习领会习近平总书记考察江西重要讲话精神,推动全市国资系统掀起学习贯彻习近平总书记考察江西重要讲话精神热潮,11月22日,市国资委邀请市委宣讲团成员、市委宣传部副部长姚中国作宣讲报告，市国资委党委书记、主任邱新林主持。', '报告从江西省省情出发，深度解读了习近平总书记考察江西重要讲话的丰富内涵和精神实质，系统阐述了习近平总书记考察江西的重大意义，深刻剖析了习近平总书记对江西发展的新目标、新定位、新要求，具有很强的思想性、指导性和针对性，为全市国资系统下一步学习贯彻习近平总书记考察江西重要讲话精神提供了精准指导。', '会议强调，全市国资系统要持续深入学习贯彻习近平总书记考察江西重要讲话精神，做到学懂弄通，入脑入心，领悟实质，切实把全系统干部职工思想统一到党中央和省委、市委的部署要求上来。扎实推进学习贯彻习近平新时代中国特色社会主义思想主题教育，提高政治站位，把主题教育作为当前一项重要政治任务。要立足工作职责，紧扣全市中心工作任务及“三个百日行动”，全力抓好2023全年工作，谋划好2024年工作。全面贯彻落实市委九届六次全会精神，树立长远发展眼光，布局未来产业，加大步子向前发展，尤其在项目建设、招商引资、国资国企改革等重点领域着重发力，为助力打造新型工业强市、谱写中国式现代化新余篇章贡献国资国企力量。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>122</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>城南街道开展学习贯彻习近平总书记考察江西重要讲话精神宣讲活动</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-11-28</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/zwdt1/2023-11/29/content_895ef5e56e674a82845dd794c4a5ef36.shtml</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['11月28日上午,城南街道开展学习贯彻习近平总书记考察江西重要讲话精神宣讲活动,邀请渝水区史志办一级主任科员邓阿琼授课,街道干部职工共70余人聆听。', '宣讲会上,邓阿琼围绕习近平总书记考察江西的重大意义、习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握习近平总书记考察江西重要讲话精神的实践要求等方面,全面、系统地解读了习近平总书记考察江西的重大意义和对老区人民的深情大爱,深入阐释了习近平总书记对江西发展的战略定位和对江西工作的重要要求。', '整场报告主题鲜明、脉络清晰,论述深刻、通俗易懂,对我们进一步深刻理解和准确把握习近平总书记考察江西重要讲话精神,提供了有力的指导。', '大家纷纷表示,聆听宣讲后,精神更加振奋、信心更加坚定,将牢记总书记的殷殷嘱托,在接下来的工作中,将努力对标“走在前、勇争先、善作为”的目标要求,全面学习贯彻习近平总书记考察江西重要讲话精神,以实际行动确保习近平总书记考察江西重要讲话精神在城南街道落地生根,不断开创基层工作新局面。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>122</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>市商务局举行学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://swj.xinyu.gov.cn/swj/zwdt/2023-11/27/content_774e422b089f4e2c841ff35996d4f0f7.shtml</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['在全党上下深入贯彻落实党的二十大精神、全面建设社会主义现代化国家的开局之年,在深入开展主题教育的关键时期,习近平总书记再次亲临江西考察指导,在开启中国式现代化建设江西实践进程中具有重要里程碑意义。为深入学习贯彻习近平总书记考察江西重要讲话精神,充分认识习近平总书记考察江西的重大意义、丰富内涵和实践要求,11月23日,市商务局举行了学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会。市委宣讲团成员、宣传部副部长姚中国受邀作专题报告。市商务局党组成员、副局长陈志坚主持。', '报告会上,姚中国从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求等五个方面做了系统全面的阐释。本次宣讲报告主题鲜明、内容丰富、论述精辟,既有政治高度,也有理论深度,还有实践厚度,对我局全体干部职工深刻领会和贯彻落实习近平总书记考察江西重要讲话精神具有很强的针对性、指导性和可操作性。', '大家纷纷表示,要紧紧围绕“走在前、勇争先、善作为”的目标要求,担当实干、求真务实,加强业务水平、锤炼过硬本领,更加坚定自觉地把习近平总书记考察江西的重要讲话精神转化为实际行动和扎实成效,为推动商务高质量发展贡献自己的力量。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>122</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>全区学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会举行</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/tpyw/2023-11/24/content_2a3f778cbfd0436b99b01334d13fb171.shtml</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['\u200b\u200b\u200b一周天气展望：预计下周我区以晴热高温天气为主。具体预报如下：周一到周四晴天多云，偏南风3到4级，气温28到37度；周五多云；周六到周日晴天多云。温馨提示：下周我区以晴热高温天气为主，水电供应将进入高峰，各地需做好水电调度等能源保障工作，注意做好防暑降温工作，户外活动避开高温时段。（渝水区气象局2024年7月14日16时发布）', '11月23日,全区学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会在市会展中心举行。区委书记刘颖豪主持报告会并讲话。他强调,学习好、贯彻好习近平总书记考察江西重要讲话精神,是全区上下当前和今后一个时期的首要政治任务和头等大事。全区各级党组织要以此次宣讲报告会为契机,在深入学习宣传、准确领会把握、全面贯彻落实上持续用力,带领全区广大干部群众团结奋斗,坚定不移沿着习近平总书记指引的方向奋勇前进。简华锋、何智勇、徐徕水等区四套班子领导、检察院检察长参加。报告会邀请市委副秘书长、市委政研室主任、市委改革办副主任陶从知作报告。', '报告围绕“解放思想不停步、开拓进取再出发”这一主题,从“深刻把握习近平总书记再次考察江西的重大意义”“深刻把握习近平总书记对江西发展提出的新的战略定位”“深刻把握习近平总书记对江西发展提出的任务要求”“深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求”“新余贯彻落实习近平总书记考察江西重要讲话精神的做法”等五个方面,并结合渝水实际,对学习贯彻习近平总书记考察江西重要讲话精神进行了深入系统阐释。', '为持续全面深入学习贯彻习近平总书记考察江西重要讲话精神,刘颖豪强调,要深入学习领会,汲取智慧力量。要充分认识习近平总书记考察江西的重大意义,深刻领悟习近平总书记对江西工作的勉励肯定、对江西发展的殷切期望、对江西发展明确的重点任务、对坚持和加强党的全面领导的重要要求,切实做到用习近平总书记考察江西重要讲话精神武装头脑、指导实践、推动发展。要广泛宣传宣讲,凝聚奋进共识。要按照主题教育要求,坚持用习近平新时代中国特色社会主义思想凝心铸魂,结合渝水实际,继续开展接地气、冒热气的宣讲,多用群众语言,多讲鲜活事例,持续发挥好领导宣讲、专家宣讲、老兵宣讲、党建宣传员宣讲等宣讲队伍作用,用好新时代文明实践中心(站、所)等基层阵地,立足对象实际开展针对性宣讲,加强互动交流,力求在宣讲阐释上见实效,持续推动习近平总书记考察江西重要讲话精神落地生根、家喻户晓,带动广大党员干部群众深学细照笃行。要全面贯彻落实,续写百强新篇。要以“走在前、勇争先、善作为”的目标要求,聚力“打造‘三大高地’,实施‘五大战略’”,积极投身加快打造新型工业强市新征程,扎实开展项目建设百日会战、招商引资百日行动、城市创建百日攻坚,在谋划落实全市“六大行动计划”中勇争先。要持续保持“不争第一就是落后”的进取心,真抓实干、攻坚克难,晋位争一等、百强再出发,为加快打造新型工业强市贡献更大渝水力量!']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>122</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>新余公安召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2023-11-27</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://gaj.xinyu.gov.cn/gaj/tpxw/2023-11/27/content_7fe220f5ad8142f38e8a294f3127ef31.shtml</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['新余公安召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会 _ 图片新闻 _ 新余市公安局', '11月24日,新余公安召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会。会上,市委宣讲团成员、市委第三巡察组正县级巡察专员陈山同志以《深入学习贯彻习近平总书记考察江西重要讲话精神加快打造新型工业强市》为题作专题宣讲。副市长、公安局长夏得湧主持会议并讲话。', '会议指出,全市公安机关要以坚定拥护“两个确立”、坚决做到“两个维护”的政治高度,原原本本学、站位全局学、结合实际学,深刻领会把握习近平总书记赋予江西发展“走在前、勇争先、善作为”的战略定位。', '会议要求,一要深刻感悟习近平总书记考察江西的重大意义,更加坚定自觉拥护“两个确立”、做到“两个维护”。要坚定不移沿着习近平总书记指引的方向,以“钉钉子”精神锲而不舍、久久为功,推动“走在前、勇争先、善作为”的殷殷嘱托在公安工作中走深走实。要一以贯之落实好习近平总书记的重要要求,始终保持求真务实的工作作风,牢牢把握“走在前、勇争先、善作为”的丰富内涵,完整准确全面贯彻新发展理念,坚定不移推动公安工作高质量发展,努力以公安一域之光,为全省大局助力添彩。二要实干笃行,凝心聚力把习近平总书记的殷殷嘱托转化为干事创业的强大动力。坚持知行合一,做到学以致用,进一步深化为民服务的初心、强化对党忠诚的恒心、提升做好工作的决心。紧盯群众正当合理诉求、所愁所痛、所呼所盼、所急所需,不断增强人民群众获得感、幸福感、安全感。切实把习近平总书记重要讲话精神转化为推动新时代公安工作和队伍建设的强大动力,以防风险、保安全、护稳定、抓改革、促发展的工作实效检验学习成效。三要入脑入心,掀起学习宣传贯彻热潮,推动习近平总书记重要讲话精神落地见效。各级党组织要切实加强统筹谋划,把习近平总书记重要讲话精神纳入各级公安机关党委理论学习中心组、各级党组织“三会一课”开展学习。各级领导干部要以身作则,率先垂范,把学习贯彻习近平总书记重要讲话精神和学习贯彻党的二十大精神、习近平总书记关于加强新时代公安工作的重要论述和重要训词精神相结合,做到一体学习、一体领会、一体贯彻,实现全警学习全覆盖,全面掀起学习热潮。', '市局党委班子成员、协助局领导分管工作的高级警长、各县分局局长、驻局办公各单位和特巡警支队副科级以上干部及机关部分民警代表在主会场参加会议。会议以视频形式开到县分局等基层单位。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>122</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>解放思想不停步开拓进取再出发学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团走进分宜</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2023-11-24</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-11/24/content_24961a1f06874c3ca6dc875c71df5a17.shtml</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['【解放思想不停步 开拓进取再出发】学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团走进分宜 | 中国分宜县人民政府网站', '【解放思想不停步 开拓进取再出发】学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团走进分宜', '11月23日,学习贯彻习近平总书记考察江西重要讲话精神市委宣讲团报告会举行。县委书记邹家洪主持报告会并讲话。他强调,学习好、宣传好、贯彻好习近平总书记考察江西重要讲话精神,是全县上下当前和今后一个时期的首要政治任务。全县上下要以此次宣讲报告会为契机,以强烈的政治自觉、思想自觉、行动自觉,解放思想、开拓进取,扬长补短、固本兴新,确保习近平总书记考察江西重要讲话精神在分宜落地生根、开花结果。钟宇虹、黄斯文等在家的县四套班子领导及其他在职县级领导参加。报告会邀请市委宣讲团成员、市侨联党组书记、主席罗忠作宣讲报告。', '罗忠以《走在前、勇争先、善作为,深入学习贯彻习近平总书记考察江西重要讲话精神》为题,从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求等五个方面,进行了系统全面阐释,既有深入浅出的理论阐述,又有实践层面的对策思考,对全县上下深刻领会、准确把握习近平总书记考察江西重要讲话精神具有重要指导作用。', '就进一步深入学习贯彻习近平总书记考察江西重要讲话精神,邹家洪强调,要在学习领会上持续深入,坚持以学为先,把学习贯彻习近平总书记考察江西重要讲话精神,与学习贯彻党的十八大以来习近平总书记对江西工作的一系列重要讲话重要指示批示精神结合起来,与贯彻落实党的二十大精神和深入开展主题教育结合起来,一体学习领悟、整体贯彻落实;领导干部要带头强化个人自学与集中学习,学懂弄通习近平总书记考察江西重要讲话的丰富内涵、核心要义和精神实质,做到学深悟透、入脑入心。要在宣传宣讲上精心谋划,宣传部门和融媒体中心要精心策划、组织各类新闻宣传、社会宣传和基层宣讲活动;领导干部要发挥示范作用,深入基层开展宣讲阐释;基层党组织书记要深入下辖或挂点支部进行宣讲,结合重点工作讲清楚道理、说明白事例;各地各单位要采取人民群众喜闻乐见的方式进行宣传解读,推动习近平总书记考察江西重要讲话精神深入人心;要结合城市创建工作强化社会宣传,营造文明进步、干事创业的浓厚氛围。要在贯彻落实上全面发力,按照“走在前、勇争先、善作为”的标准和要求,将学习贯彻习近平总书记考察江西重要讲话精神体现在完成全年经济社会发展目标任务上,体现在开展主题教育、城市创建等工作取得的实际成效上,紧盯年底各项重点工作收官,冲刺四季度、决战全年胜,全力推动习近平总书记考察江西重要讲话精神在分宜落地见效。', '县委各部门、县直各单位主要负责同志,各乡(镇、街道、园区)党(工)委主要负责同志,驻县中央、省、市属各单位主要负责同志,县各民主党派主要负责人,以及县委宣讲团成员和部分干部群众参加报告会。', '[分宜县]新余长兴工程咨询有限公司关于分宜县民政局民政服务站购买服务项目B包（项...', '[分宜县]新余长兴工程咨询有限公司关于分宜县民政局民政服务站购买服务项目A包（项...', '[分宜县]江西宇晟工程管理有限公司关于分宜县永久基本农田和永久基本农田储备区划...', '[分宜县]分宜县洞村乡程家坊村涂塘边村小组高标准农田项目中所发现的镁质粘土公开...', '[分宜县][线下]江西元鉴工程咨询有限公司关于爱心献血屋项目医疗设备一批（项目编...']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>122</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市农业农村局市农业科学研究中心召开学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://nyj.xinyu.gov.cn/nyj/zwdt/2023-11/23/content_c9ea299fa07341ff9e2f0e38aa6e4f7c.shtml</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['市农业农村局 市农业科学研究中心召开学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会 | 新余市农业农村局', '市农业农村局 市农业科学研究中心召开学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会', '为深入学习贯彻习近平总书记考察江西重要讲话精神,深刻领会把握其核心要义、精神内涵和实践要求,11月22日上午,市农业农村局、市农业科学研究中心召开学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会。市委宣讲团成员、市成教中心(新余开放大学)党委书记梁云森受邀作专题宣讲,局、中心全体干部职工100余人聆听了宣讲报告。', '报告会上,梁云森主要从“深刻把握习近平总书记再次考察江西的重大意义,坚定不移紧跟总书记、奋进新征程、建功新时代”“深刻把握习近平总书记对江西发展提出的新的战略定位,坚定不移沿着总书记指引的方向奋勇前进”“深刻把握习近平总书记对江西发展提出的任务要求,坚定不移推动全面建设社会主义现代化江西取得新的更大成就”“深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求,坚定不移为‘共抓大保护、不搞大开发’作出江西贡献”“深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求,坚定不移把总书记视察江西描绘宏伟蓝图变为现实”五个方面,深入阐述了习近平总书记考察江西重要讲话的丰富内涵和精髓要义,并结合省情市情进行了全面系统、深入浅出的详细阐释。', '台上讲得生动,台下听得认真。大家纷纷表示,深受教育、倍受启发,将在接下来的工作中,牢记习近平总书记对江西工作的殷切期望,努力对标“走在前、勇争先、善作为”的目标要求,结合当前正在开展的学习贯彻习近平新时代中国特色社会主义思想主题教育,以实际行动学习贯彻好习近平总书记考察江西重要讲话精神和对“三农”工作的重要指示批示精神,确保上级各项决策部署在全市农业农村系统落地生根、见行见效。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>122</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市工信局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://gxw.xinyu.gov.cn/gxw/tpxw/2023-11/22/content_861b3474a70f4292909b2ae84dcf8734.shtml</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['市工信局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会 _ 图片新闻 _ 新余市工业和信息化局', '11月21日,市工信局召开学习贯彻习近平总书记考察江西重要讲话精神宣讲会,市工信局党组成员、副局长黄爱忠主持会议,市委宣讲团成员、市委办副主任付秋平以“深入学习贯彻习近平总书记考察江西重要讲话精神,加快打造新型工业强市”为题作专题宣讲。', '宣讲会上,付秋平从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西工作的勉励肯定、深刻把握习近平总书记对江西发展提出的新的战略定位三个方面深入阐述了习近平总书记考察江西重要讲话的丰富内涵和精髓要义,并结合我市以转型促发展,加快打造新型工业强市的战略定位和使命任务,详细阐述了我市实现中国式现代化的具体实现路径和六大行动计划,并为市工信局全体干部学习贯彻习近平总书记考察江西重要讲话精神提出了指导建议。', '大家纷纷表示,此次宣讲站位很高、内容丰富,指导性很强,习近平总书记考察江西重要讲话精神为推进新时代新征程江西改革发展指明了前进方向、提供了根本遵循。市工信局要以习近平新时代中国特色社会主义思想为指导,坚决贯彻落实市委、市政府的工作部署,按照新余市制造业重点产业链现代化建设“6313”行动计划,全力打造钢铁、锂电新能源、电子信息、装备制造、纺织鞋服、非金属新材料六大重点产业链,壮大锂电新能源、装备制造、电子信息三大先进制造业产业集群,以高端化、智能化、绿色化为方向,加快构建富有特色优势的现代化产业体系,争当全省工业高质量发展的排头兵。市工信局全体干部参加此次会议。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>122</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>高新区学习贯彻习近平总书记考察江西重要讲话精神宣讲报告会举行</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://xyhdz.xinyu.gov.cn/C4370/qgxyw/2023-11/23/content_fefd8d255ef34198bc113319a9408392.shtml</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['11月22日,高新区学习贯彻习近平考察江西重要讲话精神宣讲报告会举行。市委第三巡察组正县级巡察专员陈山受邀作专题宣讲报告,区领导严黎、李青云、罗剑军、王涵颖、曾绍忠到场聆听。全区区直各部门科级以上干部、各镇(办)党政班子成员等100余人参加报告会。', '报告会上,陈山从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求和深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求等五个方面作了生动的讲解,为全区领导干部学习贯彻习近平总书记考察江西重要讲话精神提供很强的指导意义。', '大家纷纷表示,此次宣讲站位很高、内容丰富,理论性和实践性很强。“有幸聆听了本次宣讲会,进一步深刻了解习近平总书记考察江西重要讲话精神,更加充分理解‘走在前、勇争先、善作为’的目标要求。作为一名城市建设工作者,在今后的工作中,我将主动担当作为,积极谋划一批重大城建项目、统筹推进项目建设和申报‘三争两债’等重要工作,以功成不必在我,功成必定有我的思想理念,不断解放思想,开拓进取,在推动江西高质量发展上做出自己最大的贡献。”高新区城乡建设服务中心副主任李峰说道。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>122</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>走在前勇争先善作为丨省科技厅党组理论学习中心组开展学习贯彻习近平总书记考察江西重要讲话精神专题学习研讨</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://kjj.xinyu.gov.cn/kjj/bwcx/2023-11/30/content_ff0b15cd6f3f45dcbd0e48fe6eb4ac63.shtml</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['走在前 勇争先 善作为丨省科技厅党组理论学习中心组开展学习贯彻习近平总书记考察江西重要讲话精神专题学习研讨 _ 不忘初心、牢记使命 _ 新余市科学技术局', '走在前 勇争先 善作为丨省科技厅党组理论学习中心组开展学习贯彻习近平总书记考察江西重要讲话精神专题学习研讨', '为进一步将学习贯彻习近平总书记考察江西重要讲话精神引向深入,11月20日上午,省科技厅党组理论学习中心组开展学习贯彻习近平总书记考察江西重要讲话精神专题学习研讨。厅党组书记、厅长宋德雄主持会议。省直机关工委统战部副部长、省直机关团工委副书记曾芸莅临会议指导。在家厅领导出席会议。', '会上,大家集体观看了《新闻联播》关于习近平总书记考察江西的新闻报道,再次深切感受习近平总书记对江西的深情厚爱和亲切关怀。随后宋德雄带头作了专题研讨发言,其他在家厅领导和部分处室单位负责人也纷纷立足工作实际发言,大家谈认识,讲体会,明举措,阐述了对习近平总书记重要讲话精神的深刻理解,展现了不辜负习近平总书记期望、扎实做好工作的信心决心。', '宋德雄指出,时隔四年,习近平总书记再次考察江西,充分体现了总书记对革命老区的深情厚爱,对江西工作的充分肯定和殷切期望。习近平总书记就江西工作的重要讲话特别是针对科技创新提出的新要求,为我们做好科技创新工作指明了前进方向、提供了根本遵循,让我们倍感振奋、备受鼓舞。', '宋德雄强调,下一步全省科技管理系统要坚定不移沿着习近平总书记指引的方向砥砺前行,以“走在前、勇争先、善作为”的标准和要求,对标省委打造“三大高地”、实施“五大战略”的决策部署,按照“系统化设计、体系化建设、工程化推进、周期化管理”的工作方法,真抓实干、攻坚克难,为奋力谱写中国式现代化江西篇章提供有力科技支撑。要聚焦产业发展,有针对性地部署创新链。加强创新资源开放集聚和优化配置,制定科技支撑制造业重点产业链现代化建设“1269”行动计划实施方案,推进科技创新与产业发展紧密对接。要突出企业主体,打造一批高新技术产业。打造“科技型中小企业—高新技术企业—高成长性科技型企业—科技领军企业”梯次培育体系,培育更多科技型企业。支持企业开展前瞻性科学研究,在元宇宙、柔性电子、人工智能等未来产业领域,引领催生新技术、新业态、新成果,加快打造一批高新技术产业。要提升平台能级,积极对接国家战略科技资源。围绕科研基础、产业优势、区域特点,着力构建以国家级创新平台为引领、省级创新平台为主体的创新平台体系,扎实推进省重点实验室优化重组,积极培育国家级创新平台后备力量,全面提升创新整体效能。要强化人才驱动,营造浓厚科技创新氛围。优化“青年科技人才—科技领军人才—高层次科技领军人才”培养体系,加大对青年科技人才团队的支持。全面倡导“研究真问题、真研究问题、产出真成果”的创新文化,持续树立“投入要问产出、花钱要问绩效”的工作导向,有效营造鼓励创新、宽容失败、诚实守信的科技创新生态。要持续深入抓好习近平总书记考察江西重要讲话精神的学习宣传贯彻工作。坚持全面系统学、深入思考学、联系实际学,做到学深悟透、融会贯通,将习近平总书记考察江西重要讲话精神植根于灵魂。结合宣传载体和科技创新实践,积极深入高校、院所、企业、园区和市县广泛进行宣传宣讲,推动习近平总书记考察江西重要讲话精神深入人心。从习近平总书记的重要讲话重要指示中找定位、找任务、找思路、找方法,大力推进科技兴赣六大行动,推动习近平总书记考察江西重要讲话精神在全省科技系统开花结果。', '曾芸在点评讲话中指出,省科技厅党组思想上高度重视、行动上充分准备,开展了一次高质量的理论学习中心组专题学习研讨。大家的发言站位非常高、紧贴工作非常紧、聚焦问题非常实,充分说明全厅围绕习近平总书记考察江西重要讲话精神的学习领会做到了入脑入心、走深走实,建议今后全厅理论学习还要持续抓紧抓实、抓常抓长,及时总结好经验好做法,要形成规范制度并长期坚持,推动政治理论学习走在省直单位前列。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>122</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察江西重要讲话精神邹家洪深入高岚乡宣讲习近平总书记考察江西重要讲话精神并开展接访下访活动</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2023-11-15</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-11/15/content_1152b291cc094c499afc9807e45d048c.shtml</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['习近平在中共中央政治局第十五次集体学习时强调：贯彻落实新时代党的建设总要求 进一步健全全面从严治党体系', '国务院批复同意在沈阳等6个城市暂时调整实施有关行政法规和经国务院批准的部门规章规定', '新余市气象局关于新余市2023年度易燃易爆、矿区和旅游景点等场所防雷装置检测情况的通报', '关于取消新余市首套、二套住房商业性个人住房贷款利率下限和调整商业性个人住房贷款最低首付款比例的公告', '关于公开征求《关于设立“1·24”全市消防安全警示日的通知（征求意见稿）》意见的公告', '新余市人民政府关于印发《新余市推进建筑业高质量发展三年行动方案（2024-2026）》的通知', '新余市人民政府关于印发《新余市房地产业高质量发展三年行动方案（2024-2026）》的通知', '为深入推进营商环境优化升级“一号改革工程”，我市在总结仙女湖夜话成功经验的基础上，专门在新余政务开设“企业家直通车”专栏，24小时受理回复企业和客商在生产经营和项目推进中遇到的操心事、烦心事、揪心事，致力打造不打烊的“仙女湖夜话”，努力让企业在新余办事不用求人、办事依法依规、办事便捷高效、办事暖心爽心。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>122</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>传达学习习近平总书记考察江西重要讲话精神习近平总书记考察江西重要讲话精神宣讲走进县新时代文明实践中心</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2023-11-16</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/zhdt/2023-11/16/content_cd48a4e2fb4f40f297a0638607477d42.shtml</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['【传达学习习近平总书记考察江西重要讲话精神】习近平总书记考察江西重要讲话精神宣讲走进县新时代文明实践中心 | 中国分宜县人民政府网站', '【传达学习习近平总书记考察江西重要讲话精神】习近平总书记考察江西重要讲话精神宣讲走进县新时代文明实践中心', '近日,县新时代文明实践中心邀请县委党校讲师为现场群众宣讲习近平总书记考察江西重要讲话精神,通过观看视频,重温习近平总书记在江西考察时的生动场景,帮助大家深入学习贯彻习近平总书记重要讲话精神的丰富内涵,坚定不移听党话、跟党走。接着又以PPT展示的方式,围绕“走在前、勇争先、善作为”主题,结合生动案例和全县发展情况,向大家系统、全面、深刻地解读习近平总书记在江西考察时的重要讲话精神,真正把习近平总书记考察江西重要讲话精神,讲清楚、讲明白、讲到群众心坎里,切实打通理论宣讲“最后一公里”。', '[分宜县]江西元鉴工程咨询有公司关于分宜县应急管理局救灾物资采购电子化公开招标...', '[分宜县][线下]江西钰和工程管理有限公司关于分宜县第三次土壤普查成果汇总服务采...', '[分宜县]分宜县东环路西侧（原利新橡胶厂）堆放的镁质粘土公开网络竞价项目(第二次...']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>122</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记在江西考察重要讲话精神县农粮局守牢安全防线聚力乡村振兴</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/zhdt/2023-11/17/content_550ddd41cc14405fb251054427f4bef9.shtml</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['【学习贯彻习近平总书记在江西考察重要讲话精神】县农粮局：守牢安全防线 聚力乡村振兴 | 中国分宜县人民政府网站', '【学习贯彻习近平总书记在江西考察重要讲话精神】县农粮局：守牢安全防线 聚力乡村振兴', '习近平总书记在江西考察时的重要讲话,为新时代新征程三农工作进一步指明了前进方向,提供了根本遵循。以此为契机,全县农粮系统聚焦“走在前、勇争先、善作为”目标要求,大力实施乡村振兴战略,扛牢粮食安全责任,扎实推进秀美乡村建设,全面推动全县农业农村和粮食工作高质量发展。', '保障粮食安全,离不开高标准粮仓建设。位于分宜镇黄柏元的3万吨标准化中心粮库,是我县今年的一项重点民生实事项目。为让项目尽早完工、尽早惠民,工人们抢抓晴好天气,紧锣密鼓地进行水电消防管道预埋、瓷砖铺贴、吊顶等,目前已完成主体结构施工。据悉,该项目占地面积约60亩,仓储量达3万吨,同步配套出入库系统、通风冷却与环流熏蒸系统、粮情测控系统、安防系统、消防排水、粮食收购出库等设施设备,预计年底竣工。项目完成后,将实现绿色储粮和智能化、精细化管理,有效提高我县粮食收储能力和应急保供能力。', '县粮食收储公司经理艾铖:截至目前,我县3万吨标准化中心粮库1号仓到7号仓、综合楼和一站式服务中心已完成主体验收,室外排水沟、智慧粮库信息化建设正在预埋管线,已完成总体工程量的85%。', '今年以来,县农粮局以乡村振兴作为工作出发点和落脚点,倾力加快推进上分线(凤阳至高岚段)乡村振兴示范创建项目,奋力打造乡村振兴“分宜样板”。在杨桥镇新楼村罗塘布自然村精品点建设项目现场,记者看到,村里的房屋外墙已全部粉刷一新,休闲广场完成了土地平整,工人们忙着在房前屋后铺设路面、修缮沟渠,乡村面貌正在悄然改变。', '罗塘布自然村精品点建设项目,只是上分线乡村振兴示范创建项目的一个子项目。据了解,上分线乡村振兴示范创建项目南至凤阳镇乌石村,北至高岚乡西坑村,全长29.5公里,预计投资3200万元左右,涉及凤阳、杨桥、高岚3个乡镇15个行政村,主要建设内容包括沿线14个行政村村牌、13个产业牌和15个交通驿站的建设,大斜里、彰湖、罗塘布、乌石村4个村的村庄环境整治提升及沿线房屋外墙粉刷、沿线环境绿化等,同时统筹推进乡村产业发展、生态环境整治、公共服务设施提升等,提高农村宜业宜居水平。', '县农粮局干部付宇涵:截至目前为止,上分线乡村振兴示范带项目村牌、产业牌主体建设已完成,交通驿站已建成11个,预计11月底完工。杨桥镇外立面改造项目已开标,货场围挡和精品点建设正在建设中;高岚乡大斜里、彰湖环境整治项目均已开工,正在进行路面白改黑及外墙粉刷等项目;凤阳乌石村环境整治项目已完成70%左右工程量,正在进行人工池修缮。', '县农粮局党组书记、局长黄军生:作为三农干部,我们要全面学习贯彻习近平总书记考察江西重要讲话精神,要落实好耕地保护和粮食安全,全面建设好今年我县1.3万亩高标准农田建设项目,积极推进3万吨中心粮库年底竣工验收,牢牢守住耕地红线;坚持“藏粮于地、藏粮于技”,加强部门联动,合力共为,确保粮食安全稳定供应;要深入探索“美丽活力乡村+民宿”联动建设,激发农村发展活力,全面推进乡村振兴,建设宜居宜业和美乡村。', '[分宜县]新余长兴工程咨询有限公司关于分宜县公安局解剖室建设项目（项目编号： X...']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>122</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>关于印发江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神加快推进科技创新升级支撑中国式现代化江西建设的若干措施的通知</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://kjj.xinyu.gov.cn/kjj/zccy/2023-11/30/content_e672a4909eb84f07b69c22d5aabcef98.shtml</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['关于印发江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神加快推进科技创新升级 支撑中国式现代化江西建设的若干措施的通知 _ 政策法规 _ 新余市科学技术局', '关于印发江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神加快推进科技创新升级 支撑中国式现代化江西建设的若干措施的通知', '现将《江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神 加快推进科技创新升级 支撑中国式现代化江西建设的若干措施》印发给你们，请认真贯彻执行。', '江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神 加快推进科技创新升级支撑中国式现代化江西建设的若干措施', '为深入学习贯彻落实习近平总书记考察江西重要讲话精神，聚焦“走在前、勇争先、善作为”目标要求，紧紧围绕省委十五届四次全会关于打造“三大高地”、实施“五大战略”的决策部署，大力实施科教强省战略，加快推进科技兴赣六大行动，全面增强创新驱动力，提出如下若干措施。', '一、打造革命老区高质量发展科技引擎。优先支持革命老区创建国家级高新区、农业科技园区。支持符合条件的革命老区创建创新型城市和创新型县（市、区）。支持革命老区人民政府加强与科研机构、高等学校、科技企业合作，共建具有区域特色的研发机构，开展协同创新。支持革命老区相关龙头企业做大做强，培育一批高新技术企业。', '二、支持长江经济带科技发展。深化中三角科技合作，推动赣鄂湘共建长江中游国家技术创新中心。强化南昌在全省科技创新中的核心地位，持续支持中国（南昌）科学岛、南昌实验室等重大创新平台建设。支持九江建设长江经济带数字经济核心产业集聚区、智慧城市。加快推进庐山国家植物园申建，支持建设天红核科技研发中心。举办“庐山对话”活动，推动院士、专家、企业家与省内重点企业、高校、科研院所深入对接。', '三、强化科技赋能乡村振兴。加强与中国农业大学、中国农科院等国内一流高等院校和科研院所合作，推进农业领域重点实验室建设。推动中国水稻所江西早稻研究中心、江西南繁科研育种基地、农作物种质资源研究中心等种业创新平台建设，推进农业领域关键核心技术攻关。深入推行科技特派员制度，激发科技人员在乡村振兴中的服务热情和创新创业活力。', '四、推动赣鄱文化与科技融合发展。聚焦文化强省建设目标，凝练文化领域共性关键技术需求，纳入我省科技发展规划和项目申报指南。鼓励和支持符合条件的地区建设省级以上文化和科技融合示范基地。支持景德镇国家陶瓷文化传承创新试验区建设，强化陶瓷文物和文化遗产发掘保护关键技术攻关，提升陶瓷文化科技创新能力。支持人机交互、混合现实等关键技术攻关，加快5G、大数据、云计算、人工智能、VR/AR、超高清等新一代技术在文化领域的运用，构建“硬件+软件+专业服务”全产业创新链，打造具有影响力和竞争力的数字文化品牌。', '五、大力推进绿色低碳科技创新。积极稳妥推进科技支撑碳达峰碳中和，持续开展绿色低碳关键核心技术协同攻关，组织实施一批“双碳”领域科技项目，引导支持各类创新主体争取绿色低碳领域国家科技项目。优化绿色低碳领域省重点实验室、新型研发机构等创新平台总体布局。引进消化国内外先进低碳技术，加速低碳领域科技成果在我省推广应用。', '六、强化产业关键技术攻关。制定科技支撑制造业重点产业链现代化建设“1269”行动计划实施方案，有针对性地部署创新链，突破一批关键核心技术，打造一批高新技术产业。加强基础与应用基础研究，建设基础学科研究中心，优化基础研究支持机制。积极争取国家重大科技项目，提升社会主义市场经济条件下关键核心技术攻关新型举国体制参与度。发挥科技创新联合体作用，构建省市联动、多部门协同的关键核心技术攻关机制，探索“科创+产业”产学研用协作模式，实施一批原创性、引领性、带动性强的重大科技项目，推进重大科技成果熟化与工程化，加快实现新技术、新工艺的突破和迭代更新。', '七、打造高水平科技创新平台。加快构建新型实验室体系，探索国家实验室江西基地建设路径，积极与省外科研力量联合共建全国重点实验室，高标准建设一批省实验室，优化重组省重点实验室。完善技术创新中心体系，聚焦稀土等特色领域争创国家技术创新中心，布局建设一批省级技术创新中心。加快科研基础设施建设，推进基础条件平台升级，不断提升开放共享服务平台功能。', '八、强化企业科技创新主体地位。加快实施全省科技型企业梯次培育行动，大力培育科技领军企业，优化高成长性科技型企业培育机制，加快发展高新技术企业，持续孵化科技型中小企业。强化企业创新全过程主体地位，推动企业持续加大研发投入，健全以企业投入为主、各类资金共同参与的科技投入体系。引导有条件的科技型企业建立各类研发机构，支持企业承担重大科技项目，突破一批关键核心技术，开发一批填补国内空白的创新技术和产品。', '九、培育壮大科技人才队伍。持续优化“青年科技人才—科技领军人才—高层次科技领军人才”引育体系，加大力度培养、引进、用好科技人才。多措并举引育院士，加快培育高层次科技领军人才，优化升级省主要学科学术和技术带头人培养计划，支持青年科技人才担任重大科技项目、重大平台基地、重点攻关课题负责人。更大力度实施省高层次和急需紧缺海外人才引进计划，引聘国内外高校、科研院所、企业科技领军人才到省内规模以上企业担任“科技副总”。', '十、推动科技创新载体建设。加快鄱阳湖国家自主创新示范区高质量发展，持续推动国家高新区争先进位，支持省级高新区争创国家高新区，高起点布局一批省级高新区。做大做强农业科技园区，重点推进井冈山国家农业科技园区升建国家农业高新技术产业示范区。高标准建设十大科创城，打造全省发展新产业、培育新动能的主阵地。', '十一、强化科技成果转移转化体系建设。加强技术转移服务机构培育，进一步做大“江西省网上常设技术市场”。加快培养技术经纪人，推动建立技术经纪人职称制度。实施孵化载体提质计划，支持龙头企业、高校、科研院所建设专业化众创空间、硬科技孵化器，探索“投资+孵化”新型创新模式，加强孵化载体分类指导、运行评估和动态管理。', '十二、深化科技体制机制改革。对接国家科技计划体系，构建更加科学、高效、稳定的省级科技计划管理机制。探索开展科技人才评价改革试点，持续开展科研人员减负专项行动，扩大科研人员职务科技成果所有权或长期使用权试点改革范围。完善落实科技政策法规，开展科技体制改革成效评估。建立完善科研机构评估体系。强化科技监督与科研诚信建设，集中力量抓好重大项目实施、重大平台建设等监督，探索省市联动等多种行之有效监督方式。坚持激励与惩处并重，营造激励创新、倡导守信的良好创新环境。', '十三、持续扩大科技开放合作。推动国际科技合作交流，加强国际科技联合研究，支持参与国家“一带一路”科技创新行动计划，布局建设国际联合实验室。积极与北京、上海、粤港澳国际科技创新中心和武汉国家科技创新中心开展科技交流合作，积极对接融入G60科创走廊。深化“大院大所”“名校名企”合作，深入实施国家级大院大所产业技术及高端人才进江西活动，支持一流高校、科研院所等高端创新资源在江西建设分支机构。', '十四、加强服务型机关建设。加强党对科技工作的领导，坚持“系统化设计、体系化建设、工程化推进、周期化管理”工作思路，确保“研究真问题、真研究问题、产出真成果”，实现“投入问产出、花钱问绩效”。加强全省科技系统机关、事业单位队伍统筹发展顶层设计和整体谋划，建设党性强、站位高、政策通、能成事、作风硬的高素质科技管理人才队伍。加强科技安全治理，加大科技安全风险情报信息收集和研判，指导科研单位增强科技安全意识。', '政策解读：解读江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神 加快推进科技创新升级支撑中国式现代化江西建设的若干措施', '解读江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神 加快推进科技创新升级支撑中国式现代化江西建设的若干措施']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>122</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>全市团员青年学习贯彻习近平总书记考察江西重要讲话精神分享会召开</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-11-17</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/2023-11/17/content_86e46cad60c84660a3f236b147e5ba6a.shtml</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['11月16日,全市团员青年学习贯彻习近平总书记考察江西重要讲话精神分享会召开。市委副书记钟世富出席,省委主题教育第五巡回督导组副组长许光洪到会指导。', '会议传达了习近平总书记考察江西重要讲话精神及省委、市委学习贯彻习近平总书记考察江西重要讲话精神的会议精神,5名团员青年代表作分享交流。', '钟世富在讲话中说,全市各级共青团组织要深入学习贯彻习近平总书记关于青年工作的重要思想,切实担负起新时代共青团事业发展的责任使命,在习近平总书记同团中央领导班子成员集体谈话精神中找方向,在习近平总书记考察江西重要讲话精神中领任务,在学习贯彻习近平总书记关于青年工作的重要思想上抓落实,着力锻造政治忠诚、锐意进取、贴近青年、敢战能胜的现代化青年组织,更好地发挥党的助手和后备军作用。', '钟世富要求,全市广大青年要紧紧围绕“打造新型工业强市”目标定位,充分展现广大团员青年新担当、新作为、新风采。围绕市委“1336”决策部署,在项目一线攻坚克难、在基层一线勇挑重担、在志愿一线发光发热,不断推动习近平总书记考察江西重要讲话精神在渝钤大地落地落实。要牢牢抓住青年成长成才、建功立业的最好时代,在吃苦与奋斗中实现新时代青年的理想与担当,成为一名有能力、有格局、有定力、守底线的“四好青年”,为奋力谱写中国式现代化的新余篇章贡献青春力量。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>122</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>学习宣传贯彻习近平总书记考察江西重要讲话精神邹家洪主持召开县委常委议事协调会议</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/xwdt/2023-11/06/content_cfb3b46d23f44ca09ea1a75254a8add1.shtml</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['【学习宣传贯彻习近平总书记考察江西重要讲话精神】邹家洪主持召开县委常委议事协调会议 | 中国分宜县人民政府网站', '【学习宣传贯彻习近平总书记考察江西重要讲话精神】邹家洪主持召开县委常委议事协调会议', '日前,县委书记邹家洪主持召开县委常委议事协调会议,听取前三季度经济运行、综合考核情况和下一步经济工作建议。他强调,要深入学习贯彻习近平总书记考察江西重要讲话精神,聚焦“走在前、勇争先、善作为”目标要求,进一步增强抓好经济工作的责任感、使命感、紧迫感,紧盯目标不动摇、坚定信心不松劲,全力决战四季度、奋力实现全年旺,确保圆满完成各项目标任务,为着力打造“一极一县”奠定坚实基础。县领导谢淘、钟宇虹、胡瑜瑞、黄斯文、刘军、夏侯云、何勇刚、胡旻、罗艳兵、康学光出席会议。', '会上,邹家洪向责任县领导发放综合考核任务清单;相关县直部门汇报了前三季度主要经济运行情况和全县综合考核监测情况;与会县领导围绕经济运行及结合分管工作作了发言。', '听取大家发言后,就前三季度怎么看的问题?邹家洪指出,今年以来,全县上下奋力拼搏、真抓实干,有力推动经济实现质的有效提升和量的合理增长,经济运行总体呈现“恢复向好”态势。同时,要清醒看到,当前我县经济运行还面临不少问题与挑战,必须争分夺秒、真抓实干,以昂扬的激情、奋斗的姿态、坚韧的意志和务实的作风,全力以赴巩固优势指标、提振落后指标、补齐缺口指标,奋力交出年度高分答卷。', '就四季度怎么干,邹家洪强调,要锚定目标,深化“稳住、进好、调优”打法,把握关键、重点推进,做到有的放矢、精准施策,全力确保取得综合考核的“五连冠”以及创文创卫工作的决定性胜利;要全力冲刺,坚持深入一线,走上前线,干在火线,持续深入扎实开展项目建设百日会战、招商引资百日行动、城市创建百日攻坚,确保完成全年各项工作任务;要谋划明年,明确指导思想,找准坐标系,科学确定目标,梳理重点项目,强化保障措施,牢牢把握发展主动权,充分释放发展能量。', '就明年怎么抓,邹家洪强调,要深入贯彻落实习近平总书记考察江西重要讲话精神,践行“走在前、勇争先、善作为”要求,继续锚定着力打造“一极一县”总目标,保持战略定力、强化落实韧劲、坚定发展信心,只争朝夕奋力跑出分宜高质量发展加速度;要全面优化提升工作机制体制,实施重点产业月度、季度调度会制度,加强工作协调和督促,助推重点产业升级,实行季度擂台赛,采用“红黄绿椅”机制,倒逼推进落实,奋力推动项目建设“加速跑”;要加大干部资源向经济一线倾斜力度,旗帜鲜明树起“工作围着发展干、干部围着发展用”的选人用人导向,推动形成全县上下大抓经济、崇尚实干的良好氛围;要深化主题教育学习活动,全面落实省、市决策部署,坚持解放思想不停步,开拓进取再出发,坚定不移加快推动高质量发展。', '[分宜县]分宜县2023年度统筹整合资金推进高标准农田建设新建项目分宜县2023年度统...', '[分宜县]分宜县2023年度统筹整合资金推进高标准农田建设改造提升项目分宜县2023年...']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>122</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>学习宣传贯彻习近平总书记考察江西重要讲话精神邹家洪督导调研天工大道改造提升项目</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2023-11-06</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-11/06/content_0013ec662ab043549c50bff14d646452.shtml</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['【学习宣传贯彻习近平总书记考察江西重要讲话精神】邹家洪督导调研天工大道改造提升项目 | 中国分宜县人民政府网站', '【学习宣传贯彻习近平总书记考察江西重要讲话精神】邹家洪督导调研天工大道改造提升项目', '11月4日,县委书记邹家洪在督导调研天工大道改造提升项目时强调,要牢固树立以人民为中心的发展思想,高标准、高质量地推进城市建设项目,不断提升城市品质,切实提升人民群众幸福感和获得感。县委副书记、县长谢淘陪同。', '邹家洪一行先后来到天工大道车行道、八小停车场、天工大道人行道、新香海停车场、广场停车场等城建项目现场,实地查看项目建设进度,协调解决项目推进中存在的困难问题。邹家洪指出,抓好城建工作是改善城市人居环境、满足人民群众对美好生活的向往的具体举措,对于提升城市品质、改善群众居住环境有着重要意义。各级各部门要提高政治站位,切实增强责任感和紧迫感,坚持高水平规划、高品质建设,采取有力措施,加强沟通配合,形成工作合力,加快重点工程建设,不断增强城市的承载力,全力提升城市宜居水平。', '邹家洪强调,要提高服务意识,建立健全高效、畅通的沟通交流体制机制,进一步加强统筹协调,及时解决项目建设过程中的难点、堵点问题,确保项目顺利推进;要增强时间观念和效率意识,优化施工方案,科学调配力量,抢抓当前施工黄金期,紧盯时间节点、倒排工期,全力加快项目建设进度;要精心谋划城市建设项目,强化精品意识,在标准、品味、细节上下功夫,做好城市道路景观、绿化等工作,努力提升生态品质和城市品位。', '座谈会上,邹家洪认真听取了相关部门和规划设计单位的情况汇报,并协调解决相关问题,明确下一步工作任务。', '[分宜县]分宜县2023年度统筹整合资金推进高标准农田建设新建项目分宜县2023年度统...', '[分宜县]分宜县2023年度统筹整合资金推进高标准农田建设改造提升项目分宜县2023年...']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>122</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>解读江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神加快推进科技创新升级支撑中国式现代化江西建设的若干措施</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2023-11-13</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://kjj.xinyu.gov.cn/kjj/zcjds/2023-11/30/content_bd7539e094fb489cba56d5b78963b543.shtml</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['解读江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神 加快推进科技创新升级支撑中国式现代化江西建设的若干措施 | 新余市科学技术局', '解读江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神 加快推进科技创新升级支撑中国式现代化江西建设的若干措施', '为深入学习贯彻落实习近平总书记考察江西重要讲话精神,聚焦“走在前、勇争先、善作为”目标要求,紧紧围绕省委十五届四次全会关于打造“三大高地”、实施“五大战略”的决策部署,大力实施科教强省战略,加快推进科技兴赣六大行动,全面增强创新驱动力,结合省科技厅工作实际,起草了《江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神加快推进科技创新升级支撑中国式现代化江西建设的若干措施》,于2023年11月9日正式印发。', '第一部分为赋能经济社会发展,包括第一至五条,即:打造革命老区高质量发展科技引擎、支持长江经济带科技发展、强化科技赋能乡村振兴、助力赣鄱文化与科技融合发展、大力推进绿色低碳科技创新,围绕习近平总书记第三次视察江西时就革命老区高质量发展、长江经济带高质量发展、乡村振兴、赣鄱文化发展和生态文明发展作出的重要指示和部署,以科技创新推动相关领域的高质量发展。', '第二部分为加快工作推进,包括第六至十一条,即:强化产业关键技术攻关、打造高水平科技创新平台、强化企业科技创新主体地位、培育壮大科技人才队伍、推动科技创新载体建设、强化科技成果转移转化体系建设,主要是对科技兴赣六大行动再动员、再部署、再推进,推动科技兴赣六大行动不断落实落细。', '第三部分为强化保障措施,包括第十二至十四条,即:深化科技体制机制改革、持续扩大科技开放合作、加强服务型机关建设,主要是强化提升创新能力和营造创新氛围,推动我省科技系统始终坚持“系统化设计、体系化建设、工程化推进、周期化管理”工作思路,确保“研究真问题、真研究问题、产出真成果”,实现“投入问产出、花钱问绩效”,助力全省科技创新升级。', '政策原文：关于印发江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神加快推进科技创新升级 支撑中国式现代化江西建设的若干措施的通知', '关于印发江西省科学技术厅关于深入学习贯彻习近平总书记考察江西重要讲话精神加快推进科技创新升级 支撑中国式现代化江西建设的若干措施的通知']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>122</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察江西重要讲话精神省委宣讲团报告会举行</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2023-11-07</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/hotnews/2023-11/07/content_3aba49b5810e4bd3a0496afc96419f97.shtml</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['11月6日,学习贯彻习近平总书记考察江西重要讲话精神省委宣讲团报告会举行。省委宣讲团成员、省委组织部分管日常工作的副部长徐忠作宣讲报告。市委书记郑光泉主持。主题教育省委第五巡回督导组组长戴春英、副组长许光洪及督导组成员,徐鸿、钟世富、赖国根、张家良等市四套班子领导,新余学院党委书记伍复康出席。', '徐忠以《走在前、勇争先、善作为,奋力谱写中国式现代化江西篇章》为题,从深刻把握习近平总书记再次考察江西的重大意义、深刻把握习近平总书记对江西发展提出的新的战略定位、深刻把握习近平总书记对江西发展提出的任务要求、深刻把握习近平总书记对进一步推动长江经济带高质量发展的重要要求、深刻把握贯彻落实习近平总书记考察江西重要讲话精神的实践要求等五个方面,进行了系统全面阐释,既有理论上的概括,又有实践上的指导,对我市广大干部群众全面准确把握习近平总书记考察江西重要讲话精神具有重要指导意义。', '郑光泉在主持时指出,学习贯彻习近平总书记考察江西重要讲话精神是当前和今后一个时期的首要政治任务和头等大事。全市各地各部门要以宣讲报告会为契机,在深入学习宣传、准确领会把握、全面贯彻落实上持续用力,切实推动习近平总书记系列重要讲话精神在我市落地见效。要深刻领会习近平总书记对江西工作的勉励肯定、对江西发展的殷切期望、对江西发展明确的重点任务、对坚持和加强党的全面领导的重要要求,进一步把握大局大势、锚定目标任务、强化责任担当,坚定不移沿着习近平总书记指引的方向砥砺前行。要结合学习贯彻习近平总书记历次考察江西重要讲话精神,结合贯彻落实党的二十大精神和党中央决策部署、省委工作要求,结合市委、市政府中心工作,一体学习领会、整体贯彻落实。', '郑光泉强调,要切实把学习贯彻习近平总书记考察江西重要讲话精神,转化为对党绝对忠诚的政治信仰、推进改革发展的巨大动力、推动各项工作的实际成效。要以“走在前、勇争先、善作为”的标准和要求,在努力构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕、坚持和加强党的全面领导上下功夫,解放思想不停步、开拓进取再出发,坚决打好全年收官之战,尽最大努力争取最好结果,同时精心谋划明年各项工作,加快谋划实施“六大行动计划”,为明年起好步、开好局打牢基础。', '市法检两长,新钢公司、亚林中心、江西工程学院有关负责同志,市委各部门、市直各单位及驻市中央、省属单位主要负责同志等参加报告会。各县(区)设分会场。', '会后,徐忠来到市主题教育办,调研我市主题教育开展情况,并来到省委督导组驻地看望督导组成员。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>122</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>学习贯彻习近平总书记考察江西重要讲话精神谢淘在钤山镇宣讲习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/zfdt/2023-11/08/content_9904aaf4f11f4a37845081796bf5195a.shtml</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['【学习贯彻习近平总书记考察江西重要讲话精神】谢淘在钤山镇宣讲习近平总书记考察江西重要讲话精神 | 中国分宜县人民政府网站', '【学习贯彻习近平总书记考察江西重要讲话精神】谢淘在钤山镇宣讲习近平总书记考察江西重要讲话精神', '11月7日,县委副书记、县长谢淘深入钤山镇宣讲习近平总书记考察江西重要讲话精神,同干部群众交流座谈。他强调,要深入学习贯彻习近平总书记考察江西重要讲话精神,大力弘扬“四下基层”优良传统,走近群众、面对群众,把问题解决在一线、矛盾化解在一线、工作落实在一线,持续走好新时代党的群众路线。', '走进钤山镇金鸡布村和白芒村,谢淘实地察看黄茶种植产业发展情况,并与镇村干部、党员群众围坐亲切交流,从发展、保护、振兴、传承四个方面宣讲习近平总书记考察江西重要讲话精神,深刻阐述了“走在前、勇争先、善作为”的丰富内涵,动员引领广大群众始终沿着习近平总书记指引的方向阔步前行。', '宣讲中,谢淘指出,习近平总书记时隔四年再次亲临江西考察指导,充分体现了对革命老区的深情厚爱、对江西工作的高度重视、对江西发展的殷切期望,明确了新时代江西工作的思路方向、目标任务、实现路径和重点举措。大家要充分认识习近平总书记考察江西的重大意义,准确把握习近平总书记对江西工作的重要要求,解放思想、开拓进取,扬长补短、固本兴新,把习近平总书记的殷殷嘱托转化为钤岗大地的生动实践。', '宣讲结束后,谢淘还到钤山镇中心卫生院、新余市精神病医院、沿街餐馆等地督导国家卫生乡镇创建工作,要求属地及有关部门要压紧压实工作责任,严格对照创建标准与要求,全面查漏补缺,持续巩固提升,确保国家卫生乡镇创建工作落到实处、取得实效。', '[分宜县]分宜县2023年度统筹整合资金推进高标准农田建设新建项目分宜县2023年度统...', '[分宜县][线下]江西宇晟工程管理有限公司关于分宜县永久基本农田和永久基本农田储...', '[分宜县]分宜县洞村乡程家坊村涂塘边村小组高标准农田项目中所发现的镁质粘土公开...']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>122</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>传达学习贯彻习近平总书记考察江西重要讲话精神谢淘要扣好人生第一粒扣子</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/zfdt/2023-10/25/content_f0b58532312945c4b0f35a1f8fa64769.shtml</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['【传达学习贯彻习近平总书记考察江西重要讲话精神】谢淘：要扣好人生第一粒扣子 | 中国分宜县人民政府网站', '10月24日,县委副书记、县长谢淘在县委党校出席2023年科级干部培训班学员座谈会。他强调,要深入学习领会习近平新时代中国特色社会主义思想,深入贯彻落实习近平总书记视察江西重要讲话精神,加强理论学习,扣好人生第一粒扣子,以“走在前、勇争先、善作为”的标准和要求,开拓进取、担当实干,不断开创全县各项事业发展新局面。', '座谈会上,学员代表结合在党校期间的所学所思,立足岗位实际和经历,分享了学习收获和心得体会。对每位学员代表的发言,谢淘都认真倾听、仔细记录,并一一对话交流,在问答中有针对性地指出工作重点和学习建议。', '随后,谢淘以习近平总书记以往经历为引,带领大家深切感悟习近平总书记的领袖风范、思想伟力和为民情怀,深刻阐述终身学习对党员干部提高思维能力、增强履职本领、开拓视野格局的重要性。希望大家要珍惜每一次学习提升机会,做到学有所成、学以致用。强化思想淬炼,在学习中坚定理想信念,加强党性修养,不断提高政治判断力、政治领悟力、政治执行力;强化实践锻炼,多当几回“热锅上的蚂蚁”,多捧几回“烫手山芋”,在摸爬滚打中增长才干,在层层历练中积累经验;强化作风锤炼,扣好人生第一粒扣子,树立正确的世界观、人生观、价值观,切实把理想信念转化为行动力量,不负时代重托、不负青春韶华,走好人生道路。', '[分宜县]新余长兴工程咨询有限公司关于分宜县智慧交通指挥中心建设项目（信息化设...', '[分宜县][线下]江西泰达工程造价咨询有限公司关于分宜县公安局350M警用数字集群（...']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>122</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>市自然资源局党组理论学习中心组集中学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-10-27</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://bnr.xinyu.gov.cn/xyszrzyj/zrdt/2023-10/31/content_3d33f50560734a87acb37fb6b1bf28a3.shtml</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['市自然资源局党组理论学习中心组集中学习习近平总书记考察江西重要讲话精神 - 新余市自然资源局', '10月19日，市自然资源局党组召开理论学习中心组集中学习会，深入学习贯彻习近平总书记考察江西重要讲话精神，坚定不移沿着总书记指引的方向，奋力谱写中国式现代化自然资源新篇章。', '10月10日至13日，习近平总书记先后到九江、景德镇、上饶等地调研指导，站在党和国家事业战略全局高度，深刻阐明了事关江西改革发展的一系列根本性、方向性、全局性问题，进一步明确了新时代 江西工作的思路方向、目标任务、实现路径和重点举措，为我们进一步指明了前进方向、提供了行动指南、明确了目标路径。', '会议重点学习了习近平总书记在江西考察时的重要讲话精神和习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神、郑光泉同志在全市领导干部会议上的讲话。市自然资源局在家领导班子逐一发言，大家立足工作实际和学习心得，谈认识、讲感悟，充分体现了对总书记考察江西重要讲话精神的深入理解，展现了为高质量发展、开拓进取的信心与信念。', '深刻领会习近平总书记江西考察时重要讲话精神，是当前和今后一个时期的首要政治任务和头等大事', ',要同学习贯彻党的十八大以来总书记对江西工作的一系列重要讲话重要指示精神结合起来，与贯彻党的二十大精神和党中央决策部署结合起来，精心安排、掀起学习热潮。要', '坚持以服务发展为首要任务，进一步优化国土空间格局，为高质量发展提供强有力的要素保障和服务，持续拓宽', '“绿水青山”向“金山银山”的转化路径，助力打造国家生态文明建设高地。要贯彻落实习近平总书记进一步推动长江经济带高质量发展的重要要求，按照市委市政府的部署安排，为打造城市新经济增长提供规划引领和要素保障，实现全域城乡融合发展。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>122</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>市国资委召开党委会议传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2023-10-30</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/dwgk/2023-11/03/content_da730875dc8f40d2b8633f162a1d423c.shtml</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['市国资委召开党委会议传达学习习近平总书记考察江西重要讲话精神 _ 党务公开 _ 新余市国有资产监督管理委员会', '近日，市国资委召开专题党委会议，传达学习习近平总书记考察江西、在进一步推动长江经济带高质量发展座谈会上的重要讲话精神及省委、市委常委会会议精神。市国资委党委书记、主任邱新林同志主持并讲话，其他党委委员作学习交流发言。', '习近平总书记时隔四年再次亲临江西考察，充分体现了总书记对江西发展一以贯之的关心关怀', '鲜明赋予了江西发展新的战略定位，为我们加快推动高质量发展指明了前进方向；进一步明确了今后工作的任务要求，在开启中国式现代化建设江西实践进程中具有重要里程碑意义。', '“努力构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕”四个方面的要求，', '国资国企改革创新攻坚行动的各项目标任务，聚焦国有企业监管、人事制度、考评评价、企业改制、主责主业及功能划分等重点难点领域，持续深化改革。', '。要推动各市属国企进一步明确自身业务范围和功能定位，充分发挥国资国企优势，在优化产业布局、实现产业整合，推动项目建设，助力产业升级上提质增效。', '。要推动各市属国企聚焦主责主业，在基础设施、城市建设、智慧便民、服务企业发展、实现乡村振兴等领域争取', '学习贯彻习近平总书记考察江西重要讲话精神，是当前和今后一个时期全市上下的首要政治任务和头等大事。', '与学习贯彻党的十八大以来习近平总书记对江西工作的一系列重要讲话重要指示精神结合起来，与深入开展主题教育']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>122</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>新时代文明实践活动市政务服务中心开展学习宣传贯彻习近平总书记考察江西重要讲话精神政务服务进社区志愿服务活动</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/tpxw/2023-11/04/content_032900e852744d6a8a51e57d1aa90bf9.shtml</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['【新时代文明实践活动】市政务服务中心开展“学习宣传贯彻习近平总书记考察江西重要讲话精神，政务服务进社区”志愿服务活动 _ 图片新闻 _ 新余市政务服务中心', '【新时代文明实践活动】市政务服务中心开展“学习宣传贯彻习近平总书记考察江西重要讲话精神，政务服务进社区”志愿服务活动', '为全面掀起学习贯彻习近平总书记考察江西重要讲话精神的热潮,推动讲话精神深入基层、深入群众、深入人心,11月3日,市政务服务中心依靠“文明实践+政务服务”品牌模式,推进学习宣传进社区,在春龙社区开展“学习贯彻习近平总书记考察江西重要讲话精神,政务服务进社区”志愿服务活动,让新时代文明实践中心建设“活起来”“强起来”“亮起来”。', '中心志愿者在春龙社区新时代文明实践中心,以面对面讲解形式,帮助社区居民了解习近平总书记考察江西重要讲话精神,切实把党的“声音”传播到群众中去。并将“营商环境政务服务开放日”活动与“文明实践”相结合,践行初心使命、展现责任担当,通过耐心的政策解读,进一步做实、做好政务服务工作,更好地为百姓服务。', '志愿者们同时对帮扶小区和主干道存在的机动车和非机动车乱停乱放进行了整理,对不文明的行为进行了劝阻,对道路两旁绿化带的垃圾杂物进行清理,对楼栋前后的枯枝落叶进行了清扫,经过大家的辛勤劳动,社区环境面貌焕然一新。', '市政务服务中心将持续利用好“文明实践+政务服务”模式,深入学习贯彻习近平总书记考察江西重要讲话精神,全面提升政务服务内涵、水平和实效,不断塑造文明服务新形象,助力城市创建贡献政务服务力量。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>122</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>传达学习贯彻习近平总书记考察江西重要讲话精神县生态环境保护委员会年度第二次会议暨省生态环境保护督察整改工作动员会召开</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-10/25/content_3b0f03013f6c4808b8515772e5bd1877.shtml</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['【传达学习贯彻习近平总书记考察江西重要讲话精神】县生态环境保护委员会2023年度第二次会议暨省生态环境保护督察整改工作动员会召开 | 中国分宜县人民政府网站', '【传达学习贯彻习近平总书记考察江西重要讲话精神】县生态环境保护委员会2023年度第二次会议暨省生态环境保护督察整改工作动员会召开', '10月23日晚,县生态环境保护委员会2023年度第二次会议暨省生态环境保护督察整改工作动员会召开。县委书记邹家洪出席会议并讲话。县委常委、常务副县长夏侯云主持会议,县委常委、副县长罗艳兵出席。', '邹家洪指出,习近平总书记考察江西时的重要讲话精神和关于生态环境保护的系列重要讲话精神,为进一步加强生态环境保护、推进生态文明建设提供了方向指引和根本遵循。各地各部门要切实提高政治站位,深刻领悟生态环境保护和生态文明建设的重大意义,认清当前全县生态环境保护形势,强化底线思维,统筹抓好经济社会发展和生态环境保护,在加强生态环境保护、推进美丽中国建设中扛起责任担当,为打造美丽中国“江西样板”贡献分宜力量。', '邹家洪强调,要压实责任链条,各地各部门要按照“属地管理、党政同责、一岗双责”要求,真正把责任落到位、监管严起来、督查跟上去,切实把生态环保各项工作抓紧抓实抓细抓到位。', '要强化工作举措,深入打好污染防治攻坚战,全力攻坚空气环境质量,稳定改善水环境质量,持续稳固土壤和地下水环境质量。要聚焦制造业高端化、智能化、绿色化发展,不断推动产业结构调整优化,加快传统产业向绿色低碳转型升级,加快推进能源结构调整。', '要坚持系统治理,围绕督察发现的问题,深挖根源、深找原因,迅速建立整改台账,能马上解决的立即解决,一时解决不了的明确整改目标、措施、时限和责任单位,做到问题不查清不放过、整改不到位不放过、责任不落实不放过、群众不满意不放过。要坚持举一反三,触类旁通,查找本辖区、本行业的衍生性、关联性问题,制定有效措施,严格标准、坚决整改。', '要加强督查督办,建立健全环境保护督查督办机制,狠抓重点区域、重点企业、突出环境问题的排查整治以及各类环境违法案件的查处,以更严的要求、更实的作风和更有力的举措,推动分宜县生态环保工作取得更大成效,坚决守护好分宜山清水秀的生态环境。', '会议通报了全县污染防治攻坚战和生态环境保护督查问题整改工作推进情况,解读了有关方案;部分单位作表态发言。', '[分宜县]新余长兴工程咨询有限公司关于分宜县智慧交通指挥中心建设项目（信息化设...', '[分宜县][线下]江西泰达工程造价咨询有限公司关于分宜县公安局350M警用数字集群（...']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>122</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>传达学习贯彻习近平总书记考察江西重要讲话精神全县组织工作会议召开</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-10/25/content_ff84cfd99cbe4bd79013a547c975098a.shtml</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['【传达学习贯彻习近平总书记考察江西重要讲话精神】全县组织工作会议召开 | 中国分宜县人民政府网站', '10月24日,全县组织工作会议召开,县委书记邹家洪出席会议并讲话。他强调,要坚持以习近平新时代中国特色社会主义思想为指导,深入学习贯彻党的二十大精神和习近平总书记考察江西重要讲话精神,以及关于党的建设重要思想,认真落实全国、全省、全市组织工作会议部署,全面加强党的建设,着力提高全县组织工作质量,为着力打造“一极一县”提供坚强组织保证。县委副书记、县长谢淘主持会议,县领导钟宇虹、刘军、何勇刚、胡旻出席会议。', '邹家洪指出,习近平总书记关于党的建设的重要思想,深刻阐明了党的建设的根本原则、科学布局、价值追求、重点任务,总结了新时代十年党的建设和组织工作重大成就,为深入推进新时代党的建设新的伟大工程、做好新时代组织工作提供了根本遵循。全县上下要提高政治站位,牢牢把握党的建设和组织工作正确方向,确保全县党的建设和组织工作始终沿着正确方向前进。', '就做好下一步工作,邹家洪强调,要扭住重点关键,奋力推动党的建设和组织工作高质量发展,持续强化党的政治建设,加强政治忠诚和党性教育,引导党员干部提高“政治三力”,识别和查处“两面人”“伪忠诚”,确保习近平总书记有号令、党中央有部署,分宜不折不扣坚决落实。要持续锻造高素质干部队伍,树立鲜明的用人导向,选拔德能兼备、人岗相适的干部,加强干部培训、监管和交流,为担当者、负责者和干事者撑腰。要持续建设分宜振兴人才集聚高地,以发展需要引才用才,以长远视野养才育才,以真心诚意留才聚才,推动各类各层次人才向分宜集聚。要持续夯实基层战斗堡垒,加强组织体系建设,推进各领域党的建设,实施治理强基战略,在打造“一极一县”,推进“六大重点突破”中再立新功。', '邹家洪强调,要狠抓工作落实,自觉扛起党的建设和组织工作使命担当,各级党委(党组)要履行好管党治党的政治责任;党委(党组)书记要强化主责、主业、主角意识,班子成员要认真履行“一岗双责”,各级党委工作部门要根据自身分工承担直接责任;组织部门持续深化政治机关建设;要深入推进党的建设制度改革和综合考核,围绕基层治理、干部能上能下等影响和制约组织工作高质量发展的问题,大兴调查研究之风,在摸清情况、分析症结、研究措施上持续发力,让基层把更多精力用在干实事上。', '[分宜县]新余长兴工程咨询有限公司关于分宜县智慧交通指挥中心建设项目（信息化设...', '[分宜县][线下]江西泰达工程造价咨询有限公司关于分宜县公安局350M警用数字集群（...']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>122</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>新余市水利局召开党组理论学习中心组学习会传达学习习近平总书记在江西考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/ztjy/2023-10/25/content_315a47874f464b69a947eca41703f1f4.shtml</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['新余市水利局召开党组理论学习中心组学习会传达学习习近平总书记在江西考察时的重要讲话精神 _ 学习贯彻习近平新时代中国特色社会主义思想主题教育 _ 新余市水利局', '新余市水利局召开党组理论学习中心组学习会传达学习习近平总书记在江西考察时的重要讲话精神', '10月24日,新余市水利局党组理论学习中心组举行学习贯彻习近平新时代中国特色社会主义思想主题教育第二次专题学习会。新余市水利局党组书记、局长甘向民主持会议并讲话。', '会议传达学习了习近平总书记在江西考察时的重要讲话精神,传达了10月16日新余市召开的全市领导干部会议精神,学习了《深入学习贯彻习近平关于治水的重要论述》第三章内容、《新余市城乡供水一体化管理条例》等内容,该局领导班子成员紧密围绕学习贯彻习近平总书记考察江西时的重要讲话精神及习近平“十六字”治水思路,谈心得体会、谈工作举措。', '甘向民指出,在全党上下深入开展第二批主题教育之际,习近平总书记亲临江西考察调研并作出重要指示,为江西发展擘画了宏伟蓝图。我们水利部门要充分认识习近平总书记考察江西的重要意义,迅速把思想和行动统一到习近平总书记考察江西重要讲话精神和市委市政府工作部署上来,在推进水利高质量发展上走在前、勇争先、善作为。', '甘向民强调,要解放思想、开拓进取,狠抓贯彻落实,全面落实习近平总书记考察江西时的重要讲话精神,按照“节水优先、空间均衡、系统治理、两手发力”的治水思路指引,锚定省委十五届四次全会赋予新余的战略定位和使命任务,扎实推动我市水利高质量发展,为奋力谱写中国式现代化新余篇章贡献水利力量。', '甘向民强调,学习好、贯彻好习近平总书记在江西考察时的重要讲话精神,是当前和今后一个时期全局上下的首要政治任务和头等大事。要深入学习领悟,并与深入开展主题教育结合起来,通过理论学习中心组、党组会、“三会一课”、青年理论学习小组等多种形式组织学习研讨交流。要全面发力,抓好三个百日行动。抢抓项目建设进度,争取19个开工项目达到预期进度;城市创建攻坚工作要持续发力,守护城市供水“最后一公里”。要全面调度,全力冲刺年度考核。要实行每周一调度,加强沟通汇报,按时按质完成好水利高质量发展考核要求,确保一年更比一年好。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>122</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>市体育局召开会议传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://tyj.xinyu.gov.cn/tyj/tpxw/2023-10/25/content_fb4148c7086c4c08b6235712ed683da9.shtml</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['市体育局召开会议传达学习习近平总书记考察江西重要讲话精神 _ 图说体育 _ 新余市体育局', '10月18日,市体育局召开全体干部职工会议,专题传达学习习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,以及全省、全市领导干部会议精神。市体育局党组书记黄敏勇主持会议并讲话,班子成员、局属各单位、各科室负责人及全体机关干部职工参加会议。', '会议指出,习近平总书记时隔四年再次亲临江西考察指导工作,站在党和国家事业战略全局高度,深刻阐明了事关江西改革发展的一系列根本性、方向性、全局性问题,进一步明确了新时代江西工作的思路方向、目标任务、实现路径和重点举措,为我们做好体育工作指明了前进方向、提供了根本遵循。', '会议要求,一是以更高的站位抓好学习贯彻。要迅速掀起学习热潮,紧密结合主题教育和工作实际,抓好分层次、全覆盖学习,领导班子要以上率下带头学,党员干部要结合“主题党日”“学习强国”经常学,凝聚奋进力量。二是以更强的担当抓好体育工作。要全面把握“走在前、勇争先、善作为”标准要求,在工作上狠抓落实。紧扣习近平总书记关于体育的重要论述,加快推进体育强国建设,推动体育事业高质量发展。三是以更严的标准抓好作风建设。坚持和加强党的全面领导,打造忠诚干净担当的高素质专业化体育干部队伍,提高政治能力、学习能力、创新能力,勇挑重担,主动担当,加强党性锤炼,严肃党内政治生活,推动全面从严治党不断向纵深发展,建设风清气正的良好政治生态。', '会议强调,要把学习、宣传、贯彻习近平总书记重要讲话精神作为当前和今后一个时期的首要政治任务和头等大事,牢记嘱托、担当作为,解放思想、开拓进取,扬长补短、固本兴新,为加快打造新型工业强市,奋力谱写中国式现代化的新余篇章作出体育贡献。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>122</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>新余市住建局赴萍乡学习考察建筑房地产企业入规工作</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://zjw.xinyu.gov.cn/zjw/zwdt/2023-10/20/content_1e8b80bb5b9742d6ba4be56233b55536.shtml</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['日上午，新余市住建局副局长林祥忠、蔡永飞带领建管科、房管科负责人以及县区住建局分管领导一行', '此次学习考察以座谈会方式进行。萍乡市住建局副局长黎兵围绕如何做好建筑房地产企业入规工作，介绍了萍乡市建筑房地产业基本情况、具体举措；就如何做好建筑房地产企业', '工作分享了好的经验做法。与会人员还就如何培育建筑房地产企业入规等方面进行了深入交流，让考察组一行人员受益匪浅。大家一致认为，此次学习考察进一步开阔了视野、拓宽了思路。纷纷表示，回去后，要充分借鉴运用萍乡经验，重点在培育入库企业、加强入规服务、帮助企业做大做强上下功夫，解放思想，开拓进取，全力冲刺四季度，争取全年胜。（建筑业监管科 陈小根）']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>122</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市林业局召开专题会议传达学习习近平总书记在江西考察重要讲话精神</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/zwdt/2023-10/20/content_40fee57688f14f449673c7fe21083b8e.shtml</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['10月19日,市林业局召开专题会议,传达学习习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神、全省领导干部会议精神以及全市领导干部会议精神。局党组书记、局长肖亮主持会议并讲话。', '会议指出,习近平总书记时隔四年再次亲临江西考察并发表重要讲话,这是全省人民政治生活中的大事、喜事,充分体现了习近平总书记对江西的巨大关怀,对老区人民的深情厚爱,对江西发展一以贯之的关心关怀和殷切期望。习近平总书记在上饶市婺源县秋口镇王村石门自然村,详细了解湿地公园和蓝冠噪鹛保护等情况时指出,优美的自然环境本身就是乡村振兴的优质资源,要找到实现生态价值转换的有效途径,让群众得到实实在在的好处。习近平总书记在听取江西省委、省政府工作汇报时强调,要“发展林下经济,开发森林食品,培育生态旅游、森林康养等新业态。”习近平总书记的重要讲话,让我们林业工作者深受鼓舞、倍感振奋,为全市林业系统坚定不移做好建设好、保护好、利用好绿水青山三篇文章,突出抓好林业产业高质量发展指明了前进方向、提供了根本遵循、注入了强大动力。', '会议强调,一要提高政治站位,深刻认识习近平总书记考察江西的重大意义。学习贯彻习近平总书记考察江西重要讲话精神,是当前和今后一个时期的首要政治任务和头等大事。全局上下要提高政治站位,统一思想认识,结合工作实际,多措并举抓好学习贯彻工作。要迅速掀起学习贯彻热潮。二要密切联系工作,深入学习贯彻习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,坚持走生态优先、绿色发展之路。要始终坚持“共抓大保护、不搞大开发”的战略导向,牢牢把握高质量发展这个首要任务,统筹推进生态环境保护和经济社会发展,紧密结合新余林业工作实际,积极扩大湿地公园社会影响力、生态保护力、经济增长力,努力破解经济发展与湿地生态保护之间的矛盾。三要厚植为民情怀,加快推进林业高质量发展。要把局中心工作同省委、市委工作要求结合起来,与深入开展主题教育结合起来,与加快打造新型工业强市各项目标任务结合起来,扎实开展“三个百日行动”,服务全市社会经济发展,全力投身打造新型工业强市新征程,冲刺四季度,决战全年胜,为奋力谱写中国式现代化的江西篇章贡献新余林业力量。', '二要密切联系工作,深入学习贯彻习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,坚持走生态优先、绿色发展之路。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>122</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>市委办公室召开专题会议传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/2023-10/23/content_e21a7126f4db4124a5108183fbbeb75d.shtml</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['10月17日晚,市委办公室召开班子会议,专题传达学习习近平总书记考察江西重要讲话精神,研究贯彻落实措施。市政协副主席、市委秘书长李冰平主持会议并讲话。办公室领导班子成员作学习交流发言。', '会议指出,习近平总书记时隔4年再次亲临江西考察调研,充分体现了对江西工作的高度重视和亲切关怀、对老区人民的深情厚爱和无限牵挂、对江西发展的信任重托和殷切期望。习近平总书记的重要讲话,深刻阐述了事关江西现代化建设的一系列根本性、全局性、战略性问题,明确提出了“走在前、勇争先、善作为”的目标和要求,为新时代江西改革发展汇聚了广泛支持、指明了前进方向、提供了工作遵循、增添了必胜信心,在开启中国式现代化建设江西实践进程中具有重要里程碑意义。', '会议强调,全办上下要把深入学习贯彻习近平总书记在江西考察时的重要讲话精神,作为当前和今后一个时期的首要政治任务,精心组织,周密部署,切实抓紧抓实抓出成效。要提高政治站位,深刻领会习近平总书记系列重要讲话精神的重大意义、丰富内涵、实践要求,迅速把思想和行动统一到习近平总书记系列重要讲话精神上来,坚定不移沿着习近平总书记指引的方向砥砺前行。要紧密结合实际,围绕加快打造新型工业强市,聚焦聚力市委中心工作和全市发展大局,精准有效发挥统筹协调、信息报送、调研参谋、督促落实等职能作用,推动习近平总书记系列重要讲话精神落地生根。要强化真抓实干,把习近平总书记的深情大爱和殷殷嘱托转化为推动改革发展的巨大动力和担当实干的具体行动,服务市委加强党的全面领导,提升“三服务”工作质量和水平,当好市委的坚强“前哨”和稳固“后院”。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>122</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>新闻动态市直卫健系统领导干部会议召开深入学习宣传贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://wjw.xinyu.gov.cn/wjw/tpxw/2023-10/19/content_0c981364922b4de4a9e4bb392b42dfd5.shtml</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['【新闻动态】市直卫健系统领导干部会议召开，深入学习宣传贯彻习近平总书记考察江西重要讲话精神 _ 图片新闻 _ 新余市卫生健康委员会', '【新闻动态】市直卫健系统领导干部会议召开，深入学习宣传贯彻习近平总书记考察江西重要讲话精神', '10月18日,市直卫健系统领导干部会议召开,传达学习贯彻习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,以及全省、全市领导干部会议精神。委党组书记、主任傅强主持会议并讲话,委党组成员、副主任杨斌传达习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,党组成员、副主任罗怡传达全省和全市领导干部会议精神。', '会议强调,全市卫健系统要深入学习贯彻习近平总书记重要讲话精神,聚焦“走在前、勇争先、善作为”的标准和要求,落实省委省政府、市委市政府决策部署,全力投身打造新型工业强市新征程,冲刺四季度,决战全年胜,为奋力谱写中国式现代化新余篇章贡献卫健力量。', '——要深刻认识习近平总书记考察江西的重大意义,切实增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉。习近平总书记再次考察江西,鲜明赋予了江西发展新的战略定位,进一步明确了今后工作的任务要求。我们要深入学习领会习近平总书记重要讲话精神的丰富内涵和实践要求,从中明确高质量发展的前进方向,一条一条研究、一项一项落实,推动习近平总书记重要讲话精神在新余落地生根,一步步把习近平总书记为我们擘画的宏伟蓝图变为美好现实。', '——要深刻认识习近平总书记考察江西的重大意义,切实增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉。', '——要深入学习贯彻习近平总书记考察江西时的重要讲话精神,为奋力谱写中国式现代化新余篇章探索卫生健康工作路径。落实“努力构建现代化产业体”的重要要求,积极推进项目建设和健康产业发展,扎实推进卫生健康服务能力全面提升三年行动。落实“深化对内对外开放”的重要要求,积极推进医疗领域改革。落实“全面推进乡村振兴”的重要要求,促进医疗服务均衡普惠。落实“扎实推进共同富裕”的重要要求,扎实推进城市创建百日攻坚。落实“坚持和加强党的全面领导”的重要要求,扎实推进主题教育,坚持以政治建设统领党的各项建设,建设风清气正的良好政治生态。', '——要深入学习贯彻习近平总书记考察江西时的重要讲话精神,为奋力谱写中国式现代化新余篇章探索卫生健康工作路径。', '——要迅速兴起学习宣传贯彻热潮,推动习近平总书记重要讲话精神在卫健系统落地生根。把学习宣传贯彻习近平总书记考察江西重要讲话精神,作为当前和今后一个时期的首要政治任务和头等大事,精心组织、周密部署、完善举措,认真抓好学习培训、宣传宣讲。要紧密结合本单位本行业实际,组织开展多形式、分层次、全覆盖的学习活动,着力增强宣讲的针对性、生动性、思想性,推动习近平总书记重要讲话精神家喻户晓、深入人心,推动习近平总书记重要讲话精神在卫健系统落到实处。', '市卫健委领导班子成员、委机关全体干部职工,市直市管卫生健康单位党政主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>122</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>政务动态市直卫健系统领导干部会议召开深入学习宣传贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://wjw.xinyu.gov.cn/wjw/zwdt/2023-10/19/content_7d64870e8cae42f0869a5f93171a5b21.shtml</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['【政务动态】市直卫健系统领导干部会议召开，深入学习宣传贯彻习近平总书记考察江西重要讲话精神 | 新余市卫生健康委员会', '【政务动态】市直卫健系统领导干部会议召开，深入学习宣传贯彻习近平总书记考察江西重要讲话精神', '10月18日,市直卫健系统领导干部会议召开,传达学习贯彻习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,以及全省、全市领导干部会议精神。委党组书记、主任傅强主持会议并讲话,委党组成员、副主任杨斌传达习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,党组成员、副主任罗怡传达全省和全市领导干部会议精神。', '会议强调,全市卫健系统要深入学习贯彻习近平总书记重要讲话精神,聚焦“走在前、勇争先、善作为”的标准和要求,落实省委省政府、市委市政府决策部署,全力投身打造新型工业强市新征程,冲刺四季度,决战全年胜,为奋力谱写中国式现代化新余篇章贡献卫健力量。', '——要深刻认识习近平总书记考察江西的重大意义,切实增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉。习近平总书记再次考察江西,鲜明赋予了江西发展新的战略定位,进一步明确了今后工作的任务要求。我们要深入学习领会习近平总书记重要讲话精神的丰富内涵和实践要求,从中明确高质量发展的前进方向,一条一条研究、一项一项落实,推动习近平总书记重要讲话精神在新余落地生根,一步步把习近平总书记为我们擘画的宏伟蓝图变为美好现实。', '——要深刻认识习近平总书记考察江西的重大意义,切实增强坚定拥护“两个确立”、坚决做到“两个维护”的政治自觉。', '——要深入学习贯彻习近平总书记考察江西时的重要讲话精神,为奋力谱写中国式现代化新余篇章探索卫生健康工作路径。落实“努力构建现代化产业体”的重要要求,积极推进项目建设和健康产业发展,扎实推进卫生健康服务能力全面提升三年行动。落实“深化对内对外开放”的重要要求,积极推进医疗领域改革。落实“全面推进乡村振兴”的重要要求,促进医疗服务均衡普惠。落实“扎实推进共同富裕”的重要要求,扎实推进城市创建百日攻坚。落实“坚持和加强党的全面领导”的重要要求,扎实推进主题教育,坚持以政治建设统领党的各项建设,建设风清气正的良好政治生态。', '——要深入学习贯彻习近平总书记考察江西时的重要讲话精神,为奋力谱写中国式现代化新余篇章探索卫生健康工作路径。', '——要迅速兴起学习宣传贯彻热潮,推动习近平总书记重要讲话精神在卫健系统落地生根。把学习宣传贯彻习近平总书记考察江西重要讲话精神,作为当前和今后一个时期的首要政治任务和头等大事,精心组织、周密部署、完善举措,认真抓好学习培训、宣传宣讲。要紧密结合本单位本行业实际,组织开展多形式、分层次、全覆盖的学习活动,着力增强宣讲的针对性、生动性、思想性,推动习近平总书记重要讲话精神家喻户晓、深入人心,推动习近平总书记重要讲话精神在卫健系统落到实处。', '市卫健委领导班子成员、委机关全体干部职工,市直市管卫生健康单位党政主要负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>122</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>新余市工业和信息化局赴萍乡学习考察工业企业入规工作</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-10-20</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://gxw.xinyu.gov.cn/gxw/tpxw/2023-10/23/content_b61d0f8288c04635adf8b3bada7b8385.shtml</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['新余市工业和信息化局赴萍乡学习考察工业企业入规工作 _ 图片新闻 _ 新余市工业和信息化局', '为扎实推进工业企业入规培育工作,学习先进经验和做法,10月16日下午新余市工信局副局长涂国珍带领经济运行科会同分宜县工信局一行8人前往萍乡市工信局学习考察工业企业入规工作。', '此次学习考察以座谈会形式进行。萍乡市工信局副局长刘戬围绕如何做好工业企业入规工作,介绍了萍乡市基本情况、具体举措,就如何做好“四个一批”项目调度(即招引签约一批、进资动工一批、竣工投产一批、入统上规一批)、进行“应统尽统”拉网式排查、如何开展日常调度、考评、出台相关政策等方面分享了好的经验做法。与会人员就如何在营业执照注册与登记、项目备案、试产投产等方面做好前期准备工作进行了深入交流。', '萍乡市培育工业企业入规的好做法、好经验,让考察组一行人员受益匪浅。大家一致认为,此次考察学习进一步开阔了视野、拓宽了思路。纷纷表示,回去后,要充分借鉴运用,重点在推动项目建设、做好企业培育、积极惠企纾困、加强入规服务上下功夫,咬定预期目标不放松,全力冲刺四季度,争取全年胜。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>122</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>分宜县自然资源局深入学习贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-10-19</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://bnr.xinyu.gov.cn/xyszrzyj/fyxzrzyj/2023-10/19/content_ac61e45759a94b6f96d5ba8a59138450.shtml</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['分宜县自然资源局深入学习贯彻习近平总书记考察江西重要讲话精神 - 新余市自然资源局', '10月18日上午，分宜县自然资源局局长黄建新主持召开专题学习会议，传达学习习近平总书记考察江西的重要讲话精神，传达学习习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，以及全省、全市、全县领导干部会议精神。', '会议指出，习近平总书记考察江西的系列讲话，体现了习近平总书记对革命老区人民的深切关爱，为推进新时代江西改革发展指明了前进方向。自然资源局党组应全面学习领会习近平总书记系列重要讲话精神的内涵与要求，带动全局上下掀起学习热潮。', '“走在前、勇争先、善作为”的标准和要求开展今后一个时期的工作，要在真学真懂真信真用、深化内化转化上下功夫，持续优化国土空间发展格局，切实推进耕地保护和历史遗留矿山生态修复等重点工作，强化自然资源要素保障，提高地质灾害防灾减灾科技水平，推动习近平总书记系列重要讲话精神落地生根，绘就自然资源新图景。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>122</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>专题会议全区领导干部会议召开深入学习贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://xnh.xinyu.gov.cn/xnh/fzghb/2023-10/20/content_6de995d9057147539cde5e419e461b8c.shtml</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['【专题会议】全区领导干部会议召开，深入学习贯彻习近平总书记考察江西重要讲话精神 | 仙女湖区管委会', '10月17日，全区领导干部会议召开，传达学习贯彻习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，以及全省、全市领导干部会议精神。区委书记周俊华主持会议并讲话。他强调，全区上下要深入学习贯彻习近平总书记重要讲话精神，聚焦“走在前、勇争先、善作为”的目标要求，全面贯彻落实省委打造“三大高地”、实施“五大战略”和市委“加快打造新型工业强市”、开展“三个百日行动”部署要求，锐意进取、担当实干，奋力谱写中国式现代化仙女湖篇章。', '会上周俊华传达了习近平总书记在江西考察时的重要讲话精神，何文锋传达了习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神和全省、全市领导干部会议精神。其他在家区党政领导班子成员出席会议。', '周俊华指出，习近平总书记时隔四年再次亲临江西考察，先后到九江、景德镇、上饶等地，深入长江岸线、企业、历史文化街区、农村等进行调研。习近平总书记在我省考察期间，站在党和国家事业战略全局高度，深刻阐明了事关江西改革发展的一系列根本性、方向性、全局性问题，进一步明确了新时代巡察工作的思路方向、目标任务、实现路径和重点举措。', '周俊华指出，习近平总书记的重要讲话，高屋建瓴、思想深邃，内涵丰富、饱含深情，具有很强的政治性、战略性、针对性和指导性，是习近平新时代中国特色社会主义思想“江西篇”的丰富发展，是强国建设、民族复兴宏伟蓝图在江西实践的战略引领，为推进新时代江西改革发展指明了前进方向、提供了根本遵循。', '要充分认识习近平总书记考察江西的重大意义，切实增强坚定拥护“两个确立”、坚决做到“两个维护”的思想自觉、政治自觉、行动自觉。', '习近平总书记再次考察江西，充分体现了对革命老区的深情厚爱，为我们奋进新征程注入了强大精神动力，全区上下要深刻把握“走在前、勇争先、善作为”的丰富内涵，立足仙女湖发展实际，坚持解放思想、开拓进取、扬长补短、固本兴新，奋力推动全区高质量发展、绿色发展、低碳发展，不断提升经济发展质量和成效。', '要深入学习贯彻习近平总书记考察江西时的重要讲话精神，奋力谱写中国式现代化仙女湖篇章。', '着力构建具有仙女湖特色和优势的现代化产业体系，做大做强旅游主业，加快推进产业融合发展，加快传统产业转型升级；立足实际加大力度深化重点领域改革，持续优化营商环境，优化升级“一号改革工程”；全面推进乡村振兴，扛牢粮食安全责任，推动现代农业高质量发展，做好我区“土特产”文章，集中引进和培育一批发挥示范带动作用的龙头企业，巩固拓展脱贫攻坚成果；扎实推进共同富裕，全力推进项目建设百日会战、招商引资百日行动、城市创建百日攻坚，统筹做好民生领域重点工作，推动基层社会治理创新；坚持和加强党的全面领导，把政治建设摆在首位，高质量开展主题教育，推进红色基因传承，深入挖掘我区本土红色资源，纵深推进全面从严治党，锲而不舍落实中央八项规定及其实施细则精神，持续纠“四风”、树新风。', '要深入学习贯彻习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，以高品质生态环境支撑仙女湖高质量发展。', '强化共抓大保护、不搞大开发的思想自觉和行动自觉，持续用力、久久为功，统筹推进生态环境高水平保护和经济社会高质量发展，正确处理好生态保护和经济发展的关系，牢固树立和践行绿水青山就是金山银山的理念，聚焦省委关于打造国家生态文明建设高地的要求，高标准严要求落实美丽新余三年行动计划，全力呵护仙女湖绿水青山。', '学习好、贯彻好习近平总书记考察江西时的重要讲话精神，是全区上下当前和今后一个时期的重要政治任务。各地各部门要按照省委、市委的部署要求，精心组织、周密安排、广泛动员、狠抓落实，迅速持续在全区掀起学习贯彻热潮，坚决把习近平总书记的深切关怀转为加快全区经济社会高质量发展的强大动力。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>122</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>市财政局传达学习习近平总书记在江西考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://czj.xinyu.gov.cn/xysczj/tbbd/2023-10/18/content_cf097176fc8d4efd8dc6782795a5be43.shtml</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['市财政局传达学习习近平总书记在江西考察时的重要讲话精神 _ 新闻报道 _ 新余市财政局', '10月17日,市财政局召开党组理论学习中心组(扩大)会议,传达学习习近平总书记在江西考察时重要讲话精神、全省领导干部会议精神、省财政厅党组会议精神和全市领导干部会议精神。市财政局班子成员及各科室主要负责同志参加会议。', '会议指出,习近平总书记时隔四年再次亲临江西考察,充分体现了党中央对江西工作的高度重视,充分彰显了习近平总书记对老区人民的深切挂念。习近平总书记的重要讲话,视野开阔、思想深邃、内涵丰富,深刻回答了新时代新征程江西发展一系列全局性、根本性、战略性的重大问题,是习近平新时代中国特色社会主义思想“江西篇”的丰富发展,是全市财政部门做好今后各项工作的总方针总纲领总遵循。', '会议强调,学习宣传贯彻落实习近平总书记在江西考察时的重要讲话精神,是当前和今后一个时期的首要政治任务和头等大事。全局上下要把学习贯彻习近平总书记在江西考察时的重要讲话精神,与贯彻党的二十大精神和中央省委市委决策部署结合起来,与深入开展主题教育结合起来,与加快打造新型工业强市各项目标任务结合起来,推动习近平总书记重要讲话精神在新余财政部门落地生根,为扎实开展“三个百日行动”、深入谋划“六大行动计划”提供坚强财政保障。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>122</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>全区领导干部会议召开深入学习贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/ywzx/2023-10/18/content_f00baf3cf5d94bdd95a812e90f0514fb.shtml</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['全区领导干部会议召开，深入学习贯彻习近平总书记考察江西重要讲话精神 | 渝水区人民政府', '\u200b\u200b\u200b一周天气展望：预计下周我区以晴热高温天气为主。具体预报如下：周一到周四晴天多云，偏南风3到4级，气温28到37度；周五多云；周六到周日晴天多云。温馨提示：下周我区以晴热高温天气为主，水电供应将进入高峰，各地需做好水电调度等能源保障工作，注意做好防暑降温工作，户外活动避开高温时段。（渝水区气象局2024年7月14日16时发布）', '10月17日，全区领导干部会议召开，传达学习贯彻习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，以及全省、全市领导干部会议精神。区委书记刘颖豪主持会议并讲话。他强调，', '“走在前、勇争先、善作为”的重要指示精神，落实“打造‘三大高地’、实施‘五大战略’”的决策部署，全力投身打造新型工业强市新征程，冲刺四季度，决战全年胜，晋位赶超争一等，奋力跻身百强区，奋力谱写中国式现代化建设的渝水篇章，以优异成绩向复市建区', '简华锋、何智勇、徐徕水、伍思平、喻建军、傅倩、何耐平、易光宇、黄燎宇等区四套班子领导、法检“两长”及其他在职县级领导出席会议。', '刘颖豪指出，习近平总书记时隔四年再次亲临江西考察，先后到九江、景德镇、上饶等地，深入长江岸线、企业、历史文化街区、农村等调研指导，召开进一步推动长江经济带高质量发展座谈会，听取省委和省政府工作汇报并发表重要讲话，面对面指导我们走好高质量发展之路，饱含着对江西的巨大关怀，对老区人民的深情厚爱，充分体现了总书记对江西发展一以贯之的关心关怀和殷切期望。这是全省人民政治生活中的大事、喜事，在开启中国式现代化建设江西实践进程中具有重要里程碑意义。', '刘颖豪指出，总书记考察江西重要讲话，站在党和国家事业战略全局高度，深刻阐明了事关江西改革发展的一系列根本性、方向性、全局性问题，进一步明确了新时代人大工作的思路方向、目标任务、实现路径和重点举措，为推进新时代江西改革发展指明了前进方向、提供了根本遵循。', '总书记再次考察江西，鲜明赋予了江西发展新的战略定位，进一步明确了今后工作的任务要求。我们要从中明确高质量发展的前进方向，对照深化完善中国式现代化的渝水路径，以“走在前、勇争先、善作为”的标准和要求，提振干事创业精神、增强干事创业本领，着眼全局、尽职履责，保持“不争第一就是落后”的进取心，坚持“谋就谋定、走就走前、干就干好”，深钻细研本职工作，奋力推动渝水高质量发展、绿色发展、低碳发展。', '要深入学习贯彻习近平总书记考察江西时的重要讲话精神，奋力谱写中国式现代化的渝水篇章。', '落实“努力构建现代化产业体系”的重要要求，主动融入省“1269”行动计划，构建“1+2+N”现代化产业体系，加快推动产业升级；落实“深化对内对外开放”的重要要求，深入推进营商环境优化升级“一号改革工程”，持续擦亮“渝快办”品牌，不断深化“放管服”改革，持续深化改革开放；落实“全面推进乡村振兴”的重要要求，大力实施“三农稳渝”举措，不断提升“渝水优品·百丈峯”品牌的影响力和美誉度，切实抓好美丽乡村建设，加快建设农业强区；落实“扎实推进共同富裕”的重要要求，深入实施城市创建百日攻坚，办好33件民生实事，共同创造幸福生活；落实“坚持和加强党的全面领导”的重要要求，扎实开展主题教育，把党建引领贯穿基层治理、项目攻坚、招商引资、乡村振兴全过程、各领域，全面从严管党治党。', '要深入学习贯彻习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神，坚持走生态优先、绿色发展之路。', '牢固树立和践行绿水青山就是金山银山的理念，落实省委、省政府关于打造国家生态文明建设高地的要求，靠前落实美丽新余三年行动计划，加快建设人与自然和谐共生的美丽渝水。坚持以新发展理念引领高质量发展，把产业绿色转型升级作为重中之重，有效遏制“两高一低”项目盲目发展，加快培育壮大绿色低碳产业。完善考核督察机制，用好生态环保督察问题清单，努力交出长江经济带高质量发展高分渝水答卷。', '把学习贯彻习近平总书记考察江西重要讲话精神，作为当前和今后一个时期的首要政治任务和头等大事，精心组织、周密部署、完善举措，认真抓好学习培训、宣传宣讲。把学习宣传贯彻总书记考察江西重要讲话精神，与学习贯彻党的十八大以来总书记对江西工作的一系列重要讲话重要指示精神结合起来，与贯彻党的二十大精神和党中央决策部署结合起来，与深入开展主题教育结合起来，与落实省委、市委、区委全会精神结合起来，紧密结合本单位本行业实际，组织开展多形式、分层次、全覆盖的学习活动。充分用好新媒体手段，深入企业、农村、机关、校园、社区进行宣讲，着力增强宣讲的针对性、生动性、思想性，推动习近平总书记重要讲话精神家喻户晓、深入人心，推动习近平总书记重要讲话精神在渝水落地生根。', '区委各部门、区直各单位（含驻区单位、区属企事业单位）、各群团主要负责同志，各乡镇（街道、办事处）、新余经开区党政主要负责同志出席会议。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>122</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>市民政局党组理论学习中心组专题学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://mzj.xinyu.gov.cn/mzj/zwdt/2023-11/08/content_b6d9f6947d4a44c49ac17416cb5b3245.shtml</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['市民政局党组理论学习中心组专题学习习近平总书记考察江西重要讲话精神 | 新余市民政局', '“走在前、勇争先、善作为”的目标要求，赋予了江西新的历史重任，明确了新时代江西工作的思路方向、目标任务、实现路径和重点举措。', '考察江西重要讲话高瞻远瞩、思想深邃、内涵丰富、语重心长，具有很强的政治性、思想性、针对性和指导性', '民政干部要脚踏实地把心思和精力放在帮助群众解决实际困难和问题上，把工作做到群众心坎里，切实把为民办事、为民造福作为最重要的政绩，', '深刻领会习近平总书记赋予江西发展的新定位新使命，解放思想、开拓进取，扬长补短、固本兴新，']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>122</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>传达学习习近平总书记考察江西重要讲话精神县委常委会召开会议</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-10/24/content_f5cb4e77a91c4eedb2839300ffea7652.shtml</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['【传达学习习近平总书记考察江西重要讲话精神】县委常委会召开会议 | 中国分宜县人民政府网站', '10月23日,县委常委会召开,传达学习习近平总书记近期重要讲话重要指示精神,研究部署我县贯彻落实意见。县委书记邹家洪主持会议。', '会议强调,要认真学习贯彻习近平总书记关于加强和改进人民政协工作的重要论述精神,提高思想认识,切实担负起落实党中央对人民政协工作要求的政治责任,牢牢把握新时代加强和改进人民政协工作的使命任务、总体要求和着力重点,保证人民政协事业沿着正确方向发展。要紧紧围绕党中央大政方针政策,聚焦县委、县政府中心工作,切实提升政协履职能力,为推动分宜高质量发展作出新的更大贡献。要教育引领广大政协委员和政协机关干部切实发挥人民政协大团结、大联合优势,积极搭建履职平台,奋力谱写人民政协事业发展新篇章。', '会议强调,要认真学习贯彻习近平总书记在第三届“一带一路”国际合作高峰论坛开幕式上重要讲话精神,主动服务国家战略,大力弘扬“丝路精神”,发挥优势、主动作为,积极响应“八项行动”,为推动共建“一带一路”更高质量、更高水平的新发展作出分宜贡献。', '会议强调,要认真学习贯彻习近平总书记致欧美同学会成立110周年的重要贺信精神,引导分宜籍在外留学生弘扬留学报国传统,投身创新创业创造时代洪流,助力中外文明交流互鉴,在推进强国建设、民族复兴伟业中书写人生华章。', '会议听取了全县特别国债、专项债等重大项目申报工作情况汇报,会议强调,全县各地各部门要吃透把准政策走向、资金投向和具体申报要求,紧扣我县特色优势,切实把实际需求与争取上级政策资金有机结合起来,谋划梳理出一批大项目、好项目。要加强与省市部门沟通衔接,及时跟踪进展,确保项目申报精准有效。', '会议研究讨论了《学习宣传贯彻习近平总书记考察江西重要讲话精神总体安排》。会议强调,学习好、宣传好、贯彻好习近平总书记考察江西重要讲话精神,是全县上下当前和今后一个时期的首要政治任务,也是一项长期任务。全县各地各部门要按照部署要求,精心组织,周密安排,推动广大党员干部做到学深悟透、融会贯通。要抓好宣传宣讲,采取群众喜闻乐见的形式,做到深入人心、家喻户晓。要紧密结合工作实际,加强常态化调度、推进、督查,推动习近平总书记系列重要讲话精神在分宜不折不扣落实到位。', '[分宜县]新余长兴工程咨询有限公司关于分宜县智慧交通指挥中心建设项目（信息化设...', '[分宜县][线下]江西泰达工程造价咨询有限公司关于分宜县公安局350M警用数字集群（...']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>122</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>传达学习习近平总书记考察江西重要讲话精神邹家洪主持召开招商引资调研座谈会</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-10/24/content_39e8445d2f174759ab4f4a56c3ee9208.shtml</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['【传达学习习近平总书记考察江西重要讲话精神】邹家洪主持召开招商引资调研座谈会 | 中国分宜县人民政府网站', '10月22日,县委书记邹家洪就主题教育中认领的调研课题《关于加快推进分宜工业园区高质量发展》主持召开招商引资调研座谈会。他强调,要深入学习宣传贯彻习近平总书记考察江西重要讲话精神和习近平总书记就推进新型工业化作出的重要指示精神,全面落实省委、市委、县委全会决策部署,创新招商方式方法,以高品质项目招引推动全县工业高质量发展,为着力打造“一极一县”不懈奋斗。县委常委、组织部部长胡旻出席会议。', '座谈会上,县商务局、分宜工业园区、县招商总队等有关单位和部门围绕工业高质量发展,就如何破解招商引资堵点、难点,优化招商引资战术,提升招商引资质效等内容展开讨论,既分享心得体会,又提出困难需求,同时积极建言献策。', '邹家洪认真听取发言,同大家探讨交流。他指出,招商引资是经济发展的“生命线”,是推动我县现代化产业体系建设和区域协调发展的重要支撑。目前,我县招商引资工作虽取得一定成效,但与全年目标相比存在差距,仍需加压奋进。全县各地各部门要充分认清形势,提高政治站位,牢固树立“项目为王”理念,切实增强狠抓招商引资工作的责任感和紧迫感,在思想观念、体制机制、工作举措等方面破题,以招商引资新突破推动全县经济社会高质量发展。', '邹家洪强调,要解放思想抓招商。紧紧围绕工业强县首位战略,牢固树立招商引资是经济工作第一抓手、互利共赢等理念,加强工作统筹,坚持招商引资与招才引智相结合;围绕地方经济发展战略部署,不断扬优势、补短板、强弱项,聚焦产业集聚,注重延链补链;进一步明晰招商政策,提高招商引资的精准性实效性。要突出重点抓招商。始终以主导产业为主攻方向,把项目招引作为引领发展的头号工程,瞄准大企业、头部企业和“专精特新”企业,靶向发力、精准出击,以高质量的招商引资为全县高质量发展注入新动能。要创新方式抓招商。壮大招商队伍,鼓励高素质年轻干部向园区一线流动,让园区成为干部培养选用主阵地;用活用好驻点招商、“以商招商”、平台招商等方式,发挥第三方平台优势,精准梳理企业信息,实现精准对接;抓好营商环境优化升级,全力减环节、压时限、降成本,做实做细做好各项服务工作,推进项目早签约、早落地、早投产;进一步健全完善招商引资考核机制和激励机制,切实形成大抓招商的浓厚氛围。', '[分宜县][线下]江西泰达工程造价咨询有限公司关于分宜县公安局350M警用数字集群（...']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>122</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>市审计局专题学习习近平总书记在江西考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://sjj.xinyu.gov.cn/sjj/zwdt/2023-10/23/content_8adb0d1228774a12988106e7bba65c89.shtml</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['近日,市审计局召开党组(扩大)会议,专题学习习近平总书记在江西考察时和在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,并结合审计工作实际研究贯彻落实意见。市审计局党组书记、局长温林主持,全体干部职工参加。局领导班子成员和部分科室负责人分别交流了学习体会。', '会议指出,在深入贯彻落实党的二十大精神、全面建设社会主义现代化国家的开局之年,在深入开展主题教育的关键时刻,习近平总书记再次亲临江西考察指导,进一步明确了新时代江西工作的思路方向、目标任务、实现路径和重点举措,充分体现了总书记对江西发展一以贯之的关心关怀和殷切期望,也为推进新时代江西改革发展指明了前进方向、提供了根本遵循。', '会议强调,学习宣传贯彻习近平总书记考察江西重要讲话精神,是当前及今后一个时期头等大事和首要政治任务。要把学习宣传贯彻习近平总书记考察江西重要讲话精神,与习近平总书记关于审计工作的重要论述结合起来,与深入开展主题教育结合起来,加强组织领导,认真抓好学习培训、宣传宣讲。局领导班子成员切实发挥引领作用,带头原原本本学、逐字逐句学,各党支部要结合三会一课和主题党日活动形式,各审计组利用“支部建在审计现场”的审计特色,在全市审计系统迅速掀起学习宣传贯彻的热潮。要认真学习贯彻习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神,坚定不移走好生态优先、绿色发展之路,审计部门要扎实做好自然资源资产审计,守护绿水青山。要聚焦领导干部履行自然资源资产管理和生态环境保护责任落实及权力运行情况。重点关注对自然资源及其生态保护修复的监督管理职责,深入分析自然资源管理领域的突出风险隐患,研判当前该领域的难点、热点和堵点问题,结合实际提出切实可行的审计建议。要深刻理解和把握习近平总书记重要指示要求,立足经济监督定位,聚焦主责主业,依法履行审计监督职责,以高质量审计工作服务保障我市经济社会高质量发展。(新余市审计局 王佳羽)']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>122</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>民革市委会传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-10-25</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/2023-10/25/content_a6e8b54032374a3eba757ac7a47857d6.shtml</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['10月20日,民革市委会召开七届十六次全委(扩大)会议,传达学习习近平总书记考察江西重要讲话精神。', '会议指出,习近平总书记考察江西重要讲话,高屋建瓴、思想深邃,内涵丰富、饱含深情,是习近平新时代中国特色社会主义思想“江西篇”的丰富发展,是强国建设、民族复兴宏伟蓝图在江西实践的战略引领,为推进新时代江西改革发展指明了前进方向、提供了根本遵循。', '会议强调,一要坚持以学铸魂,强化旗帜引领的政治自觉。民革全市各级组织和广大民革党员要紧密结合“凝心铸魂强根基、团结奋进新征程”主题教育,把学习、宣传、贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务,切实把思想和行动统一到总书记的重要讲话精神上来。二要大兴调查研究之风,不断提升履职尽责的能力水平。要积极参政议政,深入开展调研,认真撰写调研报告,力争出精品;要紧扣发展大局,紧贴民生福祉,及时主动反映社情民意信息;要着力开展优化营商环境民主监督及“金点子”工程等工作。三要坚持发挥优势,践行服务发展的初心使命。要全面加强思想建设、组织建设、作风建设、制度建设和反腐倡廉建设,在强基固本上下功夫;要充分发挥民革特色优势,坚持以服务发展为第一要务;要全力聚焦我市“三百”行动,不断做大做强“博爱·牵手”“中山法援”等民革社会服务品牌,为奋力谱写中国式现代化新余篇章贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>122</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>坚持深学细悟强化实干担当为奋力谱写中国式现代化的新余篇章贡献人大力量全市人大系统深入学习贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-10-23</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/2023-10/23/content_d9c31b87b8384418a79fab9f9f1ec18c.shtml</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['坚持深学细悟 强化实干担当 为奋力谱写中国式现代化的新余篇章贡献人大力量——全市人大系统深入学习贯彻习近平总书记考察江西重要讲话精神', '金秋十月,稻浪翻滚,赣鄱大地“丰”景独好。习近平总书记时隔四年,再次亲临江西考察指导并发表重要讲话,为我们奋进新征程指明了前进方向,注入了强大精神动力。连日来,全市各级人大干部、人大代表聚焦“走在前、勇争先、善作为”的目标要求,坚持深学细悟,强化担当实干,为加快打造新型工业强市,奋力谱写中国式现代化新余篇章贡献人大智慧和力量。', '谱好学习“篇”,筑牢理想信念“压舱石”。全市人大系统坚持把学习贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期的首要政治任务和头等大事,创新学习载体,拓宽学习形式,迅速掀起学习热潮。示范带头学。市人大常委会党组第一时间组织专题学习传达、开展专题研讨交流。常委会班子成员紧扣学习主题、结合工作实际,带头进行研讨交流发言。会议专题研究学习贯彻落实意见,要求全市各级人大代表、人大干部提高政治站位,迅速掀起学习宣传贯彻热潮,全力推动习近平总书记考察江西重要讲话精神落地见效。上下联动学。市县乡三级人大干部、人大代表上下联动,坚持把深入学习习近平总书记考察江西重要讲话精神与深入学习习近平新时代中国特色社会主义思想结合起来,与深入学习习近平总书记历次考察调研江西重要讲话精神贯通起来,真正做到一体贯通、系统学习、全面把握、坚决贯彻,切实增强牢记嘱托、感恩奋进的政治自觉、思想自觉、行动自觉。市人大教科文卫委干部刘扬表示,将深入学习贯彻习近平总书记考察江西重要讲话精神,立足本职,积极参与教育、卫生等民生领域调研视察以及机关创卫创文等工作,为民生改善和城市创建贡献青春力量。渝水区人大常委会办公室干部简文兵表示,将把学习贯彻习近平总书记考察江西重要讲话精神与学习习近平总书记对新时代办公厅工作的重要指示精神结合起来,高标准高质量做好办公室各项工作,全面提高“三服务”工作能力水平。罗坊镇人大干部刘紫遥表示,将发挥乡镇人大植根基层、植根人民的优势,积极推动习近平总书记考察江西重要讲话精神落地生根。创新形式学。市人大常委会以学深悟透为目标,构建常委会党组、机关党组、机关各支部、机关干部职工集体学习、青年干部理论学习小组“五位一体”学习机制,开展互动交流研讨、撰写心得体会,推动学习走深走实。高新区、分宜县、渝水区、仙女湖区人大采用“个人学+集体学”“线上学+线下学”“书本学+实践学”相结合的形式,在学深悟透上持续用力,深刻领悟习近平总书记考察江西重要讲话精神的核心要义和丰富内涵,坚定拥护“两个确立”、坚决做到“两个维护”。', '掀起宣讲“潮”,凝聚改革发展“奋进力”。习近平总书记考察江西重要讲话精神思想深邃、内涵丰富,是习近平新时代中国特色社会主义思想“江西篇”的丰富发展,是做好江西一切工作的总方针总纲领总遵循。全市各级人大干部、人大代表在深学细悟的基础上,深入基层、深入群众开展理论宣讲,以习近平总书记系列重要讲话精神的思想伟力凝聚改革发展的奋进动力。市人大常委会主要领导深入高新区城东办、渝水区珠珊镇、仙女湖区仰天岗办部分村(社区)开展理论宣讲,宣讲内容紧扣习近平总书记考察江西重要讲话精神,紧贴村(社区)群众关心关切的就业、养老、城乡环境改善等,用生动朴实、通俗易懂的方式把“书面语”转化为群众喜闻乐见的“家常话”,推动习近平总书记考察江西重要讲话精神入脑入心。市人大班子成员以及机关干部结合主题教育,深入企业、学校、农村开展调查研究和理论宣讲,积极打通理论宣讲的“最后一公里”。全市各级人大代表立足各自岗位,自觉担当起理论宣讲员职责使命。省人大代表、非遗传承人吴婉菁在渝州绣坊深入宣讲习近平总书记考察江西重要讲话精神,并表示将以习近平总书记考察江西重要讲话精神为指引,练就指尖“针”功夫,坚守心中“传承梦”,为中华优秀传统文化的传承发展贡献应有力量。市人大代表、马洪办桂花村党支部书记廖青青深入田间地头宣讲习近平总书记考察江西重要讲话精神,带领村民深入贯彻习近平总书记关于全面推进乡村振兴的重要指示精神,带领村民依托该村邻近国家高新技术产业园区及环城路优势,以打造工业旅游“后花园”、争创乡村旅游4A级景区为目标,促进乡村产业发展。', '奏响实干“曲”,交出人大工作“高分卷”。市人大常委会紧扣中心大局,坚持实干为要,切实把学习贯彻习近平总书记考察江西重要讲话精神的实效转化为助推经济社会高质量发展的强大动力。一是聚焦习近平总书记关于“努力构建现代化产业体系”的重要指示要求,坚持把助推实体经济发展作为主攻方向,以加快打造新型工业强市为主要目标,紧扣市委实施产业升级、项目建设三年行动计划,深入开展钢铁、锂电新能源、装备制造、电子信息等产业专题调研、视察,助推我市构建体现新余特色和优势的现代化产业体系。二是聚焦习近平总书记关于“深化对内对外开放”的重要指示要求,主动服务和融入新发展格局,围绕“招商引资百日行动”,充分发挥好人大代表联系广泛的优势,动员各级人大代表各尽所能,积极投身招商引资百日行动中,在“双招双引”中贡献代表力量。围绕全面推进营商环境优化升级“一号改革工程”,发挥人大监督职能,着力做好《江西省优化营商环境条例》执法检查发现问题的督促整改,切实做好执法检查的“后半篇文章”,助推我市营商环境不断优化升级。三是聚焦习近平总书记关于“全面推进乡村振兴”的重要指示要求,与省人大常委会上下联动开展“乡村振兴赣鄱行”活动,助力做强做优新余蜜桔、高产油茶等特色农业主导产业;胸怀“国之大者”,开展粮食生产、耕地质量保护调研,推动粮食安全责任压紧压实。开展“碧水渝钤行”活动,助推我市生态优势转化为发展优势。四是聚焦习近平总书记关于“扎实推进共同富裕”的重要指示要求,持续关注教育、就业、医疗、养老等重点民生领域,充分运用调研、视察、执法检查等方式,推动民生事业提质增效。围绕“城市创建百日攻坚”行动,常委会领导带头深入挂点联系的街道、社区开展创建大调研、大帮扶;人大机关干部全员上阵,深入包片路段、社区进行卫生大清扫、环境大整治、创卫大宣讲;人大代表踊跃参与,主动当好“宣传员”“监督员”“服务员”“战斗员”,示范带动全市人民不断坚定“创则必成”“战则必胜”的信心决心。五是聚焦习近平总书记关于“坚持和加强党的全面领导”的重要指示要求,全面落实新时代党的建设总要求,坚持把政治建设摆在首位,高质量开展主题教育,始终把实的要求贯穿主题教育全过程,做到理论学习、调查研究、推动发展、检视整改、建章立制一体推进,切实落实好“三个实实在在”的重要要求。充分运用好我市本地红色资源,组织人大干部和人大代表赴红色革命旧址开展实地践学,进一步传承红色基因、赓续红色血脉,充分激发全市各级人大干部、人大代表奋进新征程、建功新时代的昂扬斗志,为我市加快打造新型工业强市、奋力谱写中国式现代化的新余篇章贡献人大力量。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>122</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>创文创卫谢淘率队赴上饶市广丰区广信区考察学习创文创卫工作</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/zfdt/2023-09/04/content_d87123b8ae8d48d5bc8def095ebb9c1e.shtml</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['【创文创卫】谢淘率队赴上饶市广丰区、广信区考察学习“创文创卫”工作 | 中国分宜县人民政府网站', '为深入学习借鉴先进地区“创文创卫”工作的经验做法,提升城市精细化管理水平。9月1日至2日,县委副书记、县长谢淘率队赴上饶市广丰区、广信区考察学习全国文明城市、国家卫生县创建工作,县委副书记钟宇虹一同考察。', '考察团一行先后来到广丰区、广信区农贸市场,街道办、居民小区、“三小、四小”行业经营场所等地,通过实地参观、听取介绍、询问交流等方式,详细了解广丰区、广信区在“创文创卫”工作中的成功经验和先进做法,并开展座谈交流,就我县在推进“创文创卫”工作中遇到的重点、难点问题与对方进行深入探讨,进一步有针对性地取经学习。', '座谈会上,谢淘对广丰区、广信区在“创文创卫”工作中取得的实绩实效给予高度评价。他表示,广丰区、广信区以科学规划引领城市建设,建立了高效联动的城市精细化管理体系,营造出全民共创、全民共享的良好氛围, “创文创卫” 工作经验丰富、成效扎实,为分宜县“创文创卫”工作开拓了思路,提供了借鉴。希望以此次考察学习为契机,进一步加强沟通交流、深化务实合作,为建设宜居宜业宜游的幸福城市共同努力。', '“创文创卫” 工作经验丰富、成效扎实,为分宜县“创文创卫”工作开拓了思路,提供了借鉴。希望以此次考察学习为契机,进一步加强沟通交流、深化务实合作,为建设宜居宜业宜游的幸福城市共同努力。', '工作经验丰富、成效扎实,为分宜县“创文创卫”工作开拓了思路,提供了借鉴。希望以此次考察学习为契机,进一步加强沟通交流、深化务实合作,为建设宜居宜业宜游的幸福城市共同努力。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>122</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>赣州市行政审批局考察组来余考察学习</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-08-02</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/tpxw/2023-08/02/content_eb1767ee4be64e21bb663075eea221ab.shtml</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['8月1日下午,赣州市行政审批局党组成员、副局长邓志刚一行来我市政务服务中心考察学习,实地调研了政务服务示范大厅创建、惠企通等情况。', '在座谈会上,市政务服务中心党组成员、副主任林军贵详细介绍了我市就深化“放管服”改革、优化营商环境、政务服务示范大厅创建、惠企政策兑现等方面工作进展和经验做法。随后,双方进行深入交流探讨,共同分享经验做法,拓宽了思路,深化了认识。', '考察组表示此次交流学习受益颇多,在今后的工作中,将进一步加强互相交流与学习,共同提升政务服务质量和水平。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>122</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>樟树市行政服务中心考察组来余考察学习</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-08-03</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/tpxw/2023-08/03/content_f73ddfa61c334db0a5bbae018f2ca9a7.shtml</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['8月2日下午,樟树市行政服务中心党组书记、主任谢平一行来我市政务服务中心考察学习,实地参观了我市政务服务中心综合窗口及专区,详细了解了我市“帮代办”开展情况、观看了“帮代办”的演示流程。', '在随后召开的经验交流座谈会上,市政务服务中心党组成员、副主任林军贵就新余市政务服务中心工作开展情况进行了详细介绍,特别是“帮代办”工作的主要模式和创新做法。', '双方也就政务服务数字化建设、工改项目、政务服务大厅运行管理等方面进行了深入讨论交流。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>122</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>交流学习促提升沟通互鉴共成长新余市水利局到宜春考察交流水行政执法工作</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-08-18</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/tpxw/2023-08/18/content_e7dada1917fe473896e15405a69ca511.shtml</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['交流学习促提升 沟通互鉴共成长——新余市水利局到宜春考察交流水行政执法工作 _ 图片新闻 _ 新余市水利局', '近日,新余市水利局副局长钟向军带领全市水政监察人员一行9人赴宜春市水利局、铜鼓县水利局就水行政执法工作进行学习交流。宜春市水利局党组成员丁晓玲、水政监察支队支队长童鸿强等陪同。', '宜春市水利局水行政执法工作近年来受到省水利厅的高度评价,铜鼓县水利局案卷制作在全省水利系统评比中取得优异成绩。新余市水利局学习组通过座谈会、调阅案卷等方式,学习宜春市水利局、铜鼓县水利局关于水事案件查处、乡镇赋权、自由裁量权运用、执法文书制作等方面的先进经验和方法。', '座谈会上,围绕队伍建设、执法改革创新、边界水域联合执法、柔性执法服务等方面,双方进行了深入交流探讨。', '交流学习促提升,沟通互鉴共成长。双方表示,将进一步加强工作业务交流和共享,共同提升水政监察队伍执法能力和业务水平,维护袁河河道安全稳定。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>122</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>局党组书记局长张菊花带队到福建省宁德市考察学习</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2023-06-16</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/yldt/2023-06/16/content_1275088f1c7f454c9e3519b524ab18d1.shtml</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['6月15日,市粮食局党组书记、局长张菊花,局党组成员、副局长李军绍,新粮集团公司党委书记、董事长胡林敏一行五人赴福建省宁德市考察学习,参观了宁德市粮食储备库粮油保管和仓储设施及粮食加工,召开了座谈会,并签订了两地粮食产销合作框架协议书。宁德市发展改革委党组成员、二级调研员阮慧斌陪同参加。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>122</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>市委副书记钟世富一行赴江西农业大学考察学习</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2023-07-12</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://nyj.xinyu.gov.cn/nyj/tpxw/2023-07/12/content_94ec73b397b14ebd81638dabfc9a8d60.shtml</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['农业科技是科技兴农的重要基础,推广现代化农业技术是科技兴农的重要举措。为推动新余蜜桔高质量发展,做强做优新余蜜桔产业,促进农民持续增收和现代农业大变样,7月5日,市委副书记钟世富一行赴江西农业大学考察学习、洽谈校地合作的框架与意向。市委副秘书长李长海,市委农办主任、市农业农村局党组书记裴晓林,市农业农村局党组成员、副局长邹富敏陪同。', '首先,考察团参观了该校果蔬保鲜与无损检测重点实验室,该实验室重点研究果蔬采后贮藏保鲜及商品化处理。', '其次,在交流座谈会上,省人大常委会委员、农委副主任、省柑橘体系首席专家陈金印介绍了实验室、创新团队、技术成果以及与赣南脐橙、南丰蜜桔的技术合作等有关情况。裴晓林汇报新余蜜桔调研工作落实情况,一是市委市政府高度重视,立刻开会研究,全面部署工作。二是征求各相关单位意见,拟草《新余市推动新余蜜桔高质量发展的若干措施》,旨在将发展新余蜜桔作为政府引导、政策扶持的主攻方向。紧接着,在座人员共同交流讨论了《新余市人民政府江西农业大学战略合作框架协议》《新余蜜桔高质量发展技术合作意向协议书》。最后,钟世富提出,一是希望江西农业大学各位专家为我市推动新余蜜桔高质量发展的若干措施提出宝贵意见建议;二是加强我市与江西农业大学的对接,早日签订《框架协议》,增进校地“产学研”深度合作;三是尽快落实各项工作,签订《意向协议书》,今后持续加强沟通交流,不断深化合作内容,取得更加丰硕的合作成果,助推新余蜜桔高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>122</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>局党组成员副局长李军绍带队赴省局汇报对接工作并赴樟树市考察学习</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/tpxw/2023-06/29/content_1e49cd1823104e909e13889dd46d52fe.shtml</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['局党组成员、副局长李军绍带队赴省局汇报对接工作并赴樟树市考察学习 _ 图片新闻 _ 新余市粮食局', '6月27日上午,市粮食局党组成员、副局长李军绍带队到省局与省局领导和业务处(室)及省储粮公司汇报对接工作，下午到樟树市金佳谷物油脂有限公司和睿创科技有限公司考察学习,就大米加工、米粉生产、油脂项目合作进行了深入交流。调控科、仓储规划管理科、市军粮服务中心、仙来谷公司负责同志参加。', '金佳谷物油脂有限公司和睿创科技有限公司考察学习,就大米加工、米粉生产、油脂项目合作进行了深入交流。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>122</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>交流学习促提升沟通互鉴共成长新余市水利局到宜春考察交流水行政执法工作</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-08-16</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/2023-08/18/content_da819dc4f0e04edc83afadca3f1671f4.shtml</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['交流学习促提升 沟通互鉴共成长——新余市水利局到宜春考察交流水行政执法工作 _ 水利要闻 _ 新余市水利局', '近日,新余市水利局副局长钟向军带领全市水政监察人员一行9人赴宜春市水利局、铜鼓县水利局就水行政执法工作进行学习交流。宜春市水利局党组成员丁晓玲、水政监察支队支队长童鸿强等陪同。', '宜春市水利局水行政执法工作近年来受到省水利厅的高度评价,铜鼓县水利局案卷制作在全省水利系统评比中取得优异成绩。新余市水利局学习组通过座谈会、调阅案卷等方式,学习宜春市水利局、铜鼓县水利局关于水事案件查处、乡镇赋权、自由裁量权运用、执法文书制作等方面的先进经验和方法。', '座谈会上,围绕队伍建设、执法改革创新、边界水域联合执法、柔性执法服务等方面,双方进行了深入交流探讨。', '交流学习促提升,沟通互鉴共成长。双方表示,将进一步加强工作业务交流和共享,共同提升水政监察队伍执法能力和业务水平,维护袁河河道安全稳定。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>122</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>新余市市场监管局全局干部大会召开深入学习宣传贯彻习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-10-18</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://scj.xinyu.gov.cn/scj/tpxw/2023-10/18/content_1c7b0825275b47ea9c4522b31f930e55.shtml</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['新余市市场监管局全局干部大会召开，深入学习宣传贯彻习近平总书记考察江西重要讲话精神 _ 图片新闻 _ 新余市市场监督管理局', '新余市市场监管局全局干部大会召开，深入学习宣传贯彻习近平总书记考察江西重要讲话精神', '10月17日下午,新余市市场监管局召开全局干部大会,传达学习贯彻习近平总书记在江西考察的重要讲话精神、习近平总书记在进一步推动长江经济带高质量发展座谈会上的重要讲话精神、10月16日全市领导干部会议精神。局党组书记、局长陈先明主持会议。', '会议指出,要全面掀起学习宣传贯彻习近平总书记考察江西重要讲话精神热潮。要把学习宣传贯彻习近平总书记考察江西重要讲话精神作为当前和今后一个时期全局上下的首要政治任务和头等大事,全局上下要坚定不移用习近平总书记重要讲话精神统一思想、统揽全局、统领工作,切实从政治高度把握重大意义、从理论高度把握思想精髓、从时代高度把握实践要求,深刻领会习近平总书记对江西工作的勉励肯定,深刻领会习近平总书记对江西发展的殷切期望,深刻领会习近平总书记对江西发展明确的重点任务,深刻领会习近平总书记对坚持和加强党的全面领导的重要要求,以“走在前、勇争先、善作为”的标准和姿态,化感动为行动、化实干为实绩,牢记嘱托、感恩奋进,努力把习近平总书记的关心关怀转化为做好市场监管工作的巨大力量和生动实践,不折不扣推动习近平总书记重要讲话精神在新余市场监管部门落地生根、开花结果。', '会议强调,一要扎实推进三个“百日攻坚”行动,在创文创卫、招商引资、项目建设上取得实效,加快推进省检验检测认证总院赣西基地二期项目建设、食品安全智慧指挥中心功能融合,顺利完成市委市政府交办的任务。二要深入开展主题教育,县级领导干部要围绕调研主题,高质量完成调研报告,开展调研成果交流,形成完整系统的调研报告,为全市产业发展提供强有力支撑。三要全面完成年度工作任务,锚定年初既定九大重点工作,系统梳理各项工作进度,倒排工期,全力冲刺,确保优化营商环境和高质量发展考核进入全省第一梯队。四要狠抓廉政建设,确保干部队伍风清气正。要压紧压实党风廉政建设主体责任,落实好“一岗双责”,坚持以上率下,坚持领导班子带头,以身作则、率先垂范,打造忠诚干净担当的市场监管铁军。', '市局领导班子成员,局机关各科室负责人等相关人员,高新区局、仙女湖区局、下属单位主要负责人参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>122</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>市教育局党委专题学习习近平总书记在江西考察时的重要讲话精神</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://jyj.xinyu.gov.cn/jyj/tpxw/2023-10/17/content_a1aab98845ff4457a90645d2c2733fc6.shtml</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['市教育局党委专题学习习近平总书记在江西考察时的重要讲话精神 _ 图片新闻 _ 新余市教育局', '10月16日下午,在全市领导干部会议结束后,市教育局党委第一时间召开局党委(扩大)会议,专题学习习近平总书记在江西考察时的重要讲话精神和全省、全市领导干部会议精神。市教育局党委书记、局长曾先锋主持会议并讲话。', '会议指出,在深入贯彻落实党的二十大精神、全面建设社会主义现代化国家的开局之年,在深入开展主题教育的关键时刻,习近平总书记再次亲临江西考察调研并发表重要讲话,面对面指导我们走好高质量发展之路,这是全省人民政治生活中的大事、喜事,在开启中国式现代化建设江西实践进程中具有重要里程碑意义。', '会议要求,要深刻领会习近平总书记对江西发展明确的重点任务,在“努力构建现代化产业体系、深化对内对外开放、全面推进乡村振兴、扎实推进共同富裕、坚持和加强党的全面领导”上下功夫,把政治建设摆在首要,进一步完善发展思路、工作重点和政策举措,发挥教育系统资源优势,真抓实干、攻坚克难,在推动全市教育高质量发展上不断取得新突破新成效。', '会议指出,要见行见效强化贯彻执行,全面落实习近平总书记考察江西重要讲话精神,始终坚持立德树人根本任务,牢牢把握高质量发展这个首要任务,紧紧扭住教育质量这条生命线,不断夯实教育发展基础,推进学前教育和特殊教育普及普惠、义务教育优质均衡发展、高中教育特色多样、职业教育提质创优,努力交出早日建成教育强市高分答卷。', '会议强调,要全心全力抓好“学思践悟”,积极宣传习近平总书记考察江西重要讲话精神,将学习贯彻总书记考察江西重要讲话精神,与贯彻落实党的二十大精神和党中央决策部署以及省委、市委工作要求结合起来,与深入开展主题教育结合起来,与加快打造新型工业强市各项目标任务结合起来,做到宣传宣讲全面覆盖、调查研究精准发力、贯彻落实久久为功,以更加昂扬的斗志、更加扎实的工作、更加紧密的团结,为建设教育强市,奋力谱写中国式现代化的新余篇章贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>122</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>省国防动员办公室召开党组扩大会传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://rfb.xinyu.gov.cn/rfb/zwdt/2023-10/17/content_2e9e19e822cc48bcb12f1ad4e468f37f.shtml</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['省国防动员办公室召开党组（扩大）会传达学习习近平总书记考察江西重要讲话精神 | 新余市国防动员办公室', '10月16日下午,省国防动员办公室召开党组(扩大)会议,传达学习习近平总书记考察江西重要讲话精神,研究部署省国动办和全省国动系统贯彻落实工作。省国动办主任党组书记、主任金俊平主持会议。', '会议指出,要深刻学习领会习近平总书记考察江西重要讲话精神,坚定不移沿着总书记指引的方向砥砺前行。总书记的重要讲话,高屋建瓴、思想深邃,内涵丰富、饱含深情,具有很强的政治性、战略性、针对性和指导性,是习近平新时代中国特色社会主义思想“江西篇”的丰富发展,是强国建设、民族复兴宏伟蓝图在江西实践的战略引领,为新时代江西改革发展指明了前进方向、提供了根本遵循。全省国动系统要充分认识总书记考察江西的重大意义,深刻领会总书记对老区人民的深情大爱,全面理解总书记对江西发展的战略定位,准确把握总书记对江西工作的重要要求。', '会议强调,要以实际行动回报总书记和党中央的关心厚爱,奋力开创全省国防动员工作新局面。要把总书记考察江西重要讲话精神同总书记关于国防动员工作的重要论述精神结合起来,一体学习领会、一体贯彻落实,增强政治把握能力,厚植国防动员潜力,锤炼保障打赢战力,激扬改革创新动力,坚守担当实干定力。', '会议明确,要加强组织领导,周密部署安排,迅速掀起学习贯彻总书记考察江西重要讲话。学习宣传贯彻总书记考察江西重要讲话精神,是当前和今后一个时期全省国防动员系统的首要政治任务和头等大事。要精心组织安排,深入宣传辅导,抓好统筹衔接。', '省国动办机关、直属单位副处以上领导干部参加会议。(文/陈婧图/徐雨欣审核/余继军)']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>122</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>新余市审计局召开党组会议传达学习习近平总书记考察江西重要讲话精神</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-10-17</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://sjj.xinyu.gov.cn/sjj/tpxw/2023-10/17/content_b991dde20f56468da0eec9e45f9e9a26.shtml</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['新余市审计局召开党组会议传达学习习近平总书记考察江西重要讲话精神 _ 图片新闻 _ 新余市审计局', '10月17号上午,市审计局召开党组会议,传达学习贯彻习近平总书记江西考察时和在进一步推动长江经济带高质量发展座谈会上的讲话精神,以及全省、全市领导干部会议精神。', '会议指出,10月10日至13日,习近平总书记先后来到江西九江、景德镇、上饶等地,深入长江岸线、企业、历史文化街区、农村等进行调研,充分体现了对江西老区人民的关怀与厚爱,为江西的发展注入了强大动力,指明了发展方向。', '会议强调,全市审计系统要充分认识习近平总书记考察江西时重要讲话的重大意义,把学习好、宣传好、贯彻好习近平总书记重要讲话精神作为当前和今后一个时期首要政治任务和头等大事,以“走在前、勇争先、善作为”的标准和要求,切实把习近平总书记考察江西时重要讲话精神作为推动审计工作的总纲领,增强政治自觉、思想自觉、行动自觉,推动审计工作高质量发展。', '会议要求,要通过召开党组中心组学习,主题党日等活动深入学习领悟习近平总书记考察江西时重要讲话精神,班子成员要带头学,切实发挥示范引领作用,把学习习近平总书记考察江西时重要讲话精神与总书记历次考察调研江西重要讲话精神贯通起来,与总书记对审计工作的重要讲话精神和指示批示精神结合起来,与深入开展的主题教育结合起来,把习近平总书记的重要讲话精神落实到审计工作的全过程,高质量完成各项审计任务,科学谋划好明年的审计项目,为加快打造新型工业强市,奋力谱写中国式现代化的新余篇章彰显审计应有的担当和作为。(新余市审计局 谢平生)']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>122</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>考察学习取好经参观交流促提升</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2023-05-22</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/qydt/2023-05/22/content_59094bb9afdb43f4a8b9a87fe704f272.shtml</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['5月11日,市国盛公司党支部委员、总经理邹赟带领子公司市国盛检测公司总经理黄志明等一行5人，到上饶市国控工程检测有限公司考察学习，上饶市国控工程检测公司总经理刘伍根与公司班子成员、检测部经理进行了热情接待。一行人先后参观了上饶市国控工程检测公司力学试验室、沥青、土工试验室、节能燃烧设备实验室及多功能道路检测车等，并进行了座谈交流。', '会上，邹赟代表市国盛公司向上饶国控检测公司表示感谢。他说：“此次来贵公司，一是学习考察、汲取经验，二是加强交流、深化合作。双方有着很多共同点，通过面对面深入交流学习，兄弟单位之间彼此分享一些好的管理方法和经验，沟通探讨在工作中遇到的难点和问题，以求进一步提升检测工作水平和能力，促进企业更好地发展”。随后，双方对各自公司概况、运行机制、内设机构及人员编制等情况相互进行了介绍，针对住建部新资质要求下企业如何应对、试验室标准化建设、高效管理运行等问题进行了深入交流。', '在资质改革的关键节点，通过此次的参观取经、互相交流，为下一步公司的发展带来新的思路。双方领导均表示，通过学习交流，双方增进了了解，加强了联系，希望以后多交流，多合作，推动企业发展开创新局面，迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>122</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>新余市公路事业发展中心新余市财政局赴鹰潭景德镇考察学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://czj.xinyu.gov.cn/xysczj/tbbd/2023-07/13/content_c861a2f3ee4d48b0a566b140cde64525.shtml</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['新余市公路事业发展中心、新余市财政局赴鹰潭、景德镇考察学习 _ 特别报道 _ 新余市财政局', '为提升新余市公路建设和养护管理,了解各地市公路中心预算管理体制、燃油税转移支付资金使用、养护工程实施等情况,5月25至26日,新余市公路事业发展中心、新余市财政局一行10人赴鹰潭、景德镇考察学习。', '新余市公路事业发展中心、新余市财政局与鹰潭、景德镇公路事业发展中心、财政局召开了座谈会,就市公路中心预算管理体制、燃油税转移支付资金使用、养护工程实施等情况进行了深入交流探讨,参与各方都充分发表了意见,提出了很好的建议。通过考察学习,为我市下一步公路中心预算管理体制改革积累了经验。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>122</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>新余市林业局组织相关人员赴永丰县考察学习油茶产业</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/2023-06/01/content_d4eb0b98477e4817aa8f69c0230e1e78.shtml</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['新余市林业局组织相关人员赴永丰县考察学习油茶产业 _ 市林业要闻 _ 新余市林业局', '为学习借鉴发展油茶产业的好经验、好做法,5月26日,市林业发展服务中心主任何小芳带领全市各县区林业局分管领导和股室负责人赴吉安市永丰县考察学习油茶产业发展。', '考察组认真听取了该县林业局关于油茶产业发展情况介绍及典型做法,并就相关问题进行了互动讨论交流。', '随后考察组到该县油茶新造林、低产林改造现场进行了参观,对该县松材线虫病除治改造油茶林及油茶林套种中药材融合发展给予了充分肯定,并表示之后将经验做法梳理好、归纳好、总结好,研究制定符合新余实际的举措。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>122</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>市国资委市财政局和市国资公司考察组赴泉州宁波考察学习国有闲置资产盘活工作经验</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-05-29</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/qydt/2023-05/30/content_cecb41f6f0454a8386a3105d033baa9e.shtml</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['市国资委、市财政局和市国资公司考察组赴泉州、宁波考察学习国有闲置资产盘活工作经验 _ 企业动态 _ 新余市国有资产监督管理委员会', '月中旬，市国资委、市财政局和市国资公司分管领导和相关科室（部门）人员赴福建泉州、浙江宁波考察学习盘活闲置国有资产成功经验。', '泉州市、宁波市国资委的热情接待。考察过程采取了集中座谈、分类交流、现场观摩学习等方式，比较']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>122</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>新余市市场监理局召开新履小镇鞋业提升工作调度会暨外出学习考察成果分享会</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2023-05-23</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://scj.xinyu.gov.cn/scj/tpxw/2023-05/23/content_0e97bb159d8040569d0705d122b48f27.shtml</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['新余市市场监理局召开新履小镇鞋业提升工作调度会暨外出学习考察成果分享会 _ 图片新闻 _ 新余市市场监督管理局', '5月19日下午,市市场监督管理局召开新履小镇鞋业提升工作调度会暨外出学习考察成果分享会议,市局新履小镇鞋业提升工程工作领导小组成员及办公室成员共25人参会,市局党组成员、副局长徐巧云主持会议并讲话。', '会上,考察组成员重点分享了外出学习经验,牵头科室汇报了鞋业提升工作进展情况以及工作中的难点和问题,领导小组办公室部署了下一阶段工作。', '最后,徐巧云在听取大家的交流发言后,提出了具体要求:一是思想认识方面,各成员单位要增强大局意识,思想再提升;要坚持问题导向,思考再深入;要立足新发展理念,思路再打开。二是加快行动方面,承担鞋业提升工作八个方面重点任务的牵头科室要进一步完善子方案,近期要组织各自的成员单位深入新履小镇鞋业企业开展一次调查研究,形成一份调研报告;开展一次上门宣传,发放一份调查问卷;开展一次上门服务,至少办成一件实事。三是探索新领域监管方面,针对新履小镇鞋业企业网络交易中出现的问题,领导小组办公室要尽快组织相关成员单位召开一次分析研讨会,探索网络交易监管新思路,促进网络交易平台和网络经营主体规范管理和经营。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>122</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>渝水环境监测站赴袁州区学习考察</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://hbj.xinyu.gov.cn/hbj/zwdt/2023-05/17/content_1a03ce1b0c934696b93fcd73ebba868f.shtml</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['为更好地做好监测站资质认定和能力验证等工作,5月12日,渝水环境监测站到宜春市袁州生态环境监测站就监测站能力建设、实验室资质认定等工作进行考察学习。', '考察组一行详细参观了袁州生态环境监测站实验室,并通过袁州区相关科室负责人详细介绍,对监测仪器的功能和日常使用、维护等情况有了进一步的了解。随后,双方参加考察交流会,详细交流了监测站能力建设、资质认定、上岗证考试等各项工作。', '考察组一路认真听、仔细看、详细问、用心学,交流了工作体会,在学习先进经验的同时,充分认识自身的差距与不足,纷纷表示将以此次考察学习为契机,把先进经验转化为干好监测工作的强大动力和务实举措,力争把监测站能力建设工作迈向新的台阶。渝水环境监测站分管领导也对监测站提出了以下几点要求:', '有的放矢,全力准备资质认定工作。通过考察学习发现,现阶段监测站资质认定的重点和难点是方法验证,需全站人员齐心协力,共同完成。', '保持热情,加强学习。监测涉及知识广泛,更新也快。全站人员需保持工作热情,不断加强学习,从而增强工作的主动性、科学性和预见性。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>122</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>新余市教育局领导率队赴江西旅游商贸职业学院考察学习</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-03-08</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://jyj.xinyu.gov.cn/jyj/tpxw/2023-03/08/content_d55fc406722e41dfb0f9320c170ed025.shtml</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['新余市教育局领导率队赴江西旅游商贸职业学院考察学习 _ 图片新闻 _ 新余市教育局', '学习交流会上，江西旅游商贸职业学院党委副书记、校长彭元对考察组表示热烈欢迎，他详细介绍了江西旅游商贸职业学院办学历史、办学特色、办学成效、产教融合等基本情况，并表示学校与新余职业教育关系源远流长，希望双方进一步深化合作，打造资源共享、优势互补、合作共赢的新局面。', '曾先锋在会上表达了对江西旅游商贸职业学院的感谢，同时介绍了我市职业教育发展情况。曾先锋指出，希望通过此次交流学习，能学到江西旅游商贸职业学院在高质量办学方面的理念和精髓，推动我市职业教育内涵发展和质量文化建设；同时希望考察组全体成员虚心求教，争取学有所思、学有所悟、学有所得。随后，双方就共建旅游商贸现代产业学院等事宜进行了深入洽谈。', '仙女湖区委委员、江西省职业教育园区管理委员会副主任黄耀霖，新余市职业教育中心党委书记胡浩然、市教育局相关科室负责人和仙女湖区相关单位负责人陪同考察学习。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>122</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>九江市行政审批局考察组到我中心学习考察政务服务工作</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023-04-13</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/tpxw/2023-04/13/content_247c22d0d0194c70a0d12feceac6e16d.shtml</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['九江市行政审批局考察组到我中心学习考察政务服务工作 _ 图片新闻 _ 新余市政务服务中心', '4月12日下午，九江市行政审批局党组成员、副局长陈静一行到我中心考察学习政务服务工作。市政务服务中心党组成员、副主任林军贵陪同。', '考察组一行通过听取讲解，实地查看了政务服务中心24小时不打烊自助服务区、无差异受理专区、公安等窗口布局和设备设施配备情况，重点查看了不动产一窗受理系统、公安出入境等智慧化设施运行情况，并就大厅功能布局、窗口设置及管理运行等工作进行了深入交流探讨。', '考察组认为，我市政务大厅功能布局合理、服务设施齐全、管理运行规范，在“放管服”改革和优化营商环境工作上成效显著，新余经验和做法值得学习借鉴。考察组表示，希望以这次学习考察为契机，进一步加强两市在政务服务工作上的沟通交流，相互学习借鉴，共同推动政务服务工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>122</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>新余市粮食局赴赣州考察学习粮食安全党政同责工作</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2022-08-11</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/tpxw/2022-08/12/content_2b259adaa413473ebdf453b61ef3efae.shtml</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['新余市粮食局赴赣州考察学习“粮食安全党政同责”工作 _ 图片新闻 _ 新余市粮食局', '为认真落实粮食安全党政同责,切实扛稳粮食安全政治责任。8月9日至8月10日,市粮食局党组成员、副局长曾羽带队赴赣州考察粮食流通管理及国有粮食企业监管等工作。调控科、仓储规划管理科等科室负责人随同。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>122</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>市河长办赴靖安县考察学习河湖长制工作</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/2022-07/26/content_7df95546f43c413e8ba1118d66c4892f.shtml</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['7月13日,市河长办组织市、县(区)河长办工作人员一行18人赴宜春市靖安县考察学习河湖长制工作。', '实施河湖长制以来,靖安县抓住机遇,切实加强对河湖长制工作的领导,强化机构及人员队伍建设,建立了“街区化”河流管护、河湖综合执法、全民“认领河长”、山水林田湖生态综合管护的四大河流管护机制,有效地保护了全县河湖生态环境,打造了人民满意的幸福河。由于河湖管护工作成效显著,靖安县水利局被水利部授予“全面推行河(湖)长制先进单位”,被中华全国总工会授予“工人先锋号”。', '考察组一行先后参观了靖安县河长制展示馆、河长制主题公园,听取靖安县河湖长制工作情况介绍。通过考察学习,大家开阔了眼界,打开了思路,深受启发和教育,进一步增强了做好下一步河湖长制工作的信心和决心。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>122</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>新时代新征程新伟业紧锣密鼓考察学习寻求乡村振兴高质量发展密钥</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2023-03-07</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/zhdt/2023-03/07/content_97b651f190e24e7b8148593e57f8fde5.shtml</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['【新时代 新征程 新伟业】紧锣密鼓考察学习 寻求乡村振兴高质量发展密钥 | 中国分宜县人民政府网站', '登高望远，方能开阔眼界；思想解放，方能策动未来。3月4日至3月6日，为期5天的分宜县干部赴浙江大学培训学习已经过去一半。三天时间里，干部们听专家讲座、走优秀企业、看示范乡镇，满满的行程开阔了视野，履职能力得到了“集体充电”，进一步推动了我县干部学习贯彻党的二十大精神走深走实。', '三天里，两场讲座、四场现场教学、一次分组讨论，学员们每天都在学习优秀经验做法的路上格外充实。本次培训内容丰富多样，贴合分宜实际，既有与分宜自然资源相似的安吉县发展乡村振兴经验、浙江省如何优化营商环境等讲座；更有枫桥镇基层社会治理、嘉兴南湖红船精神、数字农业企业如何发展智慧农业等现场教学，让学员们详细了解学习了基层社会治理、乡村产业振兴、优化营商环境进行招商引资等方面的好经验、好做法。每到一地，学员们都细致参观、深入交流，对照先进找差距，思考今后工作方向，并在晚上进行分组讨论、交流看法、碰撞思想，为推动我县乡村振兴提供新思想、新路径、新方法。', '操场乡上松村党总支书记黄永飞：这几天的学习让我受益匪浅，看到了很多先进理念，做法。回去以后我将会整合村里现有的资源，对村里的产业发展布局进行再规划，力促现有产业升级，加强产业招引，争取引进好项目落地。进一步加强村集体经济发展，带动村民增收致富。为乡村振兴提供动力。', '钤山镇党委副书记、镇长李媛：本次培训给我的总体感觉是非常接地气，不管是课堂教学的案例分析还是实地考察的典型案例，例如安吉县的坚持农旅结合，以农促旅，以旅彰文，都与分宜乡村发展有共通之处，下一步我将把好经验、好做法带回去，结合本地实际，积极探索实践，切实把考察成果转化为推进乡村振兴工作的具体举措。', '县乡村振兴局党组书记、局长黄胜：本次课程安排科学，现场教学丰富，是一个特别难得的学习机会。我将认真学习浙江精神，借鉴安吉、枫桥等地先进经验，解放思想，因地制宜，科学规划，持之以恒打造乡村特色，充分挖掘乡村独特的历史文化和生态景观资源，发展各具特色的乡村旅游产业！并加强政府引导，多元投入，吸引工商资本充当乡村振兴主力军。通过市场化运作，吸引更多社会资金进入，为乡村振兴注入更加高效更加强劲的发展动力。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>122</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>邹家洪率党政代表团赴汕头市濠江区学习考察并赴广州市精准招商</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2023-02/23/content_63ceca8f3ad14ebeb50e5e7f5d760491.shtml</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['邹家洪率党政代表团赴汕头市濠江区学习考察并赴广州市精准招商 | 中国分宜县人民政府网站', '日，县委书记邹家洪率我县党政代表团赴汕头市濠江区学习考察，之后又马不停蹄赴广州市开展精准招商活动。他强调，我们要认真学习濠江区坚定“产业强区”发展路径、打造港城融合示范区等方面经验，深入思考、融会贯通、学以致用，努力消化吸收濠江成功经验，进一步烧旺招商引资炉火，为全面建设社会主义现代化分宜新篇章作出应有贡献。濠江区委书记李飞，区委副书记、区长黄鹏伟，区委副书记、政法委书记黄树平分别陪同考察。县委副书记钟宇虹，县委常委、常务副县长夏侯云，县委常委、组织部部长胡旻参加考察。', '考察了上海电气风电广东有限公司，详细了解当地引进产业链上下游项目落户产业园，着力构建以海上风电全产业链为核心的新能源产业集群经验做法。邹家洪表示，我们要认真学习濠江区推进海上风电产业链和产业基地规划招商等方面的先进经验，积极谋划、主动作为，将学习成果真正转化为加快构建锂电新材料产业链、打造百亿产业集群的工作成果。', '广东英联包装股份有限公司是专业从事金属包装产品研发、生产和销售的国家高新技术企业，也是国内外知名企业的供应商。代表团一行考察了企业生产经营情况，深入学习当地培育高新技术企业和助力企业做大做强的政策举措。邹家洪表示，我们要对标粤港澳大湾区，持续深化放管服改革，聚焦创新主体培育、平台载体建设、科技成果转化、创新人才汇聚等重点领域下功夫、出实招，全力推动科技创新支撑', '汕头冠炜有限公司是汕头市农业龙头企业，代表团一行考察了公司濠江水产省级现代农业产业园项目。邹家洪表示，我们要加快打造规范化、标准化、智慧化的现代农业产业示范园，大力发展蔬菜美食加工、生鲜电商及旅游配套等，促进特色优势产业提质增效，带动区域功能品质提升、文旅深度融合，为推进农业农村现代化提供有力支撑。', '日，邹家洪又马不停蹄前往广州市开展招商活动。他来到蜂巢能源某供应商企业进行走访洽谈，对我县历史人文，发展锂电产业的区位优势、思路、政策和前景等进行了推介，着力推动企业落户分宜。邹家洪指出，当前分宜正深入实施“工业强县”首位战略，锚定锂电产业为主导，全面推进湖泽工业平台和园区标准厂房建设，我们舍得拿出优势资源引进大品牌、大龙头、大项目，将对标先进地区扶持锂电企业的好做法，切实', '学习考察和招商途中，邹家洪强调，全县各地各部门要以战斗者的状态、奋进者的姿态、冲锋者的心态，拿出攻城拔寨的勇气、扛旗夺牌的锐气、闯关夺隘的志气，发扬', '“争抢转”精神，保持“拼抢实”作风，善谋善为、善作善成，掀起一轮招商新热潮，誓夺一批招商新成果，为分宜高质量发展多传捷报、多作贡献。', '新余长兴工程咨询有限公司关于国产彩超、四维彩超机及便携式彩色超声诊断仪设备采...', '江西嘉誉招标代理有限公司关于江西省分宜县人民医院采购分宜县人民医院移动DR等IC...', '江西元鉴工程咨询有限公司关于超声肝硬化检测仪、胆道碎石机等医疗设备采购项目（...', '新余长兴工程咨询有限公司关于分宜县人民医院CT、磁共振医疗设备采购项目（项目编...']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>122</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>市河长办赴靖安县考察学习河湖长制工作</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2022-07-14</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/2022-07/14/content_d19f8aec46944110a4a0400e48453804.shtml</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['7月13日,市河长办组织市、县(区)河长办工作人员一行18人赴宜春市靖安县考察学习河湖长制工作,由分管河湖长制工作的市水利局党组成员、副局长钟向军带队。', '实施河湖长制以来,靖安县抓住机遇,切实加强对河湖长制工作的领导,强化机构及人员队伍建设,建立了“街区化”河流管护、河湖综合执法、全民“认领河长”、山水林田湖生态综合管护的四大河流管护机制,有效地保护了全县河湖生态环境,打造了人民满意的幸福河。由于河湖管护工作成效显著,靖安县水利局被水利部授予为“全面推行河(湖)长制先进单位”,被中华全国总工会授予“工人先锋号”。', '考察组一行先后参观了靖安县河长制展示馆、河长制主题公园,听取了靖安县河湖长制工作情况介绍。通过考察学习,大家开阔了眼界,打开了思路,深受启发和教育,进一步增强了做好下一步河湖长制工作的信心和决心。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>122</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>安徽省安庆市考察团来我市考察学习党建颐养之家工作</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2022-07-02</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://mzj.xinyu.gov.cn/mzj/tpxw/2022-07/02/content_aa4442f48a134970ac1a7b7e9445fc94.shtml</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['安徽省安庆市考察团来我市考察学习“党建+颐养之家”工作 _ 图片新闻 _ 新余市民政局', '月25日至26日，安徽安庆市人大常委会副主任、市委秘书长徐雄率考察团来我市考察学习“党建+颐养之家”工作。考察团成员有安庆市民政局局长汪久清、副局长杨善龙，以及安庆市各县区民政局长等。新余市政协副主席李冰平、市政协副厅级干部蔡小莲、市民政局局长曹卫红等有关领导陪同考察。', '考察团先后来到河下镇平川村、袁河街道虎山社区、乐晚晴养老中心、水西镇桐林村等颐养之家，实地参观考察村文化党群中心、活动室、晓康诊所、爱心菜地等，了解“入家”老人的生活状况，并详细询问颐养之家场所、经费、管理和运行等情况。大家一致认为新余按照“因势利导、市场运作、各方联动、卫生营养”的原则，在全国首创“党建+颐养之家”养老服务新模式的经验非常值得借鉴学习，为有效解决居家养老民生大问题提供了很好的经验。', '在召开的专题颐养之家工作交流座谈会上，李冰平对安庆市考察团一行表示了热烈的欢迎，大家首先观看了新余颐养之家视频宣传片；随后曹卫红对新余“党建+颐养之家”工作情况进行汇报，毫无保留地把新余的好经验、好做法做了详细的介绍；蔡小莲也介绍了新余颐养之家研究会成立的相关情况。', '座谈交流时，新余各相关代表一一作交流发言，分享工作做法，曹卫红也不时回答考察团提出的各种问题。李冰平与大家一起交流讨论，他强调，“党建+颐养之家”之所以取得成功，成为我市第一民生品牌关键在于三点：一是顶层高位推动，这是颐养之家成功的重中之重；二是压实村支书“第一责任”，这是推动颐养之家建设的致胜之法；三是落实降成本“第一要义”，这是确保颐养之家可持续性发展的动力。', '此行新余在细节上做的精心安排，连村支书和颐养之家的管理员都来了，分享好的做法和工作难点；']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>122</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>安徽省桐城市文昌街道办事处党工委书记疏波一行深入新钢街道学习考察</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2022-07-03</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/zwdt1/2022-11/16/content_d2d0ae60d85a4911b2bedeaaf525b5d1.shtml</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['月3日，安徽省桐城市文昌街道办事处党工委书记疏波一行深入新钢街道乐晚晴养老服务中心、含笑社区、桂花社区、路东社区等地学习考察基层党建和老年助餐服务等方面工作。街道党工委书记易小泉，党工委副书记、主任胡军，副书记卢毅明及副主任邹兆菀陪同。', '在交流会上，街道党工委书记易小泉对疏波一行的到来表示诚挚的欢迎。双方分别就各自街道近年来发展情况做了简单介绍，对基层党建、老年助餐服务等工作难点进行交流探讨，均表示要借鉴兄弟街道的好经验、好方法，互相取长补短，共同促进和推动街道的发展和繁荣。', '会后，疏波一行来到含笑社区参观“敲门嫂”文明实践服务工作室、新时代文明实践站、“好人好事”展示墙等。聆听党总支书记的介绍，“含笑社区老人多，在‘党建+敲门嫂’模式下，‘敲门嫂’志愿服务队通过老党员、老干部、老职工情系老人、关爱老人、帮扶老人，展示了邻里互助的新型居民关系。这些‘敲门嫂’中，有年近花甲的热心老人，有受到帮助后想回馈社会的帮扶对象，有获得‘中国好人’称号的高龄党员，他们敲开老人的门，拉家常、洗衣服、修家电、打扫卫生、送防疫物资，不计时间、不计报酬，及时解决老人的日常琐事和精神需求，为社区和谐稳定发挥了积极的作用。”疏波一边认真聆听，一边观摩，赞叹不已！', '随后，疏波一行走进桂花社区“颐养之家”。看见老人们正在宽敞的室内其乐融融地下棋闲聊。社区党支部书记娓娓介绍道：“‘颐养之家’作为党建工作的重点内容，老人们只需要步行几分钟，就可以享受一顿热气腾腾的午餐；为了保证食品卫生安全，所有菜品均有留样，以备检查；配送的餐具每天都要进行消毒柜消毒，并配有保温餐盒运输，保证了饭菜温度和健康；不仅解决了老人们吃饭难的生活问题，帮助改善了老人的饮食健康，更重要的是为这些老人搭建了一个文化娱乐、精神家园的平台。”实地查看和聆听经验做法后，疏波一行表示赞赏。', '“社区总共有多少个小区”、“有多少户”、“共有多少党员”……在路东社区，疏波详细询问着社区相关情况。在社区党支部书记的介绍下先后参观了“敲门嫂”便民服务岗、颐养之家、爱心辅导站、党群服务中心、亲情连线工作室、爱心淘吧、新时代文明实践站等场所。通过实地查看、听取介绍等方式，详细了解社区建设、制度建设、党史学习教育和党建工作情况，了解了路东社区基层党建建设成果、品牌特色及志愿服务活动开展等情况。在“爱心淘吧”里，整整齐齐摆满了书、小家电、衣服、玩具等各类用品，社区党支部书记说：“路东社区困难户、低保户和留守儿童等弱势群体占了一定的比例，‘爱心淘吧’开出后，开辟了党员群众奉献爱心的渠道，如果闲置不用的东西能帮助这些有需要的人，何乐而不为呢？”疏波一边聆听，一边频频点头表示认同。', '在乐晚晴养老服务中心，疏波一行先后参观了康复护理站、日间照料中心、综合培训室等，听取了乐晚晴养老服务中心负责人罗惠建介绍中心的整体环境、服务项目、养老模式、运营情况及如何应对运营过程中遇到的困难和问题等，并与之进行了交流和探讨，收获满满。', '携手并进齐发展，交流学习共提升。此次交流会的顺利召开，对新钢街道和文昌街道今后的工作都具有重要意义，既增进了兄弟街道的友谊，又为今后各自街道建设开创新局面打下良好基础。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>122</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>新余市粮食局赴外地考察学习国有粮企及两新组织党建工作</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2022-07-07</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/yldt/2022-07/11/content_6024789b6c794e3d839d0a345f0bed16.shtml</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['新余市粮食局赴外地考察学习国有粮企及“两新”组织党建工作 _ 余粮动态 _ 新余市粮食局', '为切实推进我市国有粮食企业和行业协会党建工作,6月27日至7月1日,市粮食局党组成员、副局长曾羽一行,先后赴广东、广西等地学习考察国有粮企及“两新”组织粮食行业协会党建工作。', '考察组一行先后来到广东省储备粮管理总公司,广东省粮油储运有限公司、华南粮油交易市场,广东江门市粮食直属库、广西柳州粮食储备库有限公司等地,到车间、进仓库,实地参观了党员示范仓、党员示范岗、党群活动服务中心,认真学习了广东省储备粮管理总公司党委、广西柳州粮食储备库有限公司党委等单位在党建活动、党建阵地建设、党建融合业务中的特色与亮点,并与各单位负责人就粮食行业协会党建工作、国有粮食企业党建与经营管理、企业党建与企业文化、企业发展的结合进行了交流座谈。', '在广东省储备粮管理总公司、广西柳州粮食储备库有限公司,考察团观看展示公司发展历程的宣传片,参观了公司党建成果展示区、企业文化展示区,党员群众活动区,对所参观单位完善的硬件设施和丰富生动的党建成果,引起了考察团的热议。', '通过考察学习,大家表示要借助这次参观考察,将好经验、好做法带回去,并运用到实际工作中,推动我市国有粮食企业和粮食行业协会党建工作迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>122</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>简华锋率队到惠城区考察学习</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2022-07-11</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/tpyw/2022-07/11/content_aed34fdc16634583aed8782ed718d6dc.shtml</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['\u200b\u200b\u200b一周天气展望：预计下周我区以晴热高温天气为主。具体预报如下：周一到周四晴天多云，偏南风3到4级，气温28到37度；周五多云；周六到周日晴天多云。温馨提示：下周我区以晴热高温天气为主，水电供应将进入高峰，各地需做好水电调度等能源保障工作，注意做好防暑降温工作，户外活动避开高温时段。（渝水区气象局2024年7月14日16时发布）', '7月9日，为学习借鉴城市建设、数字经济、园区发展等方面的先进做法和宝贵经验，区委副书记、区长简华锋率队到广东省惠州市惠城区考察学习。惠城区委副书记、区长翟树宇，区委常委、副区长张向城，副区长颜明光陪同考察学习。区委常委、副区长何耐平参加考察学习。', '考察组首先来到江北街道荣灿中心50楼，鸟瞰惠城区城市整体景观，全面感观和了解惠城区城市整体风貌和规划布局。在惠州信息产业园，考察组详细听取产业园在产业孵化、科技金融融合发展、政企联动及产业孵化全牌照资质等方面的亮点特色做法。之后来到西顿光电有限公司，参观企业在照明领域的生产车间和研发机构，了解企业的产值、税收等经营状况。', '最后，考察组来到惠城区高新园管委会观看全链条项目库管理系统展示，随后双方召开交流座谈会。座谈会上，双方就产业发展、管理考核机制、政务服务改革等方面进行了深入交流和探讨。', '通过考察和交流，简华锋对惠城区的热情接待和宝贵经验的分享表示感谢。他说，惠城区在数字经济、营商环境和园区发展等方面取得了很大的成就，管理机制体制和改革创新方面也更有活力，这非常值得渝水区学习借鉴，回去之后，我们将认真梳理和吸纳。并希望能与惠城区进一步加强沟通交流，建立对接机制，开展全方位、多领域、多形式合作，也诚挚邀请惠城区有关领导和部门来渝水区指导工作。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>122</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>市农业工业化项目考察组赴山东学习考察</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://nyj.xinyu.gov.cn/nyj/tpxw/2022-06/20/content_2817b4f89bec405fab319c96d07cb6f7.shtml</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['为学习借鉴山东省现代农业发展先进经验,加快推进我市现代农业高质量发展,近期,市委农办主任、市农业农村局党组书记裴晓林带领市农业工业化项目考察组一行10人赴山东省德州市、青岛市考察学习农业工业化发展经验。', '考察组一行首先来到德州市陵城区东方英宝联合技术有限公司,实地察看蔬菜设施大棚材料、设备制造生产车间,考察组边看边询问温室大棚设备制造及智能玻璃温室造价等有关问题,并在随后的座谈会上,听取了公司情况介绍。', '考察组来到临邑现代农业智慧产业园和德州智慧农业产业园,考察学习凯盛浩丰农业有限公司智能控温玻璃温室建设经验,并深入自动化水肥车间、凯盛机器人包装线和番茄无土栽培种植区,进一步了解智慧温室在生产经营、产业带动和绿行者品牌建设等方面情况。', '考察组来到青岛市高新区凯盛浩丰农业有限公司进行了洽谈。公司董事长马铁民对考察组的到来表示欢迎,并详细介绍了公司设施农业发展情况。考察组成员认真倾听、虚心请教,详细了解公司在设施农业发展、设施农业装备制造、农业品牌打造、农产品营销等方面的经验和做法。会上,考察组就凯盛浩丰农业有限公司投资新余市数字农业产业园项目进行了详细洽谈和充分沟通。', '通过此次考察,考察组成员纷纷表示收获颇丰,既开阔了视野,又启发了思路。下一步,我市将结合本地实际,借鉴山东省在推进农业工业化发展的先进经验、做法,全力推动新余农业实现高质量跨越式发展。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>122</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>喻国杰率新余高新区考察团赴嘉兴秀洲高新区考察学习</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://xyhdz.xinyu.gov.cn/C4370/qgxyw/2022-07/06/content_26d678a63715470984331e22e1e78381.shtml</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['6月29日,新余高新区党工委书记喻国杰率高新区考察团赴浙江嘉兴秀洲高新区学习考察,受到秀洲区委常委、秀洲高新区党工委书记王一峰、秀洲高新区党工委副书记、管委会主任阮春锋及其班子成员的热情接待。新余高新区党工委副书记肖裕兵随同考察。', '喻国杰一行考察了秀洲高新区的城市建设以及伟巴斯特车顶供暖系统(上海)有限公司嘉兴分公司、嘉兴隆基乐叶光伏科技有限公司、嘉兴中润光学科技股份有限公司等企业,并与秀洲高新区开展座谈交流。双方介绍了各自的基本情况,互相交流了发展经验。喻国杰表示,秀洲高新区是新余高新区的学习目标,希望和秀洲高新区加强交流合作,增进双方友谊,我们将虚心学习秀洲高新区成功的发展经验,结合新余高新区实际,以他山之石,助自我发展,努力进位赶超,建设“五个高新”,打造“中国储能谷”,实现跻身新生代国家级高新区第一方阵的战略目标。', '嘉兴秀洲高新区是目前嘉兴市唯一的国家级高新区,是新余高新区“放大‘坐标系’、找准‘参照物’”选定的学习和赶超目标地。该高新区拥有光伏新能源、高端装备制造、智联健康三大主导产业,集聚全球第一大光伏玻璃制造商福莱特集团、全球光伏第一大企业隆基、全球行业龙头阿特斯阳光等光伏产业龙头企业,成功入驻一批全球跨国公司总部、研发中心及国际化智联健康项目,2021年,全区工业总产值939.3亿元,财政收入88.4亿元。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>122</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>市住建局副局长龚小兵率队赴赣州市学习考察工程建设项目审批制度改革工作</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2022-03-07</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://zjw.xinyu.gov.cn/zjw/zwdt/2022-03/07/content_ca6faa6217bf4636b2a89b39503ab661.shtml</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['市住建局副局长龚小兵率队赴赣州市学习考察工程建设项目审批制度改革工作 | 新余市住房和城乡建设局', '为深入贯彻落实省委、省政府《关于深入推进营商环境优化升级“一号改革工程”的意见》文件精神，进一步提升我市建筑许可办理营商环境，2022年2月28日至3月1日，由市住建局副局长龚小兵带队，局', '到赣州市行政审批局学习考察了工程建设项目审批制度改革先进经验及做法，赣州市行政审批局、住建局', '考察组在赣州市行政服务大厅参观学习后进行了座谈，就工程建设项目审批制度改革工作进行了深入探讨交流。赣州市行政审批局重点介绍了赣州市工程建设项目“一站式集成”审批工作做法，赣州市住建、发改、自然资源、城管等部门相关人员进行了经验介绍。考察组通过考察', '考察组在赣州市行政服务大厅参观学习后进行了座谈，就工程建设项目审批制度改革工作进行了深入探讨交流。赣州市行政审批局重点介绍了赣州市工程建设项目', '，下一步将认真学习赣州市工程建设审批制度改革的经验和做法，做好我市工程建设项目审批制度改革各项工作。同时希望加强双方沟通和交流，相互学习，相互借鉴，互通信息，为工程建设项目审批制度改革']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>122</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>新余市水利局组团赴南昌新建区考察学习大坝安全监测设施建设工作</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2022-03-09</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/2022-03/09/content_59a921b9c6cf454fb23508c086d0dd52.shtml</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['新余市水利局组团赴南昌新建区考察学习大坝安全监测设施建设工作 _ 水利要闻 _ 新余市水利局', '为全面提升水库信息化管理能力,保障水库大坝安全运行,全力推进我市水库大坝雨水情测报和大坝安全监测设施建设。2022年3月7日,市水利局党组成员、四级调研员朱东林带队,组织市水利局建管科、县区水利(农工)局、项目设计单位及江西凯润达公司有关人员赴南昌新建区进行考察学习。', '考察团实地参观了新建区西山镇南岸水库安全监测设施建设施工现场,直观了解了大坝安全监测设施施工过程,并与南昌市水利局、新建区水利局、江西水投江河公司有关领导及技术人员进行了座谈,认真听取其经验介绍,收集有关资料,查找自己的不足。通过考察学习,考察团一致认为感触深、收获多,本次考察为进一步做好我市水库大坝雨水情测报和大坝安全监测设施建设工作提供了借鉴参考。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>122</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>市政府考察团赴九江学习考察</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/2022-01/27/content_81210d6ad28c4c3ca86dca86462630eb.shtml</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['1月25日,受市委书记蒋斌委托,市委副书记、市长徐鸿率市政府考察团赴九江经开区及相关企业考察学习。他强调,要用心学习九江经开区在产业发展、项目建设、招商融资等方面的先进经验做法,坚持不懈招大引强,全力推进项目建设,助推经济高质量发展。市委常委、常务副市长张志坚参加。', '在九江经开区,考察团先后来到德福科技股份有限公司、江西生益科技有限公司、江西明阳电路科技股份有限公司,深入园区及相关企业车间、生产线,认真听取园区关于产业发展、项目建设、招商融资等方面的介绍,详细了解相关企业的发展历程、中远期规划、产品开发应用、生产制造和市场销售等情况。', '考察之余,考察团与九江市政府及相关部门、园区负责同志进行深入友好的交流。考察团认为,近年来,九江市着力推进项目建设,加快投融资步伐,在推进一批重点项目落地的过程中取得显著成绩,为振兴产业经济、助推全市经济社会高质量发展奠定了坚实基础,这些宝贵的经验和做法都值得新余学习借鉴。', '徐鸿要求考察团成员,要认真学习总结九江的好经验、好做法,做到取长补短、为我所用。要坚持项目为王,狠抓项目建设,做到既有立竿见影的举措、又有立足长远的谋划,重塑发展格局,以大项目好项目推动形成多点支撑、全面发展的新态势。要坚持产业为本,围绕主导产业,引进产业链上下游关联企业,延伸产业链,提升产业链供应链现代化水平,推动经济结构调整优化,加快实现园区转型升级、做优做强做大,助推新余产业经济、项目建设实现更大辉煌。要做实资本、做大资产,想方设法解决政府投融资难题,为全市经济社会高质量发展贡献力量。', '市政府秘书长李虹,市发改委、市自然资源局、市政府金融办、市投控集团负责同志随同考察。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>122</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>市城镇发展服务中心赴赣州学习考察</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2022-03-07</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://zjw.xinyu.gov.cn/zjw/zwdt/2022-03/07/content_5c2f2c39742c4dc2b5976444a6e0f7f3.shtml</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['为学习外地市建筑市场、施工现场质量和安全监管、建筑教育培训、工程造价管理、消防监管等方面先进经验，3月4日，市城镇发展服务中心主任江梅兰同志率队赴赣州市城镇发展服务中心学习考察。', '为学习外地市建筑市场、施工现场质量和安全监管、建筑教育培训、工程造价管理、消防监管等方面先进经验，', '大家表示，今后要将学习借鉴先进经验，加快我市建设工程监管平台建设，提高智慧化监管水平，加强施工现场管理，助推推动我市城市建设高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>122</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>市国资委赴省国资委鹰潭市国资委考察学习</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2022-01-27</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/zwdt/2022-01/27/content_42c6958c043c49a58181b0666dcada77.shtml</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['为进一步完善《新余市市属企业负责人经营业绩考核办法》，2022年1月18日-19日，市国资委二级调研员曾卓带队赴江西省国资委、鹰潭市国资委进行学习调研', '在省国资委，曾卓同志首先就此次学习调研的目的向省国资委考核分配处长陈申祥进行了说明，陈申祥处长对省属企业负责人经营业绩考核方面的工作作了详细的介绍，此后双方就经营业绩考核指标的设定、考核办法及程序、考核结果及运用、工资总额管理等方面进行细致的交流。陈申祥处长强调，企业负责人经营业绩考核办法的制定要符合中央精神，要坚持以业绩为导向的考核宗旨，要体现社会公平；考核指标的设定要科学，要结合企业特点和行业特色，要与党建工作企业高质量发展相结合；考核工作应注重行业对标等。省国资委考核分配处相关负责人对工资总额管理、企业负责人履职待遇等方面进行了深入的交流。在交流过程中，对我们在实际工作中遇到的一些问题和困惑，省考核分配处陈处长和相关负责人均提出很好的指导意见和建议。', '在鹰潭，鹰潭市国资委党委书记、主任刘长根主持交流会，副主任程明华、鹰潭市国控集团副总经理杨霞出席会议，鹰潭市国资委考核评价科等相关科室负责同志参加会议。刘长根同志介绍了鹰潭市国资委机关和监管企业的有关情况。考核评价科负责人详细介绍了鹰潭市国资委市属监管企业目标考核办法、鹰潭市属国有企业负责人薪酬管理办法，双方就经营业绩考核、企业负责人薪酬管理、工资总额管理、企业年金等工作开展情况进行了深入交流学习，彼此分享了宝贵经验。特别是他们把党建工作、落实三年行动方案、扭亏脱困工作、重点项目建设等作为分类考核指标，并详细列出任务清单，与基本考核指标一并列入年度考核目标，值得我们学习和借鉴。', '鹰潭市国资委党委书记、主任刘长根主持交流会，副主任程明华、鹰潭市国控集团副总经理杨霞出席会议，鹰潭市国资委考核评价科等相关科室负责同志参加会议。', '通过此次学习交流，我们在进一步完善经营业绩考核、企业负责人薪酬管理、出资监管企业工资总额管理等方面获取了不少宝贵经验，对我们进一步加强出资监管企业监督管理、督促企业深入贯彻落实国资国企改革三年行动任务目标、实现扭亏脱困和推动企业高质量发展具有积极意义。', '了不少宝贵经验，对我们进一步加强出资监管企业监督管理、督促企业深入贯彻落实国资国企改革三年行动任务目标、实现扭亏脱困和推动企业高质量发展具有积极意义。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>122</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>胡瑜瑞带队到渝水区学习考察乡村振兴生态产业</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2021-12-31</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/zhdt/2021-12/31/content_a56cff66b8d3453fb784192667b06b61.shtml</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['12月28日,县人大常委会主任胡瑜瑞带领县人大常委会一行来到渝水区姚圩镇、新溪乡考察乡村振兴生态产业,学习先进经验、开阔视野思路,为建设“分外宜人地、民生知名城”,实现新时代分宜振兴汇聚人大力量。', '七里山新余蜜桔基地位于三地交界处,规划山地面积2.6万亩,近年来通过政府引导、市场运作等途径,日渐集旅游、观光、采摘、休闲于一体。考察组一行对新余蜜桔的好口碑、农旅融合的好模式点赞,纷纷表示,产业兴旺,农民收入才能稳定,人大代表要当好参谋助手,助力加快经验推广和“两山”转化,让更多好产业、好项目在分宜落地。', '新溪乡西江村老油茶林基地培育发展高产油茶1000多亩,带动全市20万亩油茶改造提升。胡瑜瑞指出,瑞雪兆丰年,油茶产业是分宜“4+N”特色农业产业的发展重点,要按照县第十五次党代会部署,多建睿智之言,多献务实之策,推动油茶产业高质量发展,更好带动村集体经济发展和农民就业增收。', '考察组一行还来到中国传统村落西江村,了解该村的历史文化、特色产业、民俗民风和自然生态,大家一致认为,发展乡村产业既要保护好生态环境,也要弘扬优秀传统文化,回去以后要朝着产业与乡愁齐飞的方向努力,让乡村振兴更有温度。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>122</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>新余高新区组队赴厦门九江学习考察先进治水经验</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021-12-30</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://hbj.xinyu.gov.cn/hbj/zwdt/2021-12/30/content_68d4d5f915b447f0873f5727da385149.shtml</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['为加快推进高新区水环境治理工作,学习借鉴先进经验,12月初,高新区住建局组织相关责任部门负责同志,由区领导带队,赶赴厦门、九江学习考察水环境总体治理工作的相关经验。', '考察组一行先后前往厦门同安区和九江市城区,现场深入了解小区雨污分流改造、市政管网建设、污水处理厂生态化建设、河道治理、调蓄池建设、门店管道改造及监管等情况。现场考察后,考察组与厦门、九江相关负责同志结合目前新余高新区水环境治理现状,就如何解决水环境治理过程中的难点问题和怎样有效提升水环境治理能力进行了深入交流探讨,力图发掘适用于新余高新区的建设设施与监管维护方法。', '通过深入交流、实地考察,考察组一行收获满满。高新区将积极学习和认真借鉴厦门市和九江市在水环境治理过程中的成功经验,合理运用到辖区水环境综合治理中,全面提升高新区水环境综合治理水平,持续改善水生态环境质量。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>122</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>学习典型经验力求突破难点新余市应急管理局组织县区赴宜春樟树考察学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2021-11-24</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://ajj.xinyu.gov.cn/ajj/zwdt/2021-11/24/content_b9ad6a5a169548d1b32676f326ec3300.shtml</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['学习典型经验 力求突破难点 ——新余市应急管理局组织县（区）赴宜春、樟树考察学习 _ 政务动态 _ 新余市应急管理局', '为了推动新余市防震减灾高质量考核工作取得突破性进展，11月23日，新余市应急管理局分管防震减灾工作领导局党委委员、四级调研员胡晓敏带队，组织新余市地震办人员和县（区）应急管理局分管领导和业务骨干赴宜春市和樟树市应急管理局考察学习。', '宜春市应急管理局二级调研员熊国顺和樟树市应急管理局党委委员刘清泉先后向新余市考察组人员详细介绍了应急避难场所建设、区域性地震安全性评价、遥感影像现场核实等方面的先进经验和做法。通过听取经验介绍、实地走访、查看资料和互动交流，考察组人员受益匪浅，深受启发和触动，同时也增进了与兄弟市县的友谊和信息互通。', '此次考察学习对新余市和各县（区）应急管理局突破防震减灾高质量考核重点难点工作，必将起到巨大推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>122</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>高新生态环境局组织考察学习农村生活污水治理经验</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2021-11-11</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://hbj.xinyu.gov.cn/hbj/zwdt/2021-11/11/content_7ef3d74eb26749ba81fa3e4b449f6210.shtml</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['为加快推进高新区农村生活污水治理工作,学习借鉴先进经验,11月初,高新生态环境局组织各镇办分管负责同志,赴渝水区学习考察农村生活污水治理工作相关经验。', '考察组通过现场参观、与当地村干部交流等方式,深入学习考察了渝水区农村生活污水治理工作。考察组一行先后实地察看了珠珊镇花田村、良山八佰桥、良山英台上村的农村生活污水处理工艺、管网铺设、污水沉淀池建设等相关情况,并与高新区现有农村污水处理工艺进行对比,探讨各工艺之间的优势。实地查看后,考察组前往花田村委,与村委会负责同志就生活污水治理现状、建设详情、运维管护等方面进行了细致沟通交流。', '此次考察学习为高新区下一步农村生活污水治理工作A提供了新思路。高新区将借鉴宝贵经验和优秀做法,结合辖区内农村生活实际,以问题为导向,依托现有农村生活污水处理站,主动谋划,多措并举,加快推进全区农村生活污水治理工作再上新台阶、新水平。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>122</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>高新生态环境局组织考察学习农村生活污水治理经验</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2021-11-10</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://xyhdz.xinyu.gov.cn/C4370/hjjgxx/2021-11/24/content_dacb24d28c49487aa7f7f794d296a37b.shtml</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['为加快推进高新区农村生活污水治理工作，学习借鉴先进经验，11月初，高新生态环境局组织各镇办分管负责同志，赴渝水区学习考察农村生活污水治理工作相关经验。', '考察组通过现场参观、与当地村干部交流等方式，深入学习考察了渝水区农村生活污水治理工作。考察组一行先后实地察看了珠珊镇花田村、良山八佰桥、良山英台上村的农村生活污水处理工艺、管网铺设、污水沉淀池建设等相关情况，并与高新区现有农村污水处理工艺进行对比，探讨各工艺之间的优势。实地查看后，考察组前往花田村委，与村委会负责同志就生活污水治理现状、建设详情、运维管护等方面进行了细致沟通交流。', '此次考察学习为高新区下一步农村生活污水治理工作提供了新思路。高新区将借鉴宝贵经验和优秀做法，结合辖区内农村生活实际，以问题为导向，依托现有农村生活污水处理站，主动谋划，多措并举，加快推进全区农村生活污水治理工作再上新台阶、新水平。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>122</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>工作动态市垃圾分类调研组赴宜春学习考察</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2021-06-02</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/csljflcz/2021-08/03/content_d7219236be274a5f93042e689c53f357.shtml</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['为学习借鉴宜春在生活垃圾分类工作的先进理念和工作经验,根据《市政协2021年度协商工作计划》安排,6月1日,由市政协副主席蔡小莲带队组织生活垃圾分类调研组一行6人,赴宜春调研其生活垃圾分类工作的开展情况。', '宜春作为首批生活垃圾分类试点城市,历时三年多,走出了一条生活垃圾减量化、资源化、无害化的新路子,以“垃圾革命”创造美好生活,生活垃圾分类工作在全国季度排名中均列前位,陆续吸引了省内外多个城市参观考察。调研组一行先后来到了宜春中心城区的公务员小区宜阳小区及老旧改造小区磷肥厂宿舍,小区到处干净整洁,垃圾分类工作井然有序地开展,调研采取实地考察和座谈交流的形式,详细了解了宜春的宣导体系、组织体系、制度体系、推进体系、收处体系、考核体系,为我市开展生活垃圾分类工作提供了极具借鉴性和操作性的先进工作模式,为我市全面铺开垃圾分类工作奠定了坚实的理论基础和实践经验。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>122</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>上饶抚州两地财政局来我市考察学习政府采购合同线上融资工作</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021-06-17</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://czj.xinyu.gov.cn/xysczj/tbbd/2021-06/17/content_02d26cfa0b3845b0a36ca4e379f3648e.shtml</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['上饶、抚州两地财政局来我市考察学习政府采购合同线上融资工作 _ 特别报道 _ 新余市财政局', '6月3日,上饶、抚州两地财政局一行10余人来我局学习考察政府采购合同线上融资工作。', '我市率先在全省试点开展了政府采购合同线上融资工作,为全省推广开展提供了模式参考。考察过程中,通过视频播放详细讲解了政府采购合同线上融资的具体流程及做法,并介绍了我市政府采购合同线上融资业务的开展情况等。上饶和抚州市财政局表示,我市政府采购线上融资工作的先进做法和经验值得学习和借鉴,希望今后加强联系和沟通,进一步加强业务交流。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>122</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>渝水区司法局赴吉水县青原区两地司法局学习考察</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2021-10-23</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/zwdt1/2021-10/29/content_b9c15c1a924c4919bf20ef16b8267a02.shtml</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['为学习借鉴先进经验,开拓工作思路,进一步推动渝水司法行政工作再上新台阶,10月22日,渝水区司法局党组书记、局长桑俊杰带队赴吉安市吉水县、青原区两地司法局学习交流。', '在吉水县,区司法局一行先后参观了黄桥镇司法所、县法治文化公园、县矛盾纠纷化解中心、县司法局等。在青原区,主要参观了区公共法律服务中心、区司法局、省级民主法治示范村等。听取了相关经验介绍,并就司法所规范化创建、乡镇综合执法改革、民主法治示范村创建、法治文化阵地建设、人民调解、群众安全感和满意度测评等工作进行了深入交流。', '通过实地调研、座谈交流,区司法局一行开阔了视野,增长了见识。通过横向对比,更客观全面地了解我区司法行政工作中的成绩和不足,理清了思路,坚定了信心。', '下一步,我局将结合所思所学,立足工作职责和发展实际,创亮点、强基础、补短板,不断提高人民调解、规范化建设、群众安全感和满意度测评等工作水平,逐步增强群众的获得感、幸福感、安全感。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>122</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>市粮食局赴苏州市粮食和物资储备局学习考察基层党建工作</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2021-07-16</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/djgz/2021-07/21/content_aa831696332f4c8cadd34f0cdaae7fba.shtml</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['市粮食局赴苏州市粮食和物资储备局学习考察基层党建工作 _ 党建工作 _ 新余市粮食局', '为进一步创新党建工作思路，推动市直粮食系统党建与业务深度融合，打造基层党建品牌，不断提高基层党建工作质量，', '7月13至15日，市粮食局党委委员、副局长、二级调研员陈小毛同志带队赴苏州学习考察交流基层党建工作，局机关党委、新粮公司党群部陪同考察。', '在苏州市粮食和物资储备局，苏州市粮食和物资储备局党组成员、副局长、机关党委书记陆勤奋同志详细介绍了苏州市粮食和物资储备在加强思想建设、组织建设、纪律建设、作风建设以及党建引领、党建联动、党建品牌打造等方面的创新做法和先进经验，相关负责同志也详细介绍了各自负责的党务工作情况。双方就推进模范机关创建、推动党支部标准化规范化建设、创新打造机关党建品牌和机关党务干部队伍建设等内容进行了交流。', '在张家港市，考察组一行实地参观了张家港市党建基地党建展示馆、政治生活馆、党性体验馆、党群（人才）创意馆等四个场馆，参观了张家港市沙洲中心粮库党建示范馆和劳模工作室，学习其特色做法。', '在昆山市，考察组参观了昆山市吴淞江粮食物流中心党群服务中心党建展示馆，就加强基层党建机制建设、阵地建设、品牌建设、队伍建设等方面进行了深入细致交流。', '在考察过程中，陈小毛同志也向苏州市粮食和物资储备局简要介绍了我局抓基层党建工作的主要做法，并表示将积极吸收和借鉴苏州市粮食和物资储备局党建工作好的理念和经验做法，注重统筹谋划、系统推进，推动我局基层党建', '通过学习考察，大家纷纷表示，将以此次学习为契机，把学习成效运用到具体工作中，进一步规范党建工作，取长补短、创新思维，探索党建与业务深度融合的新模式，按照市直机关工委', '“一单位一品牌、一支部一特色”创建工作要求，努力打造特色党建品牌，不断增强党组织向心力、凝聚力、号召力，推动基层党建工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>122</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>刘颖豪带队赴湖北省考察学习</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2021-11-05</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/ywzx/2021-11/05/content_76143da4b80441b3bf746fbdc1018300.shtml</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['\u200b\u200b\u200b一周天气展望：预计下周我区以晴热高温天气为主。具体预报如下：周一到周四晴天多云，偏南风3到4级，气温28到37度；周五多云；周六到周日晴天多云。温馨提示：下周我区以晴热高温天气为主，水电供应将进入高峰，各地需做好水电调度等能源保障工作，注意做好防暑降温工作，户外活动避开高温时段。（渝水区气象局2024年7月14日16时发布）', '月1、2日，区委书记刘颖豪带队赴湖北省黄石市大冶市冯家山硅纤公司考察，并到中国地质大学（武汉）拜访。区委常委、副区长何耐平陪同。', '冯家山硅纤公司是一家专业从事高品质硅灰石纤维制造及应用开发的公司，以工业化、规模化生产高纯、超细、超长、高活性硅灰石矿物纤维闻名于世，其产品质量达到国际先进水平。来到该公司，刘颖豪一行深入公司矿区和生产车间实地参观考察，详细了解硅灰石等级划分、选矿初加工、矿物纤维生产过程、工艺及产能规模、生产模式等。在随后召开的座谈会上，刘颖豪详细介绍了我区硅灰石产业现状及营商环境，他说，通过在冯家山硅纤公司的实地考察，对公司先进的生产理念、雄厚的科研实力、超前的规划设计印象深刻，进一步坚定了我们发展硅灰石千亿级产业的信心，也拓宽了我们的视野，对我们进一步理清发展思路具有极大的借鉴意义，为我们更好做好非金属产业规划提供了宝贵经验，真诚欢迎冯家山硅纤公司来渝水考察兴业，共同做大做强我国硅灰石产业。双方还就硅灰石上下游产业延伸、产品应用、品质提升、资源利用、环境保护等展开讨论。', '来到中国地质大学（武汉），刘颖豪一行拜访了中国地质大学材料与化学学院院长、中国塑料工程学会专家李珍教授。拜访中，李珍教授就硅灰石独特的矿物学、物理和化学特性及当前世界范围内硅灰石产业发展现状、前沿科技研发、产品应用领域拓展、硅灰石消费结构等进行了介绍，并着重强调前期一定要做好硅灰石品质检测及等级划分，以此确定硅灰石产业发展方向。刘颖豪非常感谢李珍教授的讲解，并简要介绍了我区硅灰石储量、产业规划等，诚挚邀请李珍教授到我区进行实地考察，为我区硅灰石产业发展提供更多宝贵意见建议，助力我区千亿级非金属产业打造。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>122</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>奋斗百年路启航新征程学党史悟思想办实事开新局市委办老干部在我县考察学习</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2021-05-15</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/xwdt/2021-05/15/content_da035a17cf0c449bb7137bba775ae313.shtml</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['【奋斗百年路 启航新征程 学党史 悟思想 办实事 开新局】 市委办老干部在我县考察学习 | 分宜县人民政府', '【奋斗百年路 启航新征程 学党史 悟思想 办实事 开新局】 市委办老干部在我县考察学习', '5月14日,孙奇珍等市委办离退休老干部来到我县考察调研龙须沟水环境治理工程,开展党史学习教育主题党日活动。县委副书记胡瑜瑞陪同。', '龙须沟水环境综合治理提升项目依托自身所具有的生态自然条件,通过乡土植被覆盖率提升及生物多样性的恢复,重塑了人与自然和谐的复合生态环境系统。老干部们来到介溪湿地公园,一边行走在游步道上听取项目介绍,一边感受水环境治理成效。老干部们对我县水环境保护与治理取得的成绩给予充分肯定,并要求,要深入贯彻落实习近平生态文明思想,牢固树立绿水青山就是金山银山的理念,坚定不移走生态优先、绿色发展之路,持续打好污染防治攻坚战,为“爱我工小美五年新辉煌”筑牢生态屏障,以优异成绩庆祝建党100周年。', '在钤山镇田心村,老干部们瞻仰了中共分宜临时县委旧址,深切缅怀革命英烈。在讲解员的带领下,大家认真聆听关于王震、王首道、肖克等老一辈无产阶级革命家在我县战斗的事迹,重温了中国共产党的艰苦创业历程和新中国发展壮大的光辉历史。瞻仰革命先烈们留下的历史文物。', '活动中,大家纷纷表示,要心怀崇高情感学深学透党的历史,充分发挥好政治优势、经验优势、威望优势,继续把党的红色基因和红色精神展示好、传承好,在参与基层治理、助力乡村振兴等工作中积极发挥余热,以实际行动庆祝建党100周年。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>122</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>济宁市双拥工作考察学习团来我市调研交流双拥共建工作</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2021-05-12</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/gzxx/2021-05/12/content_48830315ba724f64ae22178191feb8fe.shtml</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['济宁市双拥工作考察学习团一行九人来到我市考察学习双拥共建工作，市退役军人事务局党组成员、副局长陈细根及退役军人事务局双拥办相关人员陪同调研。', '的双拥创建工作有很多成熟经验和做法值得学习借鉴，通过此次考察学习，进一步加强了两地之间的学习交流，取长补短，互促共进。希望通过此次考察交流为契机，']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>122</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>河南省新乡市住建局到我局考察学习</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2021-05-14</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://zjw.xinyu.gov.cn/zjw/zwdt/2021-05/14/content_06089266e16d481fa22d86c9fc0e61d3.shtml</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['5月14日，河南省新乡市住建局副局长张进朝一行到我局学习考察棚户区改造相关工作，甘方副局长召集相关单位负责人召开了座谈会。会上，市住房保障中心主任江梅兰向新乡市住建局的同行们介绍了我市棚改工作的经验和作法。甘方副局长代表市住建局向新乡市住建局一行的到来表示欢送，并']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>122</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>湖北省红安县到分宜县学习考察林长制工作</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2021-03-10</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/xlykx/2021-03/26/content_8b5c02d8e4744bfda3b863cb7d70c05c.shtml</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['座谈会上，分宜县向考察组介绍分宜全面建设林长制到全面见效林长制情况。做好了“管绿、护绿、增绿”三篇文章，制定《分宜县林长制实施方案》，出台《分宜县林长巡林工作制度》等', '个网格，每一个网格、每一处森林都实行“一长两员”管理，打通资源管护最后一公里，织密织牢了生态安全网；实施低产低效林改造（退化林修复）、封山育林、森林抚育造林绿化等增绿行动，提升了森林资源质量，增厚了绿色底蕴。高产油茶、森林中药材再植面积逐年扩大，林农收获满满幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>122</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>区行政审批局外出考察取真经学习借鉴谋提升</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2020-12-30</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/zwdt1/2020-12/30/content_f83bacbaf5cf4a74b7d5f493350f06eb.shtml</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['11月23日,区行政审批局正式挂牌运行。为进一步推进我区相对集中行政许可权改革试点工作,奋力开创“一章式管审批”渝水新局面,近日,区行政审批局组织学习考察团赴吉安市吉州区行政审批局学习先进经验和典型做法。', '考察团先后考察了吉州区行政审批局单位规划基本情况、窗口布局、后台审核的典型做法;与吉州区行政审批局主要负责人探讨前期审批事项转接时存在的困难、学习解决困难的办法;根据考察前列出的问题清单,与相关业务部门探讨审批事项中的具体事宜,学习经验做法。', '每到一处,考察团成员都认真听取经验介绍,详细了解具体的做法。考察团成员边听边看,边思边议,畅谈考察心得,凝聚改革共识。大家一致认为,吉州区行政审批局展现出来的创先争优、赶超进位的精神状态和高昂斗志,让大家很受启发、很受触动。', '大家纷纷表示,通过这次参观考察,既学到了经验、开阔了视野,又看到了差距、感到了压力,在今后的工作中,要以这次学习考察为契机,学习借鉴兄弟县市行政审批局的成功经验和典型做法,迅速行动起来,认真谋划工作思路,细化实化工作措施,全力做好渝水区相对集中行政许可改革试点工作,优化渝水营商环境。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>122</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>九江市行政审批局赴渝水区行政审批局考察学习</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2021-04-01</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/zwdt1/2021-04/01/content_cc996130294a4af6bd38b9438a9c9d70.shtml</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['2021年3月17日上午,九江市行政审批局局长高修庭带领九江市行政审批局有关同志一行到渝水区行政审批局考察学习,新余市政务服务中心党组成员、副主任林军贵同志专程陪同。', '考察团一行先实地参观了渝水区政务服务中心办事大厅各功能区。在参观过程中,区行政审批局安排专人向考察团详细讲解了渝水区相对集中行政许可改革成效、大厅窗口分布情况、人员配置及审批职能、24小时自助政务服务专区、便民自助服务区、农村产权交易中心等情况。随后,考察团又来到渝水区罗坊镇便民服务中心,参观渝水区乡镇便民服务中心运行情况。', '考察团对我区行政审批局2020年度相对集中行政许可权改革工作所取得的如办事大厅已进驻部门18个,服务窗口34个,平均每年办理各类业务3万余件,“一窗式”月均办件量翻两翻,预约服务1497件次、延时服务1.1万件次,好差评设备实现全覆盖等成效表示祝贺。同时,考察团还对推出的“部门事项集中办、法人事项上门办、群众事项就近办、行政事项网上办、异地事项畅通办”的“五办”特色表示赞赏,并希望在今后的工作中两地继续加强沟通与学习,稳步推进行政审批改革和政务服务工作向前迈进,共同努力为我省打造全国政务服务满意度“一等省份”的目标作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>122</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>新余市交通运输局赴上饶市婺源县考察学习</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2020-12-21</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://jtj.xinyu.gov.cn/jtj/zwdt/202012/e01d5d89db6641fd9ea3e7793c5ad1d9.shtml</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['在“十三五”即将收官、“十四五”即将开启的关键时期，为进一步贯彻落实习近平总书记关于“四好农村路”建设重要指示精神，新余市交通运输局乘全省“四好农村路”高质量发展现场会在上饶市婺源县召开东风，于2020年12月16日至18日，组织市、县（区）两级一行15人，赴上饶市婺源县考察学习“四好农村路”建设先进经验。考察学习由市交通运输局党委委员、副局长温小容带队，婺源县交通运输局党委书记、局长王炳琴出席考察交流活动。', '考察学习组先后到秋口镇石门村、思口镇漳村秀美乡村、婺源1号公路呈头观景台、清华交通综合服务站，实地考察了“四好农村路”+乡村治理、“四好农村路”+电商产业+生态保护、“四好农村路”+品质工程、建管养运一体化发展等“四好农村路”建设成果。随后，在婺源县清华交通综合服务站组织召开了“四好农村路”高质量发展经验交流会。会上，婺源县交通运输局相关负责人介绍了该县创建“四好农村路”示范县的经验；双方从建设好、管理好、养护好、运营好四个方面进行了交流座谈，并就全面推行农村公路“路长制”，深化农村公路管理养护体制改革等问题进行了深入探讨，该县交通运输局有关负责同志进行了详细解答。', '考察学习活动结束后，大家纷纷表示，这次考察是慕名而来、实至名归、不虚此行，大家既看到了先进典型、品质参照，也提升了思想理念、开阔了视野见识，一致认为要以此次学习考察为契机，认真借鉴婺源县“四好农村路”建设方面的系列成功经验，统筹推进我市县区“四好农村路”高质量发展，积极做好“十四五”农村公路规划编制，全面推进实施农村公路“路长制”，着力深化农村公路管理养护体制改革，充分发挥农村公路助力脱贫攻坚和乡村振兴支撑作用，竭力为我市“四好农村路”高质量发展建设作出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>122</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>我县与新干县开展跨行政区转型合作交流李逸翔带领我县党政代表团赴新干县学习考察</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2021-03-09</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2021-03/09/content_a2edcb92b6e24dd19f9972ef64d3628f.shtml</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['我县与新干县开展跨行政区转型合作交流李逸翔带领我县党政代表团赴新干县学习考察 | 分宜县人民政府', '3月9日,县委书记李逸翔带领我县党政代表团赴新干县,学习借鉴新干县文化旅游、乡村振兴及产业发展等方面的先进经验和做法,深化新宜吉合作示范区高质量发展、加快推动跨行政区转型合作。新干县委书记邓永翔,代县长胡军陪同考察。我县领导胡瑜瑞、袁传胜、卓俊、夏侯云一同考察,新干县领导杨二勇、陈春延、曾春保、周小健陪同考察。', '代表团一行先后深入大洋洲青铜博物馆、大洋洲镇新市李家村、江西天宇化工有限公司、金果世界旅游集聚区、江西华新电线电缆有限公司、江西联淦电子有限公司等地,每到一处,代表团成员都认真听、仔细看、详细问,对新干县文化旅游、乡村振兴及产业发展等方面进行全方位、多领域、深层次的沟通交流。', '在随后召开的新干分宜跨行政区转型合作交流座谈会上,邓永祥代表新干县四套班子对我县党政代表团的到来表示欢迎。邓永祥说,新干和分宜地缘相近,人缘相亲,希望两地以此次交流为契机,携手共进、密切联系、加强合作,开辟更为广阔的发展空间,共享发展新机遇,推动两地经济社会发展再上新台阶。代县长胡军介绍了新干县社会经济发展情况。', '李逸翔表示,新干县与我县面积、人口相当,都具有良好的生态禀赋和深厚的文化底蕴,在许多方面对接空间大,前景广阔。此次学习考察之行收获很多,新干县经济社会发展取得了巨大成就,十分值得学习借鉴,进一步增强了推动我县高质量发展的危机感、紧迫感和责任感。希望通过此次学习考察,深化互动互访、拓展交流合作,相互借鉴发展经验,努力在经济社会发展的各个领域实现优势互补、互促共进。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>122</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>新余农垦赴北大荒农垦集团学习考察</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2020-11-29</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://nyj.xinyu.gov.cn/nyj/zwdt/202011/ad10a096b2784cc7ade2e52e1f74cf5a.shtml</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['博物馆参观，接受革命传统教育，学习“艰苦奋斗、勇于开拓、顾全大局、无私奉献”的北大荒精神。之后，', '赴北大荒农垦集团宝泉岭分公司学习考察农垦改革、危房改造、产业发展等工作，公司负责人及相关人员陪同考察。', '考察组先后参观了宝泉岭远征军纪念馆、共青农场中国青年志愿垦荒纪念馆、梧桐河农场抗联纪念馆，领略了农垦抗联文化、军旅文化、垦荒文化、知青文化等文化元素的独特魅力，感受了转业官兵当年垦荒的呐喊，唤醒了千年的沉寂；知识青年如花岁月融入黑土文明；新一代垦荒人的智慧续写着永远的传奇。', '考察组先后考察了宝泉岭农场北三峡食品加工厂、双汇肉业公司、国家现代农业产业园、瑞艺电子商务公司、绿色智慧厨房；共青农场电商营销中心、小产业孵化园；绥滨农场灌渠、农业科技园区、龙门福地酒业；军川农场军粮酿酒有限公司、农机园区。', '宝泉岭分公司推动资源资产整合、产业优化升级，建设“一区一园六基地”的“宝泉岭方案”所折服。', '考察组还先后参观了宝泉岭农场艺体中心、直属小学及军川农场川南管理区、共青农场哈尔滨庄管理区党建工作和共青农场场直城镇建设（危旧房改造现场），感受了当地农垦社会职能改革后的欣欣向荣。', '垦区农场企业化垦区集团化改革、农垦集团公司企业治理和运作模式、在乡村振兴战略实施过程中如何发挥农垦作用、农垦改革体制机制创新和政策创设、金融机构助力农垦改革发展、农垦企业办社会职能改革等', '一些具体问题进行了深入交流。考察组表示，北大荒农垦用改革的办法解决新老问题，在管理体制、经营机制和产业发展等方面取得了可喜的成绩，走出了一条独具特色的现代农垦发展之路，值得我们学习和借鉴。双方希望今后进一步加强两地交流合作，充分发挥各自优势，开展深度合作，实现发展共赢。', '通过此次学习考察，大家受益匪浅，增长了见识，开阔了视野，启迪了思维，纷纷表示将结合实际，努力推进我市农垦改革发展工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>122</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>赣州市公共资源交易中心一行莅临中心考察学习</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2020-11-23</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/202011/a4eabd2556a148b1b4b3668da390eb91.shtml</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['11月20日,赣州市公共资源交易中心邱荣华主任一行莅临中心学习考察了不见面开标及远程异地评标系统建设和电子保函等工作经验。', '考察组一行在中心张小芳主任的带领下先到三楼开标区,实地观摩新余学院运动场改造工程“不见面”开标情况。随后,考察组一行在中心会议室进行了座谈交流。市行管委党组成员、副主任何拾芽主持座谈会,中心张小芳主任向考察组一行介绍了中心不见面开标及远程异地评标系统建设和运行情况。双方就公共资源全流程电子化交易进行了深入探讨和交流。通过这次短暂交流,互相学习了公共资源交易改革工作的经验做法,达到了取长补短、共同进步的目的。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>122</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>新余市农业农村局赴赣州抚州学习考察蔬菜产业发展经验</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2020-09-03</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://nyj.xinyu.gov.cn/nyj/zwdt/202009/f1d5c63ef883475db34e2fea7932032f.shtml</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['为贯彻落实全省蔬菜产业发展现场会精神，进一步推进新余市蔬菜产业高质量发展，近日，新余市农业农村局组织各县（区）农业农村部门分管负责同志、业务科室负责同志、蔬菜龙头企业代表赴赣州市、抚州市学习考察蔬菜产业发展经验。', '考察组学习考察了赣州市、抚州市在设施蔬菜规范化建设、“龙头企业+合作社+职业菜农”组织模式、培育蔬菜购销经纪人队伍、组建蔬菜产业协会、创建蔬菜区域公用品牌等方面的经验和做法。赣州市在设施蔬菜基地建设中，通过工厂化育苗、肥水一体化种植、批量规模化生产、专业化技术指导，真正实现了标准生产，大大提升了蔬菜品质；通过建立大型蔬菜分拣、打包车间，真正实现农产品工厂化生产；通过政府补贴基础建设和搭建平台，真正实现了蔬菜产销一条龙服务。抚州市充分发挥蔬菜协会作用，建立大型蔬果肉类冷链仓储园区，通过线上下单，线下配送等方式，规范流通管理，极大提高了产品流通效率；同时还注重打造蔬菜区域公用品牌，通过品牌包装和品牌效应，提升了蔬菜产品价值，真正实现产品利益最大化。', '通过学习考察，大家一致认为，赣州、抚州的经验做法值得我们学习借鉴。今后，新余市将结合蔬菜产业发展实际情况，把一些好的经验做法融入到全市蔬菜产业发展当中，系统合理构建蔬菜产业发展产业链，努力推动蔬菜产业发展跃上新的台阶。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>122</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>委党组书记主任孙昕晖带队赴深圳市等地学习考察</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2020-11-03</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/202011/ae4f1ba7d9464899ad12d6c9d02074b2.shtml</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['为全面推进我市政务服务改革,进一步提升政务服务质量,10月28日至30日,市行管委党组书记、主任孙昕晖带队,市政府办、市信息化服务中心、市数投公司等相关单位分管领导一行赴深圳市、惠州市等地学习考察,并与惠州市政务服务数据管理局签订了“跨省通办”合作协议。', '考察组首先实地参观了深圳市南山区行政服务大厅,就其企业设立一站式服务等先进经验进行了学习,并就当前“互联网+政务服务”中的新举措和下一步发展方向进行了探讨交流。在惠州市,新余市行管委与惠州市政务服务数据管理局举行了政务服务“跨省通办”签约仪式,两地将同时开设线下“跨省通办”专窗和线上“跨省通办”专栏,通过数据共享、代收代办、邮政快递等方式,为新余、惠州两地群众和企业提供失业登记、企业设立等33项(第一批事项)高频事项的“跨省通办”服务,有效满足各类市场主体和广大人民群众异地办事需求。最后,考察组参观了深圳市行政服务大厅,就政务服务事项“就近办理”等便民化服务举措进行了实地交流。', '下一步,我委将借鉴深圳市、惠州市、南山区深化“放管服”改革的成功经验做法,结合我市实际,进一步创新政务服务改革举措,不断提升政务服务能力和水平,为将我省打造成全国政务服务满意度一等省份贡献新余政务服务力量。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>122</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>何国新局长带队到湖南省茶陵县学习考察森林康养产业</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2020-08-20</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/zwdt/202008/ebe187e1e56141f0ad6df5f9cb062b5a.shtml</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['考察组一行先后考察了茶陵花溪园康养基地、花湖谷康养基地和东阳湖国家湿地公园康养产业。考察组一行通过座谈交流、现场体验等多种方式学习茶陵县森林康养产业的发展模式、先进经验和心得体会。', '市林业局二级调研员刘光富、四级调研员宋东球,市林产局局长徐新平、市欣余绿色投资公司负责人黄屹中及市林业局有关科室、单位负责人一同参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>122</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>萍乡市公共政务管理局一行赴市政务服务中心学习考察</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2020-06-15</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/202006/9f94c50347464d9b85a5eeb44b7ef902.shtml</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['6月11日,萍乡市公共政务管理局局长昌社育一行五人来我委学习考察,委党组书记、主任孙昕晖,副县级干部何炜华及相关科室负责人全程陪同并参加座谈会。', '会上,我委和萍乡市公共政务服务管理局互相交流了省优化政务服务“20条”干货的贯彻落实情况,重点讨论了“赣服通”3.0版特色事项、“好差评”、“一窗式”综合服务平台系统对接、“一链办理”、“政策兑现”代办流程及中介超市建设等情况。双方一致表示,以后要加强沟通交流、取长补短、共同提高,纵深推进“放管服”改革,让企业群众更好的办事体验,提高企业群众的获得感幸福感。', '随后昌社育一行先后参观了中介超市、市政务服务中心,现场了解了中介超市运行、“好差评”、综合窗口、政策兑现、“一门式”等改革推进情况,对近年来我市政务服务工作取得的成绩给予高度评价。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>122</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>我市赴宜春考察学习生活垃圾分类工作</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2020-08-12</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://cgj.xinyu.gov.cn/cgj/cgyw/202008/a45ead81164a4991b50e3a2d7ad96969.shtml</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['8月11日上午，由市城管局党组成员、副局长胡裕生带队，市委宣传部、市教育局、市财政局、市卫健委、市机关事务管理局、市环卫处、各县区（管委会）相关人员一行赴宜春市考察学习生活垃圾分类工作。', '考察组先后参观了袁州区宜阳小区、中山东路368号院、宜春市生活垃圾分类和减量科普基', '地，宜春市城管局分管领导、宜春市垃圾分类管理中心负责人及基层垃圾分类管理人员介绍了有物业小区、无物业小区及全市垃圾分类开展、垃圾分类设施建设、宣传推广方式、资金投入、组织机构设置等情况，双方围绕如何开展垃圾分类工作，切实抓好分类效果，以及目前垃圾分类存在问题进行了深入的研讨交流。', '考察组成员纷纷表示，宜春市是全国第一批46个生活垃圾分类试点城市之一，在生活垃圾分类工作上积累了丰富的成功经验，形成了有特色、可复制、可推广的工作模式。通过此次考察学习，受益匪浅，将把宜春的先进工作经验带回去，结合我市实际，扎实推进新余生活垃圾分类工作。', '考察组成员纷纷表示，宜春市是全国第一批46个生活垃圾分类试点城市之一，在生活垃圾分类工作上积累了丰富的成功经验，形成了有特色、可复制、可推广的工作模式。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>122</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>工作动态我市赴宜春考察学习生活垃圾分类工作</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2020-08-12</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/csljflcz/2021-03/03/content_7a36dce00bf5459a98da9814676afb15.shtml</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['为学习生活垃圾分类工作先进经验,进一步推进我市生活垃圾分类工作,8月11日上午,由市城管局党组成员、副局长胡裕生带队,市委宣传部、市教育局、市财政局、市卫健委、市机关事务管理局、市环卫处、各县区(管委会)相关人员一行赴宜春市考察学习生活垃圾分类工作。', '考察组先后参观了袁州区宜阳小区、中山东路368号院、宜春市生活垃圾分类和减量科普基地,宜春市城管局分管领导、宜春市垃圾分类管理中心负责人及基层垃圾分类管理人员介绍了有物业小区、无物业小区及全市垃圾分类开展、垃圾分类设施建设、宣传推广方式、资金投入、组织机构设置等情况,双方围绕如何开展垃圾分类工作,切实抓好分类效果,以及目前垃圾分类存在问题进行了深入的研讨交流。', '考察组成员纷纷表示,宜春市是全国第一批46个生活垃圾分类试点城市之一,在生活垃圾分类工作上积累了丰富的成功经验,形成了有特色、可复制、可推广的工作模式。通过此次考察学习,受益匪浅,将把宜春的先进工作经验带回去,结合我市实际,扎实推进新余生活垃圾分类工作。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>122</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>新余市赴外地学习考察新农村建设和农村人居环境整治工作</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2020-07-02</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://nyj.xinyu.gov.cn/nyj/zwdt/202007/725a0a4ae79741aa932c499a9ef315c5.shtml</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['为学习兄弟地市在新农村建设暨农村人居环境整治工作的好经验、好做法，推动新余新农村建设暨农村人居环境整治工作，近日，该市组织市新农办和县区新农办以及部分乡镇代表到九江市修水县、宜春市靖安县、抚州市东乡区等地学习考察新农村建设暨农村人居环境整治工作。', '考察组一行先后来到修水县太阳升镇杨梅渡村、马坳镇东津村，靖安县高湖镇高湖村、璪都镇港背村，东乡区邓家乡周家村和东乡区智慧环卫基地等地考察。每到一处，考察组成员都被鲜明的改良徽派风格的房屋效果、优美整洁的村庄环境、如诗如画的乡村美景所深深吸引。大家边走边看，认真听取了相关负责人对村点建设情况介绍，详细了解他们在推进秀美乡村建设中的资金筹措、规划编制、“三拆三建”、工程管理和长效管护等工作的具体措施，真切感受当地呈现出的新面貌、新气象。', '大家一致认为，各地的美丽乡村建设如诗境，宁静、纯净、强劲、奋进。修水县的秀美乡村建设工作规划大手笔，投入大气魄，乡村乡韵十足；靖安县“一产利用生态、二产服从生态、三产保护生态”的发展模式是诠释“绿水青山就是金山银山”的具体实践；东乡区沿线连片推进美丽乡村建设的同时大力发展乡村产业，既美了“面子”，也厚了“里子”，为美丽乡村发展注入了经济活力；智慧长效管护平台的建立，实现了建设项目的实时监管、维护，真正实现了项目管护长效化、常态化，完成了从“重建轻管”到“建管并重”的华丽转身。', '他山之石，可以攻玉。下一步，该市将结合本地实际，从五个方面发力，全力推进“整洁美丽、和谐宜居”的美丽乡村建设，助力全市乡村面貌大变样：一是在理念上力求创新。严格落实精心规划、精致建设、精细管理、精美呈现的“四精”理念，认真执行市委出台的乡村六要、规划六要、用地六要和建房六要，杜绝村政设施过于城市化，村巷道、护坡台地水泥过度硬化；努力创建一批田园乡村、文化古村、休闲旅游村、现代宜居村。二是在建设上把握四个关键点。抓住乡村的“眼”，体现乡村的“韵”，留住乡村的“愁”，打造乡村的“精”。弘扬传统文化、挖掘历史典故、讲好村庄故事；尊重村庄肌理、地形地貌，禁挖山、不填塘、慎砍树，展现乡村特色，留住田园乡愁。三是在选材用材上更加乡土化。坚持多用竹篾、砖块、鹅卵石、瓦片等乡土材料和“拆三房”拆出来的屋瓦、门牌、雕栏、花窗等废旧材料；多用本地植物绿化，用“村花乡草”装点家乡，更好地降低维护成本，打造原汁原味的四季风景。四是在发挥群众主体上更加有为。开展首届“具有时代精神的新乡贤”和新农村建设先进促进会评选活动，通过立标杆、树典型，激发更多的新乡贤参与美丽乡村建设，引导农民群众见贤思齐、崇德向善，营造全社会学习新乡贤、弘扬新风尚、传播正能量的浓厚氛围，促进乡风文明推动乡村治理，着力解决新农村建设过程中政府“大包大揽”和“干部干、群众看”的突出问题。五是在管理上更加注重长效。完善建立“1+N”长效管护模式，做好村内清扫保洁、绿化管护、公共设施管护等，构建有制度、有标准、有队伍、有经费、有督查的长效管护机制；运用好即将投入使用的“万村码上通”智慧化管护平台，做到常态管护、长效管理，切实维护好“新村新貌”，让农村成为安居乐业的美丽家园。（新余市农业农村：王翔、廖裕）']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>122</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>市应急局前往赣州市考察学习安全生产标准化创建工作</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2020-06-04</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://ajj.xinyu.gov.cn/ajj/zwdt/2020-06/04/content_6bfa4f44d9114a21896db1048c4a5134.shtml</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['市应急局前往赣州市考察学习安全生产标准化创建工作 _ 政务动态 _ 新余市应急管理局', '市工贸行业安全生产基本情况，近年来的安全生产工作主要措施，安全生产标准化创建总体情况等', '深入已经完成标准化创建工作的江西金力永磁科技股份有限公司及正在开展标准化创建工作的江西金马隔板科技有限公司，实地考察了解企业安全生产标准化']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>122</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>吉安市民政局殡管所来余学习考察殡葬改革工作</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2020-05-30</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://mzj.xinyu.gov.cn/mzj/zwdt/202005/101cd31659e74baf9ea368a06fa7466d.shtml</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['5月29日，吉安市民政局殡管所一行5人来我市学习考察殡葬改革工作，参观调研了长安陵园场馆、人体器官捐赠广场，市人文纪念园等建设情况。市民政局二级调研员李文携有关人员陪同。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>122</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>徐鸿率队赴吉安考察学习</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2020-06-12</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://fgw.xinyu.gov.cn/fgw/zwdt/202006/e5d7f640c6b841038b0e8ef2346af1ba.shtml</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['月12日，市委常委、常务副市长徐鸿带队携中铁第五勘察设计院副院长谌启发一行赴吉安市学习考察并进行座谈。吉安市委常委、常务副市长毛顺茂出席，吉安市政府副秘书长孙英剑主持会议，吉安市城投公司总经理罗刚、副总经理戴真宝、吉安市发改委副主任孙江伟、市铁办主任曾靖伟参加会议。', '座谈会上徐鸿指出，近年来吉安市在铁路谋划、推进及配套设施建设、高铁新区开发建设方面取得有目共睹的成就，', '希望加强两市之间的交流合作，进一步推动新宜吉区域整合发展，加深产业互利合作；同时恳请吉安市政府与我市一道齐心协力，支持将咸修吉铁路纳入国家中长期铁路网规划和“十四五”铁路发展规划，帮助我市争取更多的铁路项目。', '毛顺茂对于徐鸿一行的到来表示热烈欢迎，他表示，新余与吉安山水相连、道路相通、产业相关，加强两市的沟通交流共同发展、互惠互利；咸修吉铁路入网纳规，需要两市共同向省相关部门领导汇报沟通，恳请中铁五院在技术上和战略上支持将咸修吉铁路纳入国家中长期铁路网规划和“十四五”铁路发展规划。', '渝水区区长邹家洪，新宜吉合作示范区管委会主任雷蕾，市政府副秘书长李继勇，委副主任傅磊参加座谈。（铁办 黄艳）']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>122</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>我市赴宜春考察学习生活垃圾分类工作</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2020-08-14</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://cgj.xinyu.gov.cn/cgj/tpxw/202008/1ee068b2ab9d43818a4627e6ebb34432.shtml</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['为进一步推进我市生活垃圾分类工作，学习垃圾分类工作先进经验，8月11日上午，由市城管局党组成员、副局长胡裕生带队，市委宣传部、市教育局、市财政局、市卫健委、市机关事务管理局、市环卫处、各县区（管委会）相关人员一行赴宜春市考察学习生活垃圾分类工作。', '考察组先后参观了袁州区宜阳小区、中山东路368号院、宜春市生产垃圾分类和减量科普基地，宜春市城管局分管领导、宜春市垃圾分类管理中心负责人及基层垃圾分类管理人员介绍了有物业小区、无物业小区及全市垃圾分类开展、垃圾分类设施建设、宣传推广方式、资金投入、组织机构设置等情况，双方围绕如何开展垃圾分类工作，切实抓好分类效果，以及目前垃圾分类存在问题进行深入的研讨交流。', '考察组成员纷纷表示，宜春市是全国第一批46个生活垃圾分类试点城市之一，在生活垃圾分类工作上积累了丰富的成功经验，形成了有特色、可复制、可推广的工作模式。通过此次考察学习受益匪浅，将把宜春的先进工作经验带回去，结合我市实际，扎实推进新余生活垃圾分类工作。']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>122</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>我局赴鹰潭市审计局学习考察审计信息化情况</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2020-04-30</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://sjj.xinyu.gov.cn/sjj/zwdt/202004/a01fb5bdc2f64213b1add886beea4a81.shtml</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['2020年4月28日,新余市审计局谢平生副局长一行3人赴鹰潭市审计局学习考察。主要任务是了解学习鹰潭市审计局近几年来信息化建设和审计项目应用管理情况,借鉴鹰潭市审计局的成功经验,推动新余市审计局审计信息化建设。', '鹰潭市审计局详细介绍了近几年来本市审计部门在审计管理系统升级改造、投资审计管理系统建设、审计培训指挥系统和审计全覆盖数据分析服务及大数据分析室建设等方面所做的成绩。同时邀请了两家公司就审计项目信息化管理和审计大数据分析进行了理论拓展和案例展示。', '通过学习,一行人员对如何应用信息化手段来实现对审计项目的有效管理有了一个较为清晰的认识,鹰潭市审计局的很多做法值得我们去借鉴,去延展。我们将紧紧结合自身实际,运用好信息化这个工具,通过系统化管理,大数据分析,为全局各项工作提质增效。（新余市审计局 黎建忠）']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>122</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>内蒙古自治区通辽市政务服务中心考察团赴我市政务服务中心学习考察</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2020-04-29</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/202004/b2d56566e9a24a9bb73b99f1030e97c8.shtml</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['内蒙古自治区通辽市政务服务中心考察团赴我市政务服务中心学习考察 | 新余市政务服务中心', '为学习借鉴我市“放管服”改革和建设项目审批制度改革的经验做法,4月26日上午,内蒙古自治区通辽市政务服务中心副主任李世英携考察团一行7人赴我市政务服务中心学习考察。他们首先参观了政务服务大厅,了解了“一窗式”的运行情况,询问了市场监管窗口“一照含证”的改革情况和其他相关窗口的改革情况,对我委的政务服务工作给予高度评价。', '随后在我委506会议室召开座谈会。委党组书记、主任孙昕晖,副县级干部何炜华等相关人员参加会议。双方就政务服务标准化、政务服务一体化平台建设、“一窗式”改革、“一链办理”、建设项目审批制度改革、优化营商环境等工作做了深入探讨、交流,彼此分享了政务服务改革的成功经验和有效举措。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>他山之石可以攻玉新溪乡赴兄弟乡镇考察学习</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2020-05-08</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/zwdt1/2020-05/08/content_2ccf26b5929e48daaf8ac521959beeea.shtml</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['5月5日上午，我乡相关党政班子成员及各村支部书记前往人和乡学习人居环境整治、新农村建设等工作。', '一行人来到了人和乡朱家村委和布里村委。朱家村村委书记向一行人介绍了朱家村借助本地生态优势，利用石、竹等免费资源，来建设新农村，打造鹅卵石特色小镇的经验。布里村村委书记则介绍了在新农村建设中因地制宜利用废旧砖瓦木料建设“三园“经验与具体做法。大家认真倾听，同时在参观过程中，边观摩、边思考、边交流，获益匪浅。', '一行人来到了人和乡朱家村委和布里村委。朱家村村委书记向一行人介绍了朱家村借助本地生态优势，利用石、竹等免费资源，来建设新农村，打造鹅卵石特色小镇的经验。布里村村委书记则介绍了在新农村建设中因地制宜利用废旧砖瓦木料建设', '实地参观学习结束后，我乡党政班子立即召开会议，总结经验成果，部署安排下一步工作，要求我乡在环境整治、新农村建设中，也要因地制宜，因村施策，借鉴兄弟乡镇新农村建设和环境整治的先进经验，结合我乡及各村委的实际情况，开展新农村建设和人居环境整治工作。大家积极发言，纷纷表示将以此次外出学习为契机，对照先进找差距、补短板、寻突破，结合本地实际，努力开创新农村建设、人居环境整治工作的新局面。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>122</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>宜春市审计局来我局学习考察自然资源资产审计情况</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2020-05-08</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://sjj.xinyu.gov.cn/sjj/zwdt/202005/2e729d15420442d0ae6623ad9b4c6694.shtml</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['2020年5月7日,宜春市审计局肖平调研员一行5人来我局考察,双方针对自然资源资产审计情况进行了交流。我局介绍了新余市领导干部自然资源资产审计改革背景,在自然资源资产审计领域所取得的成效以及开展自然资源资产审计经验做法,重点针对领导干部自然资源资产离任审计地理信息数据分析进行了经验分享。(新余市审计局 王海燕)']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>122</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>鹰潭市公共资源交易中心一行到我市公共资源交易中心学习考察</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2020-05-22</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/202005/6e1ce7c6bf294fd2b74a2397ab0e5767.shtml</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['2020年5月20日,鹰潭市公共资源交易中心翁淑红主任一行四人到我市公共资源交易中心考察学习公共资源管理经验做法和信息化建设工作。', '鹰潭市公共资源交易中心一行四人在中心主任张小芳的引导下,先后到中心的开标区、候标区、评标区参观了中心场地标准化建设情况。翁主任对新余市公共资源交易活动场所功能区域的合理划分、配套完善的开评标设备设施、错时延时特色服务等都给予高度评价。', '参观结束后,考察组一行在中心会议室召开了座谈会。市行管委党组成员、副主任何拾芽主持会议,市公共资源交易中心中层以上干部都参加了座谈。中心张小芳主任向考察组介绍了我市公共资源交易远程异地评标、交易现场管理、交易平台整合和机构设置等工作情况,双方就公共资源交易平台标准化、电子化、信息化建设工作进行了深入探讨,分享交流了彼此经验做法和有效举措,开阔了大家的思路,有利于进一步提高公共资源交易服务水平。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>122</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>市行管委考察组赴景德镇市行政服务中心管理委员会学习考察一窗式改革等工作</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2020-04-10</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/202004/acb6c54910db45da964941711cf3f479.shtml</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['市行管委考察组赴景德镇市行政服务中心管理委员会学习考察“一窗式”改革等工作 | 新余市政务服务中心', '为了学习和借鉴景德镇市政务服务改革等工作的成功经验,加快推进我市“好差评”、“一窗式”改革、自助服务区等工作,4月3日,市行管委副县级干部何炜华率队一行4人赴景德镇市行政服务中心学习考察。', '考察组一行首先参观了景德镇市政务服务大厅,详细了解大厅规划布局及软硬件建设、“一窗式”改革、好差评、错时延时预约服务等改革工作推进情况,参观了“赣服通”全天候智能服务中心的各类基本设施情况,现场了解政务服务事项自助办理流程,并进行了自助办事体验。', '座谈会上,景德镇市行政服务中心管理委员会党组成员、副主任汪湖就大厅总体运行情况及特色工作向大家做了详细介绍。双方业务科室就大厅综合窗口建设、“一网通办”推进、“一窗式”综合受理等方面进行了深入交流。', '此次学习考察交流,学习了兄弟地市行政服务中心“放管服”改革中的先进经验及特色工作,开阔了思路,下一步我委将借鉴学习考察成果,有力推进我委市“一窗式”改革、政务服务“好差评”等工作。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>122</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>市委常委会会议暨市委应对新冠肺炎疫情工作领导小组第九次会议召开传达学习习近平总书记在浙江考察调研时的指示精神研究部署统筹推进疫情防控和经济社会发展工作蒋斌主持</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2020-04-07</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/202004/b41bcc39f3814774aa2d0944be01bdd5.shtml</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['市委常委会会议暨市委应对新冠肺炎疫情工作领导小组第九次会议召开 传达学习习近平总书记在浙江考察调研时的指示精神 研究部署统筹推进疫情防控和经济社会发展工作 蒋斌主持', '4月3日,市委书记蒋斌主持召开八届市委第101次常委会会议暨市委应对新冠肺炎疫情工作领导小组第九次会议,传达学习习近平总书记在浙江调研疫情防控和复工复产时指示精神,听取“党建+疫情防控”特别行动组工作情况汇报;传达学习中央脱贫攻坚专项巡视“回头看”暨成效考核反馈意见整改工作动员部署会精神;听取2020年一季度经济运行情况汇报,并研究贯彻落实意见。', '会议指出,当前我市疫情防控总体呈现持续向好的态势,但境外疫情正在加剧蔓延,疫情仍存在潜在隐患,疫情防控仍存在不确定因素。要时刻保持警惕,始终绷紧疫情防控这根弦,精准研判、精准施策,把疫情防控的责任再压实、措施再落实,坚决守住来之不易的防控成果,确保全市不再发生本地新的疫情、确保市内不再发生扩散性病例。', '会议强调,要深入学习贯彻习近平总书记在浙江调研疫情防控和复工复产时指示精神,坚持“外防输入,内防反弹”的原则,突出重点,压实责任,切实把各项防控措施抓实、抓细、抓到位,统筹抓好疫情防控和经济社会发展各项工作。要在严格做好疫情防控工作的前提下,加大力度推进经济社会发展,全面做好“六稳”工作,有力有序推动复工复产提速扩面,积极破解复工复产中的难点、堵点,推动全产业链联动复工,加快恢复生产生活秩序,力争把疫情造成的损失降到最低,努力完成全年经济社会发展目标任务。', '会议强调,要深入学习贯彻习近平总书记关于扶贫工作的重要论述,提高政治站位,从增强“四个意识”,坚定“四个自信”,做到“两个维护”的政治高度,切实增强抓好反馈问题整改的思想自觉和行动自觉,坚持把抓好整改作为巩固“不忘初心、牢记使命”主题教育成果的深化拓展,作为决战决胜脱贫攻坚的强大动力,以更大的决心、更实的举措、更严的作风,推动整改工作落实落细,确保如期高质量打赢脱贫攻坚战。要压实工作责任,主动认真对照问题清单,将中央专项巡视“回头看”发现的问题、“不忘初心、牢记使命”主题教育检视的问题、脱贫攻坚成效考核指出的问题一体化部署、一体化推进。要细化工作措施,尽快制定整改工作方案,强化市县乡村四级联动,挂图作战、对账销号,确保按时整改到位。', '会议强调,要紧盯全年发展目标任务,积极化解疫情带来的影响,把延后的工程、耽误的工期追回来。要抓好项目的谋划、政策的谋划,抓好“十四五”规划。密切跟踪对接国家、省政策导向,抓紧谋划一批项目,争取更多资金、政策支持,不断充实我市政策储备,力争支持我市更多项目列入上级规划。要加强调度,紧盯重点指标、推进重点项目、服务重点企业,不断挖潜增效,持续深化“仙女湖夜话”制度,主动对接企业,主动帮扶企业化解危机,助力企业健康良性发展。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>122</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>市委常委会召开会议学习贯彻习近平总书记考察湖北重要讲话精神研究部署疫情防控和脱贫攻坚有关工作蒋斌主持</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2020-03-16</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://xfj.xinyu.gov.cn/xfj/zxyw/202003/e6d5918308dc40179fe52d8842d0aa6a.shtml</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['市委常委会召开会议 学习贯彻习近平总书记考察湖北重要讲话精神 研究部署疫情防控和脱贫攻坚有关工作 蒋斌主持 _ 最新要闻 _ 新余市信访局', '市委常委会召开会议 学习贯彻习近平总书记考察湖北重要讲话精神 研究部署疫情防控和脱贫攻坚有关工作 蒋斌主持', '3月13日,市委书记蒋斌主持召开八届市委第98次常委会会议,学习贯彻习近平总书记在湖北省考察新冠肺炎疫情防控工作时的重要讲话精神,听取“党建+疫情防控”特别行动组工作情况及市涉外疫情防控工作情况汇报;传达学习中央和省委决战决胜脱贫攻坚座谈会精神,听取全市脱贫攻坚工作情况汇报;传达学习中央政法工作会议、全国市域社会治理现代化工作会议,中央政法委书记郭声琨对我市维稳工作批示精神以及全省政法工作会议暨全省市域社会治理现代化工作会议精神,研究贯彻落实意见。', '会议强调,当前全市抗疫工作取得阶段性成果,但随着复工复学和返程等人员流动等多种因素,全市疫情形势严峻性不减、复杂性增多,外防输入压力逐步增大。要始终保持清醒头脑,进一步巩固和拓展稳中向好的发展态势,慎终如始推进疫情防控,严密防范境外疫情输入,坚决防止疫情反弹蔓延。要充分发挥“党建+疫情防控”特别行动组连续性、机动性和专业性作用,科学分析疫情形势,根据实际情况科学调整农村、城区和复工的防控举措,有序开展有关境外疫情输入、复学的疫情防控应急演练,不断提升应对突发事件的能力和水平。特别行动组准确把握当前疫情发展形势,要充分整合和利用好现有资源,握紧拳头,凝聚合力,打好疫情防控组合拳。要充分利用现代科技手段,大力推行电子通行证,着力提升防控工作效率。', '会议指出,今年是脱贫攻坚战最后一年,收官之年遭遇疫情影响,各项工作任务更重、要求更高。全市各地各部门要进一步提高政治站位,深入学习贯彻习近平总书记重要讲话精神,坚决落实中央和省委部署要求,坚持标准不变、靶心不散、力度不减,按照“5+2”工作思路,持续深化精准帮扶“十大”行动,统筹做好脱贫攻坚问题整改,确保如期高质量打赢脱贫攻坚战。要有效防范和化解疫情对脱贫攻坚的影响,及时全面准确摸清疫情影响脱贫、返贫和致贫的风险,大力促进复工复产,采取有效应对措施,因户因人实施精准帮扶。脱贫攻坚,产业是关键,要加大产业扶贫力度,做实保障扶贫、做优励志扶贫、做好消费扶贫、做深社会扶贫,发动社会力量助力解决“两不愁三保障”突出问题,增强精准扶贫、精准脱贫能力。要打造探索农业设施扶贫、综合保险扶贫“两个特色”,持续增加村集体收入,设立“防贫保”专项基金,拧紧防返贫致贫的“保险阀”。', '会议强调,各地各部门要深入学习贯彻习近平总书记重要指示和中央、全省政法工作会议精神,把维护国家政治安全放在第一位,扎实做好各类风险防控,持续深入开展扫黑除恶专项斗争,深入推进政法领域全面深化改革,为我市“四年大变样”营造安全稳定的社会环境。要打造亮点和特色,以申报全国市域社会治理现代化试点城市为契机,切实化解和防范重大风险,以争创试点来引领推动各项工作,不断提升社会治理水平。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>122</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>市自然资源局党组成员副局长何爱斌带队赴鹰潭考察学习国土空间规划编制工作经验</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://bnr.xinyu.gov.cn/xyszrzyj/zrdt/201909/08e3689be51b4402b97de13d9efa98fb.shtml</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['市自然资源局党组成员、副局长何爱斌带队赴鹰潭考察学习国土空间规划编制工作经验 - 新余市自然资源局', '为加快推进我市国土空间规划编制和现状评估工作，构建国土空间规划管理体系，9月19日，市局党组成员、副局长何爱斌带队赴鹰潭市学习考察国土空间规划编制工作经验。', '座谈会上，鹰潭市自然资源局党组成员、副局长郑云霞介绍了该市“多规合一”、国土空间规划编制和现状评估试点等工作开展情况。双方就国土空间规划编制模式、技术单位选择、工作经费预算和国土空间开发现状评估指标选取等内容进行了交流讨论。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>122</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>推动工作上台阶谋求明年大变样蒋斌犹王莹率队到景德镇市学习考察城市双修工作</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2019-11-06</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://xfj.xinyu.gov.cn/xfj/zwdt/201911/ecbadd1b70ce41c394e5d43c12c4ef35.shtml</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['推动工作上台阶 谋求明年大变样蒋斌犹王莹率队到景德镇市学习考察“城市双修”工作 | 新余市信访局', '11月5日,市委书记蒋斌,市委副书记、市长犹,市委副书记曾萍,市委常委、常务副市长徐鸿,市委常委、统战部部长李新华,市委常委、宣传部部长李瑞峰一行到景德镇市专题学习考察“城市双修”工作,感受景德镇市通过“城市双修”工作给城市环境面貌带来的巨大变化,为我市城市建设谋求借鉴和经验。景德镇市委书记钟志生、市委副书记王前虎陪同学习考察。', '“城市双修”是指生态修复、城市修补。自2017年以来,景德镇市抓住被列入全国第二批“城市双修”试点城市契机,按照“要大力开展生态修复,让城市再现绿水青山”精神,以“改善生态环境、补齐功能短板、提升服务水平、转变发展方式”为主要内容开展城市建设改革工作,大大提升了城市外部形象和内在气质,探索出一条城市内涵式发展新路径。', '经过改造后的景德镇国家森林公园,生态优良,环境清幽,成为景德镇市民最喜欢去的休闲之地,更为市民保留了一处留住乡愁、对话历史的地标。2018年以前,位于三宝国际瓷古中段的马鞍岭自然村还是一个破败的矿区,生活条件艰苦,很多村民搬离。2018年,景德镇市以实施乡村振兴战略为契机,对马鞍岭村进行改造、升级,打造成集陶瓷文化、生态休闲、旅游创客于一体的新农村建设示范点,成为我省新农村建设的样本。来到206国道昌南段,景德镇国家森林公园、三宝国际瓷古,蒋斌、犹等认真看、仔细听,详细了解这些景点的前世今生、设计理念,实地感受景德镇市通过“城市双修”工作带来的巨大变化,对景德镇市大手笔规划,处处布景、处处建景,还绿于民、还利于民的做法表示赞赏。', '景德镇是千年瓷都,在“城市双修”过程中,景德镇以陶瓷文化为基底,以文创产业为主业态,把一些传统陶瓷老工厂和遗址打造成当代和历史相融合,融产业发展升级与新型城镇化为一体的新业态,让老的陶瓷遗址重新焕发了生机。来到陶溪川创意文化园、御窑博物馆、国瓷馆等地,蒋斌、犹一行详细了解景德镇市对历史文化遗址保护与开发的理念,对景德镇创新历史文化保护传承机制,构建陶瓷文化产业经营新业态的做法留下深刻印象。', '考察中,蒋斌、犹指出,景德镇市通过大力推进城乡环境整治和“城市双修”,走出一条不同寻常的城市建设新路子,形成了独特经验,值得我们学习借鉴。我们要认真学习贯彻党的十九届四中全会精神,结合“不忘初心、牢记使命”主题教育,在总结借鉴景德镇市城市建设经验基础上,结合本地实际,不断解放思想,创新理念,高起点、高标准推进高铁新区、棚户区改造、“两江”治理等工作,着力提升市民满意度和幸福指数,全面推进生态修复城市修补工作,切实改善人居环境,不断提高城市治理能力现代化水平,为市委今年工作上台阶、明年面貌大变样奠定坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>122</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>市政府考察团赴鹰潭学习考察招商引资等工作犹王莹率队徐鸿随同</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2019-12-13</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/zwdt3h/201912/240a937c014446a78e4f62b57612a67e.shtml</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['12月12日,市委副书记、市长犹率市政府考察团赴鹰潭学习考察招商引资等工作。鹰潭市委副书记、市长于秀明,鹰潭市委副书记黄万林陪同考察,市委常委、常务副市长徐鸿随同考察。', '考察团一行先后来到江西沃得尔科技公司、高新区智联小镇、江西欧菲炬能物联科技公司、江西鑫铂瑞科技公司、江西云泰铜业、江西九星铜业等地,详细了解公司生产经营、科技创新、市场前景等情况。今年以来,鹰潭市把招商引资工作作为“大干项目年”突破口,强化招商引资“头版头条”、重中之重地位,项目为王求发展,量质并举抓招商,快建快引推项目,取得阶段性成效。今年1到11月,鹰潭市新签约项目320个,合同投资额970.79亿元,其中亿元以上项目147个、10亿元以上项目43个、20亿元以上项目15个。在推进黑臭水体治理工作方面,鹰潭市采取控源头、疏内网、优生态等方法,多措并举,综合治理,取得积极效果。', '学习考察中,犹说,鹰潭市无论是在产业发展、项目建设,还是在城市建设、生态改善方面,都是新余的学习榜样和前进标杆。考察团一行通过身临其境感受到鹰潭市处处热火朝天的项目建设场面,领略鹰潭市在科技创新和智慧产业发展上散发的无穷魅力,更深切感受到鹰潭市围绕“大干项目年”部署,敢想敢干、锐意创新、狠抓落实的浓厚工作氛围。通过考察,我们很受启发,深受教育,倍受鼓舞,也让我市看到自身的差距和不足,明确了今后努力的方向。', '简要介绍我市招商引资特别是推进招大引强“5020”工程和产业发展等情况后,犹表示,鹰潭与新余两市位于江西的东西两翼,面积大小相当、人口数据相近、产业发展相关,在经济社会发展上有许多共同、共通之处。希望鹰潭在今后的发展中多向我市传授一些好经验、好做法,也希望两地能够在产业发展、项目建设和民生改善上加强合作、互通有无、共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>122</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>市林长办组织赴抚州等地考察学习林长制工作</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2019-12-17</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/201912/93c6da1ee71647129151557fe8486901.shtml</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['考察组深入抚州和景德镇两地的市县乡三级学习了当地实行“林长制”的成熟做法、经验和建设成果，查阅了有关“林长制”工作资料，并着重就“林长制”“一长两员”源头管理体系建设、林长责任落实、林长制智慧平台、专职护林员巡护标准化建设等方面先后与抚州市林业局、东乡县林业局、浮梁县林业局开展了深入探讨。', '通过此次考察学习，大家表示收获颇丰，对于指导下一步如何推进当地的林长制工作意义深远。市林长办同时给各地提出了要求，一是各县区林长办要认真学习和借鉴经验做法，找准切入点，勇于探索，积极行动，建立符合实际的“林长制”运行体系。二是要不断完善林长制工作，研究出专职护林员整合的最佳方案，切实提高护林员待遇，增强护林积极性。三是要着手开发林长制巡护信息系统，加强与当地联通等通讯公司的合作，尽早搭建林长制智慧平台，为深入推进林长制奠定坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>122</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>市委常委会召开会议传达学习省委书记刘奇来余考察时指示精神等蒋斌主持</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2019-10-14</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/201910/3328629dd9954718be98d58af986ab8e.shtml</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['10月11日,市委书记蒋斌主持召开八届市委第78次常委会会议,传达学习省委书记刘奇来余考察时指示精神和省委第四巡回指导组组长郭家同志在市、县(区)“不忘初心、牢记使命”主题教育巡回指导组座谈会上的讲话精神,听取全市“不忘初心、牢记使命”主题教育工作情况汇报。', '会议指出,刘奇书记此次来余调研指导,充分体现了省委和刘奇书记对新余的关心和厚爱,让我们备受鼓舞、倍感振奋。调研中刘奇书记对我市开展“不忘初心、牢记使命”主题教育、推进社会治理、产业转型升级、城乡环境整治等提出了明确要求,具有很强的针对性和指导性,各地各部门务必要认真学习、深刻领会,切实把思想和行动统一到党中央、省委决策部署以及刘奇书记要求上来,强化担当,真抓实干,凝心聚力推进我市各项事业高质量发展。', '会议强调,各地各部门要提高政治意识,强化政治担当,对标省委中心工作不动摇,认真贯彻落实新发展理念,紧盯转型发展,加大招商力度,强化“亩产论英雄”,加快淘汰落后产能,不断提升园区的质量效益和环境效益。要注重实效,坚持系统治理、依法治理、综合治理、源头治理,防范化解社会矛盾风险。对考察调研中发现的一些问题,各地各有关部门要站在讲政治的高度,各负其责,精准施策,狠抓落实,确保整改到位。', '会议指出,各地各部门要深入贯彻落实习近平总书记关于“不忘初心、牢记使命”主题教育的重要论述,特别是对做好第二批“不忘初心、牢记使命”主题教育强调的“四个注重”要求,认真学习省委第四巡回指导组的工作方法,牢记根本宗旨、坚守人民立场、增进人民感情,积极解决群众最急最忧最盼的紧迫问题,确保“不忘初心、牢记使命”主题教育取得实实在在的成效。要推动落实主体责任。常委同志要立标杆、作表率,结合分管工作,推动县(区)、单位主体责任落实到位。要防止基层单位“不忘初心、牢记使命”主题教育放松走空。县要抓乡,乡要抓村,园区要抓企业,要采取包村、包社区、挂点等形式来加强督促指导。大家务必要提高政治站位,全力做好中央巡回督导组来余督导准备工作,切实做好调研、访谈、市委常委调研成果交流会各项工作。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>122</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>新余市粮食局组团学习考察全省智慧粮库示范库建设</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2019-09-11</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/yldt/201909/4b955e51c845436db8a14a8cc7769d5f.shtml</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['为落实全省智慧粮库建设方式的转变形势，加快推进新余智慧粮库建设的进度，9月10日，新余市粮食局组织了由各县（区）粮食行政主管部门的分管领导、业务股长和粮食收储公司经理，新余粮油发展有限公司主要领导、业务部负责人参加的考察团一行20人奔赴省南良荆山库、省储永修库等地现场考察智慧粮库建设情况。考察团在示范库有关负责同志的安排下，认真参观了两个示范库智慧粮库的系统建设、设备功能、安装使用等情况，详细了解智慧粮库项目招投标、设备采购及技术指引等关键内容，对下一步推进我市智慧粮库升级改造起到了很好的借鉴和指导作用。（新余市粮食局 钟爱民）']</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>122</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>市行管委考察组赴福州学习考察放管服改革工作</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2019-08-09</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201908/f424eb9814424d4c8ce0de0dbfa9c4e5.shtml</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['为了学习和借鉴政务服务工作的先进经验,进一步贯彻落实国务院、省委、省政府关于“一门、一网、一次”相关改革工作部署要求,加快推进我市“进一扇门”改革进度,2019年7月31日至8月1日,市行管委党组书记、主任孙昕晖等一行四人,赴福州市政务服务大厅考察学习政务服务大厅建设及现场管理标准化等方面的成功经验。', '本次考察学习,考察组既参观了推进政务服务便利化,政务服务大厅智能化建设,软件、硬件配套建设情况,也明确了“进一扇门,办所有事”改革的决心和方向。下一步,我们将着力以群众和企业的需求为出发点,深化落实“进一扇门,办所有事”改革任务,推动我市政务服务工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>122</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>市行管委考察组赴上饶宜春等地行政服务中心学习考察放管服改革工作</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2019-08-09</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201908/30e861bdb49a4d40a7ee09e36f943de9.shtml</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['市行管委考察组赴上饶、宜春等地行政服务中心学习考察“放管服”改革工作 | 新余市政务服务中心', '为了学习和借鉴省内地市政务服务工作的先进经验,进一步贯彻落实国务院、省委、省政府关于“一门、一网、一次”相关改革工作部署要求,加快推进我市“进一扇门”改革进度,2019年8月6日、7日,市行管委党组书记、主任孙昕晖,市行管委党组成员、副主任龚凌,市公共资源交易中心副县级干部何炜华等一行五人,先后赴上饶市行政服务中心、宜春市行政服务中心考察学习“进一扇门”改革相关经验', '考察组在上饶市行政服务中心着重参观了大厅的智能化升级改造、自助上网服务以及24小时自助服务区建设等改革工作,在随后的座谈会上,双方就大厅智能化升级改造、大厅管理运行规范性建设等方面进行了深入交流。', '考察组在宜春市行政服务中心重点考察学习了大厅“进一扇门”相关改革、“一站式”服务平台建设、“一次不跑、一次办好”便民服务改革情况。在随后的座谈会上,宜春市行政审批局党组党组成员、副局长黄思贵就大厅总体运行情况及特色工作向大家做了详细汇报。双方业务负责人就大厅综合窗口建设、“一网通办”推进、“一窗式”综合受理等方面进行了深入交流。', '通过此次上饶和宜春等地政务大厅的学习考察交流,学习到了兄弟地市行政服务中心“放管服”改革中的先进经验,为我市行政审批服务中心提升改造工作提供了宝贵经验。下一步,我委将按照市政府办《关于在全市深入开展“进一扇门、办所有事”改革工作方案》精神及要求,继续深化“放管服”改革,对照《江西省政务服务中心建设运行规范(试行)》,抓紧大厅提升改造的规范建设,为建设“五型”政府打造“四最”发展环境助力,增强人民群众获得感幸福感。']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>122</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>市林业局传达学习习近平在江西考察时重要讲话精神</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/tpxw/2019-06/12/content_e66f13a0ed6b4d219be2ef9718969527.shtml</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['，市林业局召开局全体干部职工会、机关党支部会议和“主题党日”活动，学习习近平在江西考察时重要讲话精神以及省委、市委会议精神。市林业局党组书记、局长何国新主持会议，市林业局调研员宗晓云传达讲话精神及省委、市委会议精神。局机关全体干部职工、市林产局、市森林公安局班子成员参加会议。', '会议指出，时隔三年，习近平总书记再次亲临江西视察指导，主持召开推动中部地区崛起工作座谈会，听取省委省政府工作汇报并发表重要讲话，彰显了党的领袖对革命老区的赤子情怀、赤诚大爱，彰显了党中央推动革命老区发展、让老区人民过上更加幸福生活的坚定决心，给全省广大干部群众以亲切关怀、巨大鼓舞，为江西发展指明了前行方向、注入了澎湃动力，这是新时代江西发展历程中的重要里程碑，具有重大的政治意义和深远的历史意义。', '会议强调，学习好、宣传好、贯彻好习近平总书记系列重要讲话精神，是全局上下当前和今后一个时期的首要政治任务和头等大事。全局各级党组织要强化政治担当，加强组织领导，周密安排部署，狠抓工作落实，在全局迅速掀起学习宣传贯彻的热潮。', '会议指出，林业部门要更加奋发有为，以时不我待的精神，围绕实现林业高质量发展和打造“五型”政府目标，建设好、保护好、盘活好、利用好青山绿水，进一步做好治山理水、显山露水的文章，为巩固提升国家森林城市和全国绿化模范城市成果，打造美丽中国“江西样板”新余特色区，再铸新时代“工小美”新辉煌作出更新、更大的林业贡献。当前，要重点抓好以下几项工作：一是抓紧做好国家储备林项目的规划和编制，做好市政府与中国林科院合作项目的落实，二是扎实推进林长制工作、进一步完善乡村两级林长体系；三是抓好油茶产业发展、林下经济等林业产业发展；四是做好松材线虫病防控工作的考核、考评；五是做好森林资源二类调查工作；六是做好共产党员示范市工作，找准林业抓手，展现林业典型，使该项工作出亮点、出特色；七是做好扶贫工作，各科室（单位）要按照之前的扶贫方案扎实开展工作，出典型、出亮点；八是开展“挖典型、抓重点、补短板、强弱项”大调研活动，对全市油茶产业、乡村风景林、林业龙头企业带动林农脱贫、湿地保护等情况进行调查研究。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>122</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>市民政局局长曹卫红赴四川省攀枝花市学习考察养老服务工作</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2019-07-21</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://mzj.xinyu.gov.cn/mzj/zwdt/201907/e11dc2197a234340b26b46de6c495ada.shtml</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['为学习和借鉴四川省攀枝花市城乡养老工作先进经验，推动我市养老服务业进一步发展，7月17日至18日，市委常委、常务副市长徐鸿带队，副市长林愚、市民政局局长曹卫红、副局长张草根等一行五人，赴四川省攀枝花市对社会化养老改革、医养结合、社区嵌入式养老机构建设、居家养老服务等方面工作进行考察，先后深入到攀莲镇河西区悠然南山日间照料中心、海棠蓝湾健康小镇的合美家医养护理院、攀枝花东区金域阳光养护院、康和敏盛普达颐养护理院等4个日间照料中心（养老护理院）参观考察，详细了解攀枝花市对公建民营养老机构、民办养老机构、社区日间照料中心、居家养老服务等养老服务设施建设项目的运营模式、管理方式和扶持政策等。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>122</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>雄安新区来我市学习考察殡葬改革工作</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2019-06-26</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://mzj.xinyu.gov.cn/mzj/zwdt/2019-06/26/content_6609a876359145268e81335e151bf297.shtml</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['月24日，雄安新区公共服务局马俊达、安新县副县长郝顺清等学习考察团一行7人来我市学习考察殡葬改革工作，参观了分宜县南门山“三沿六区”整治现场。省民政厅副厅长张福庆、副巡视员赵大伟，新余市政府副市长林愚，新余市民政局局长曹卫红，分管领导李文，分宜县委常委刘小松，县民政局局长林志强等陪同调研。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>122</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>市国资委赴企业学习考察</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2019-06-12</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/zwdt/201906/25021381af8f4af48d8dc922a8ad02a6.shtml</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['为进一步规范完善我委出资监管企业领导人员履职待遇和业务支出的管理办法，防范企业领导人员的廉洁风险。6月10日上午，在市国资委党委委员、副主任袁晓莉带领下,我委监督检查科及市投控集团、市国资公司等监管企业有关负责人一行10余人到国电投江西电力有限公司江口水电厂、新余市保安服务有限公司学习考察。', '在国电投江西电力有限公司江口水电厂，相关部门负责人就企业负责人履职待遇、业务支出管理实施细则作了详细介绍。此后参加学习考察人员就制度的执行落实、年初预算的制定、商务接待的标准、对制度执行的监督等具体情况进行了广泛讨论交流。', '在市保安服务有限公司，相关部门负责人就费用报销制度基本要求、具体内容、安保云系统等方面对大家进行了详细的介绍。参加学习考察的人员就如何完善相关制度等方面进行了深入的讨论交流。', '学习考察结束时，袁晓莉副主任对参加此次学习考察的监管企业有关负责人提出要求：一是希望大家高度重视，认真总结此次学习的成果、体会，借鉴两个单位的经验，结合企业自身实际研究制定或完善本企业领导人员履职待遇和业务支出管理办法；二是制定的管理办法一定要有针对性、可操作性；三是要抓好制度的贯彻落实到位。下一步，监督检查科将针对企业的管理办法执行情况进行专项检查。（监督检查科 邹文华 黄俊）']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>122</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>市水利局学习习近平在江西考察并主持召开推动中部地区崛起工作座谈会精神</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2019-06-07</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/201906/5776230038d5445fa93695963e6eba4b.shtml</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['市水利局学习习近平在江西考察并主持召开推动中部地区崛起工作座谈会精神 _ 水利要闻 _ 新余市水利局', '为了深入学习习近平新时代中国特色社会主义思想,践行其精髓,2019年6月6日下午,市水利局组织全体干部职工学习习近平在江西考察并主持召开推动中部地区崛起工作座谈会精神。会议由办公室主任胡国平组织学习座谈会精神。', '2019年5月21日下午,习近平在南昌主持召开推动中部地区崛起工作座谈会。在听取大家发言后,习近平发表重要讲话。他强调,推动中部地区崛起是党中央作出的重要决策。做好中部地区崛起工作,对实现全面建成小康社会奋斗目标、开启我国社会主义现代化建设新征程具有十分重要的意义。当前,中部地区崛起势头正劲,中部地区发展大有可为。要紧扣高质量发展要求,乘势而上,扎实工作,推动中部地区崛起再上新台阶。其座谈会主要精神:一是习近平提出四个“不能忘记":不能忘记党的初心和使命,不能忘记革命理想和革命宗旨,不能忘记革命先辈、先烈,不能忘记革命老区的父老乡亲。二是打造美丽中国“江西样板"习近平的五个强调:要推动经济高质量发展,要推进改革开放走深走实,要推进农业农村现代化,要切实保障和改善民生,推进社会治理创新,要推进红色基因传承。', '会后,大家一致表示,要以习近平新时代中国特色社会主义思想为指导,按照习近平总书记的要求,"不忘初心、牢记使命",勇于担当作为,为新余水利事业作出应有的贡献。（局办公室 张燕平）']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>122</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>市体育局组织全体干部职工学习习近平总书记在江西考察时重要讲话精神</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2019-06-06</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://tyj.xinyu.gov.cn/tyj/tpxw/201906/93c7df7c288b4980b65d28f92f8c9876.shtml</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['市体育局组织全体干部职工学习习近平总书记在江西考察时重要讲话精神 _ 图说体育 _ 新余市体育局', '年6月5日上午，市体育局组织全体干部职工学习习近平总书记在江西考察时重要讲话精神。通过深入学习，大家一致感受到习近平总书记再次亲临江西视察指导，彰显了党的领袖对革命老区的赤子情怀、赤诚大爱，彰显了党中央推动革命老区发展、让老区人民过上更加幸福生活的坚定决心。会上，市体育局党组书记黄立新强调要把学习贯彻习近平总书记重要讲话精神与学习贯彻习近平新时代中国特色社会主义思想结合起来， 全体党员干部要进一步树牢', '。同时会上还传达了中央纪委公开曝光六起违反中央八项规定精神问题、全市组织工作会议精神和“不忘初心、牢记使命”主题教育工作会议精神。黄立新指出，要充分认识主题教育的重要意义，要提高政治站位，增强工作的自觉性，要结合工作实际抓好落实，要严格党风廉政建设。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>122</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>市自然资源局党组成员副局长何爱斌带队赴上饶考察学习</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2019-06-03</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://bnr.xinyu.gov.cn/xyszrzyj/zrdt/201906/055f36bfaa8d4e1fa8a6e70f5b22d4cc.shtml</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['为积极稳妥推进我市城乡建设用地增减挂工作，5月28日至29日，市局党组成员、副局长何爱斌带队赴上饶市横峰县、弋阳县学习考察城乡建设用地增减挂钩破解秀美乡村建设资金难题经验。', '考察学习组一行分别听取了横峰县和弋阳县近年来城乡建设用地增减挂钩开展情况。双方就城乡建设用地增减挂钩实施中的资金投入、管理模式、后期管护、交易使用等热点问题进行了交流讨论。', '座谈会后，考察组实地考察了两县部分增减挂钩在建和实施后的项目。考察组成员纷纷表示横峰县和弋阳县的很多经验做法值得我们学习和借鉴，将结合新余实际做好我市城乡建设用地增减挂钩工作，为秀美乡村建设自然资源部门应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>122</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>我委考察组赴浙江丽水考察学习中介超市工作</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2019-05-27</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201905/04d1163998564d9fb9044154cb8cb727.shtml</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['5月21日至23日,市行管委副主任付娟等一行三人,赴浙江省丽水市审管办学习考察“中介超市”建设管理先进经验。', '考察组参观了丽水市行政服务大厅,认真听取了丽水中介超市的运行情况介绍,现场观看了该市中介超市网络服务平台入驻、选取、管理等各方面功能演示。考察组还就中介超市平台与行政审批系统对接工作,与丽水市审管办进行了深入交流。', '丽水市中介超市的先进经验给了我们很多启发,下一步,我们将充分吸收运用好这些成功经验,推动我市中介超市工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>122</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>市行管委考察组赴深圳学习考察一门一网一次放管服改革工作</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2019-06-04</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201906/b13e8e22e4a44f039ea4dcb02a7a5be5.shtml</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['市行管委考察组赴深圳学习考察“一门、一网、一次”放管服改革工作 | 新余市政务服务中心', '为了学习和借鉴政务服务工作的先进经验,进一步贯彻落实国务院、省委、省政府关于“一门、一网、一次”相关改革工作部署要求,加快推进我市“进一扇门”改革进度,2019年5月29日至30日,市行管委党组成员、副主任龚凌,市公共资源交易中心副县级干部何炜华等一行五人,先后赴深圳市政务服务大厅,南山区、福田区政务服务大厅考察学习“进一扇门”相关改革经验。', '考察组在深圳市南山区政务服务大厅着重参观了大厅的智能化大厅建设运用情况、大厅管理运行模式、企业开办等“一件事”改革工作,在随后的座谈会上还深入探讨了南山区政务服务“一号办、一窗办、一网办、一次办、阳光办”等五个100%模式经验。', '考察组在深圳市福田区政务服务大厅着重参观了大厅政务自助服务终端机推广运用情况,随后大厅负责人详细介绍了大厅引入香港管理学会的OSM现场管理规范运用、福田区集中行政许可权改革试点工作经验。在座谈会上,双方就探索智慧服务“掌上办”、网点服务“就近办”、自助服务“全天办”、容缺服务“马上办”的四办服务进行了深入的交流。', '考察组在深圳市政务服务大厅重点考察学习了市级大厅“进一扇门”相关改革、建设项目并联审批及“一窗式”综合受理改革情况。大厅负责人详细介绍了市级大厅2018年升级装修改造、经费控制情况,东、西厅分区设置情况,综合窗口及网上审批系统运用经验,午间错时延时服务及大厅设置人性化、管理便捷化等成功经验。', '通过本次考察学习,既学习了政务服务管理的先进经验,也明确了“一门、一网、一次”改革的决心和方向。下一步,我们将着力以群众和企业的需求为出发点,深化落实“一门、一网、一次”改革任务,切实解决企业群众办事多头跑、多地跑的问题,为企业和群众提供更加优质、高效、便利的服务。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>122</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>上饶市民政局来我市学习考察</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2019-04-28</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://mzj.xinyu.gov.cn/mzj/zwdt/201904/ecb7ad2fe3304cd9a848d0e051ea4138.shtml</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['月25日，上饶市民政局局长傅福泉和上饶各县区民政局长、业务科长等一行30余人来我市学习考察养老服务体系建设工作，考察组参观了新余市养老福利中心、居家和社区养老智慧指挥平台和乐晚晴居家养老服务中心。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>122</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>宗晓云带队到省林业局汇报学习智慧林业建设和信息宣传工作</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2019-03-11</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/201903/fde98d7966c44c958417de2b3fc14349.shtml</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['宗晓云带队到省林业局汇报学习“智慧林业”建设和信息宣传工作 _ 市林业要闻 _ 新余市林业局', '，市林业局调研员宗晓云率办公室相关同志一行到省林业局考察学习“智慧林业”建设和信息宣传工作。省林业局信息宣传中心副主任朱兵、刘小虎及相关人员陪同参加座谈交流。', '首先，考察组一行来到省林业局林业信息化展示中心，实地观看了省林业局林业信息化成果，并进行座谈交流。围绕林业网站建设、版面设计、栏目设置、内容保障等方面进行了深入探讨和交流。', '考察组表示，省林业局林业信息化建设取得了丰硕成果，经验丰富、平台架构设计合理，值得学习和借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>122</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>共青城市行政审批局到我中心市场监管窗口考察学习</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2019-04-10</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201904/87113d9716bd413baf2d4aa2dbd8ecc2.shtml</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['3月29日,共青城市行政审批局党组成员、副局长胡华一行4人到市场监管窗口考察学习。市市场监管局党委委员李晓丰陪同考察。', '考察组一行参观了窗口和企业自助服务区,详细了解企业自助服务区建设、“以照含证、集约办理”网络平台运行等情况。', '考察组针对新余市“以照含证、集约办理”改革与窗口工作人员进行了广泛深入的交流。今年年初,省市场监管局决定在新余改革实践的基础上,推出“以照含证、集约办理”改革试点,并将新余市纳入改革试点工作范围,新余市成为全省第一个设区市试点单位。考察组认为,新余市在全省率先推进市场监管内部“证照合一”改革,改革成果得到省政府有关领导的高度肯定,同时还表示,此次跨市学习交流收获颇丰,希望今后能够多多加强业务交流,达到共同进步的目的。', '、集约办理”改革与窗口工作人员进行了广泛深入的交流。今年年初,省市场监管局决定在新余改革实践的基础上,推出“以照含证、集约办理”改革试点,并将新余市纳入改革试点工作范围,新余市成为全省第一个设区市试点单位。考察组认为,新余市在全省率先推进市场监管内部“证照合一”改革,改革成果得到省政府有关领导的高度肯定,同时还表示,此次跨市学习交流收获颇丰,希望今后能够多多加强业务交流,达到共同进步的目的。']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>122</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>市行管委党组书记主任孙昕晖带队赴浙江衢州义乌学习考察</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2019-03-14</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201903/964814cfb9bd4657818b1e9cc5098ea3.shtml</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['为进一步打造“全省办事最方便”城市,稳步推进“放管服”改革试点工作,2019年3月13日下午,委党组书记、主任孙昕晖,党组成员、副主任龚凌带领业务科室人员,会同市信息化中心、市不动产登记局等有关单位领导到浙江省衢州市政务服务中心学习考察“最多跑一次”、互联网+“政务服务”、“无差别审批”等工作。', '2019年3月14日上午,委党组书记、主任孙昕晖,党组成员、副主任龚凌带领业务科室人员,会同市信息化中心、市不动产登记局等有关单位领导到浙江省义乌市行政服务中心学习考察“最多跑一次”、一网通办、建设项目并联审批等工作。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>122</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>新余市民政局局长曹卫红率队赴高安市学习考察殡葬改革工作</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2019-03-21</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://mzj.xinyu.gov.cn/mzj/zwdt/201903/184182d29eb24b6ead1a8db822327f54.shtml</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['为学习借鉴其他地区殡葬改革工作先进经验及做法，进一步推动我市殡葬改革工作。3月19日,新余市民政局曹卫红局长带领县区民政局局长、分管局长等有关同志一行12人，到高安市学习考察殡葬改革工作。', '曹局长一行在宜春市民政局和高安市民政局相关领导的陪同下，先后来到高安市祥符公墓和瑞州陵园进行实地考察。在座谈会上，考察组一行认真听取了两地在推进殡葬改革工作先进经验的情况介绍，详细了解在推进殡葬改革过程中采取的主要措施、注意事项和工作难点。', '经验和做法值得学习借鉴。通过此次学习考察，将对我市下一阶段殡葬改革工作起到积极推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>122</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>山东省日照市国土资源局东港分局来我分局学习考察</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2019-02-19</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://xyhdz.xinyu.gov.cn/C4370/bumendt/2019-02/19/content_12ac2866d40741a3a03c9638595e4b30.shtml</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['月18日上午，山东省日照市国土资源局东港分局党组成员、副局长马德强率队共7人来到我分局进行考察交流。此次考察重点为学习了解高新区及马洪办近年来对于农村闲散土地盘活利用方面的先进经验。', '我分局局长肖桂平同志进行了接待，并结合工作实际，介绍了高新区及马洪办关于农村闲散土地盘活利用方面的经验和做法。', '双方就农村闲散土地盘活利用方面工作中涉及的疑点难点问题及一些历史遗留问题的处理进行了交流，深入交换了意见。并前往马洪办事处实地了解宅基地有偿使用、有序退出的先进做法及“拆三房，建三园”的开展情况。', '此次兄弟单位的学习考察，双方在工作方法上取长补短。对方负责人表示此次考察受益匪浅，并希望在今后继续加强沟通交流，促使各自的国土业务工作质量和效率更上一层楼。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>122</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>吉安市市场监管局到我中心市场监管窗口考察学习</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2019-01-17</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201901/1ce7944a276c4671a59305c1f2999a9d.shtml</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['1月11日,吉安市市场监管局党组成员、副局长胡小勇一行6人到我中心市场监管窗口考察学习。市市场监管局党委委员、总工程师李晓丰,党委委员、食品药品安全总监徐巧云陪同考察。', '考察组一行参观了我中心市场监管窗口和企业自助服务区,并与市市场监管局相关人员开展了交流座谈。双方人员联系2018年我市“放管服”改革工作中行政审批便民化改革、“证照分离”改革试点、市场监管内部“证照合一”、企业信用监管、个体工商户“两证整合”等重点工作,进行了广泛深入的交流。考察组认为,新余市市场监管窗口“放管服”改革亮点很多,多项改革创新工作赢得了社会的广泛赞誉和上级部门的充分认可;考察学习很有收获,希望加强交流学习,促进共同进步。', '市市场监管局行政审批服务科、企业信用科、个体科、网络经营监管科负责人参加了座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>122</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>市政府第次常务会议召开传达学习易炼红在新余考察调研讲话精神犹王莹主持</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2018-11-23</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://xfj.xinyu.gov.cn/xfj/zwdt/201811/5ea7a546f8634bf0b5ee776533923091.shtml</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['市政府第54次常务会议召开传达学习易炼红在新余考察调研讲话精神犹王莹主持 | 新余市信访局', '11月22日,市委副书记、市长犹主持召开市政府第54次常务会议,会议传达学习了省委副书记、省长易炼红在新余考察调研时的讲话精神等。', '会议指出,易炼红在我市考察时对我市的相关工作所取得的成绩给予了充分肯定。他强调,要从更高层次贯彻落实习近平总书记对江西工作重要要求,按照省委十四届六次全会决策部署,以“五型”政府建设为抓手,创新发展理念,练就过硬本领,大力推动产业发展、提升城市品质,加快实现高质量跨越式发展,持续增进民生福祉。会议指出,易炼红十分关注仙女湖的发展,要求仙女湖景区深入贯彻习近平生态文明思想,践行绿色发展理念,加强水污染治理、水生态修复、水资源保护,切实改善湖区水环境。要打造好爱情文化,把全国乃至全世界的爱情故事集中在这里展现出来,让仙女湖成为一个集爱情大成之地,成为每对情侣的爱情朝圣之地,成为人们一生一世必来之地。要充分挖掘爱情题材、展示文化底蕴,推动文化与旅游深度融合,在仙女湖演绎演示好最经典、最精彩的爱情故事,唱响“仙女下凡之地、人间爱情之源”品牌,全力打造旅游产业高地。会议指出,易炼红在分宜调研时,对分宜及我市经济社会发展提出了新要求。在产业发展方面,要充分发挥特色优势,坚持项目为王,聚焦产业发展,强化科技创新,努力掌握核心技术,延伸产业链条,推动产业迈向中高端、不断做优做强做大。在民生事业方面,要让农村老人特别是孤寡老人安享晚年,享受到改革开放的发展成果;要把农村的医疗卫生等公共服务搞好,让群众生活得更加方便、舒适;要大力提升农村公共服务水平,办好民生实事,让更多群众享受到优质的公共服务。在政务服务方面,要将所有政务服务事项都集中到行政服务中心来办理,努力做到应搬尽搬;要深入推进“一网通办”和“一次不跑”改革,推动更多事项实现“一次不跑”和“只跑一次”;要明确所有的行政服务窗口“无否决权”,不为不办找理由、只为办好想办法,千方百计帮助企业和群众办成事、办好事;要打通信息孤岛,共享数据资源,推动“赣服通”向基层延伸,让更多事项做到“掌上办”“异地办”“随时办”,加快实现政务服务“一机在手、走遍江西”,为企业和群众办事营造“分外宜人之地”。在城市建设管理方面,要进一步提升城市规划、建设和管理水平,完善和优化城市功能,提升城市品质,塑造城市风貌,把城市建设得更加精致精美,让分外宜人地更加“宜居”“宜业”“宜游”。(下转3版)', '在“五型”政府建设方面,各级政府及部门要以“五型”政府建设为抓手,练就敢担当的宽肩膀、善成事的真本领,坚持“不为不办找理由、只为办好想办法”,确保“事事马上办、人人钉钉子、个个敢担当”。要严守政治纪律和规矩,构建“亲”“清”新型政商关系,做到能力过硬、作风过硬、廉洁过硬,加快推动全省转型创新发展。', '会议研究通过了《关于进一步加快新余市建城区黑臭水体整治工作方案》。会议认为,城市水体环境状况直接关系人居环境质量和群众切身利益,全面整治我市建成区黑臭水体,是加快补齐城市环境基础设施短板,让人民群众拥有更多获得感和幸福感的现实要求。会议强调,建成区黑臭水体整治工作要以群众的满意度为首要标准,以黑臭水体整治为着力点,全面摸排,科学识别,综合整治,加强督导考核,强化长效管理。各有关单位要根据自身职责,团结协作、攻坚克难,确保黑臭水体治理工作取得实实在在的成效。', '会议研究通过了《新余市开展货运车辆超限超载集中治理工作方案》。会议认为,开展货运车辆超限超载集中治理,是消除我市进出城区道路货运车辆超限超载现象,保障进出城区道路安全畅通,防止和减少道路交通事故,优化生态环境、维护人民群众生命财产安全的现实需要。会议强调,要从路面治理、源头治理、科技治理、信用治超、实行联合处罚等五个方面全方位开展货运车辆超限超载集中治理,切实有效保障进出城区道路安全,防止和减少交通事故的发生,为人民群众提供一个安全有序的道路环境。各有关单位要严格按照方案要求,根据自身职责抓好落实,确保治理工作取得实效。']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>122</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>铜鼓县考察团到分宜学习考察交流放管服改革工作</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2018-11-16</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2018-11/16/content_7b77d429aabe48a7b8f96e4c4f24c302.shtml</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['11月14日,铜鼓县副县长时水莲率队到我县学习交流考察“放管服”改革和建设工程项目优化审批工作经验,县委常委、常务副县长夏侯云陪同考察和主持交流座谈会。', '在座谈会上,夏侯云向考察团简要介绍了我县“放管服”改革工作情况。他指出,分宜在“放管服”推进工作中,呈现了全县上下各级各部门形成共识、政府大力投入、各有关部门敢于担当、凡事从小事做起四大亮点，我县结合自身实际，采取多项措施，全力推进“放管服”改革工作，确保全县“放管服”改革工作落到实处。', '会上，县经管委等相关职能单位还就县委、县政府总体安排部署、部门协调推进以及“放管服”具体实施运作情况进行了详细介绍，总结了具体推进工作的做法和经验，客观分析了当前“放管服”改革存在阻力及对策。', '近年来，我县积极转变政府职能，主动探索、努力创新，强力推进“一窗式”行政审批制度和“一次不跑”改革，从简政放权到放管结合，定推进制度、列权力清单、建信息平台，大刀阔斧缩减40%以上的行政审批事项，提升45%的办事时限，真正实现为企业“松绑”，为全县的“放管服”改革提供强劲动力。', '在分宜县行政服务中心一楼大厅，考察组一行实地了解了我县交通违法一窗式办理、“身份证自助拍照”等情况。', '在二楼办公区域，考察组一行走进社保工作人员办公室，从窗口物品摆放、办公用品的整理和管线开关排放等方面直观感受OSM现场标准化管理工作。', '参观过程中，考察组一行边走边看，并不时地向身边的工作人员交流咨询，对分宜县在“最多跑一次”改革中的创新做法给予肯定和赞赏。', '考察团对我县放管服改革、建设工程项目优化审批工作给予高度评价，认为我县在规范行政审批事项、推进行政审批制度改革，以及公共资源交易平台建设等方面，创新思路，积极探索，积累了很多值得借鉴学习的经验。考察团表示，要通过此次考察，进一步强化两地之间特别是深化“放管服”改革方面的沟通交流，共同促进政务服务平台建设、管理和运行工作再上新台阶。', '分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>122</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>市林业局调研组赴赣州市学习考察油茶产业发展情况</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2018-10-18</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/201810/137ecde30f4f47b894ccb8e7bbea81be.shtml</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['亿元。考察组一行与赣州市林业局相关部门就油茶品种、经营模式、管护技术等进行了深入交流学习，实地考察了上犹县强旺油茶油茶开发有限公司合溪油茶基地。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>122</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>鄱阳县考察学习团前来我市行政服务中心考察学习</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2018-09-20</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://fgw.xinyu.gov.cn/fgw/zwdt/201809/d116fa2b8975484f8c7e7f26e62a0109.shtml</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['考察团一行走访了解审批服务大厅各窗口办理流程、服务事项等内容，随后各窗口首席代表出席交流座谈会。会上市行管委领导对建设项目“一窗受理”综合受理情况进行了简要介绍，不动产登记负责人重点介绍了我市不动产登记“一窗式”工作的先进经验做法。', '考察团成员县发改的同志与我委窗口首席代表就投资项目“应上尽上”在线审批平台使用情况做了工作交流，就我委政府投资项目具体审批流程和材料“容缺”制度的做法进行了咨询，最后对我委介绍的审批情况给予了认同肯定，并对我委作出的详尽解答表示了感谢。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>122</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>安徽省新闻宣传系统来余学习考察融媒体改革工作郭力根出席座谈会</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2018-10-26</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/201810/9dbdd3c26fb44c719ed8965ae46de8a2.shtml</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['10月25日,安徽省委宣传部组织全省新闻宣传系统负责人60余人来我市学习考察融媒体改革工作。市委常委、宣传部部长郭力根出席座谈会并作经验交流。安徽广播电视台副台长邵晓晖、安徽新媒体集团副总经理许海龙参加考察并出席会议。', '郭力根向考察团介绍说,我市以县区、市级媒体为对象,以机构、内容、技术和渠道为路径,分类分级,全面推进市县乡村媒体四级融合、县区媒体机构融合、市级媒体内部融合,与省级媒体达成技术平台融合,与中央级媒体等进行传播平台融合,已形成媒体融合发展“四级跳”新局面。', '就如何做好融媒体改革工作,郭力根向考察团分享了“新余经验”。他说,持续加强并扩大党的媒体和宣传阵地建设,是融媒体改革工作的出发点和落脚点。融媒体改革成功与否,离不开机构设置的科学化,既要注重融媒体的产业属性,又要坚持党的统一领导。要重视对融媒体新闻人才的培养与任用,为新闻从业者营造良好的成长环境。要放宽视野,兼顾多方,以融媒体中心为核心,对接接入“信息中心”“政务平台”和“新时代文明实践中心”等政务服务功能,推进“新闻+政务+服务”,让融合释放更多可能。', '会上,分宜县、新余日报社、市广播电视台分别就融媒体改革工作进行了介绍。会前,考察团一行还深入新余市融媒体中心、分宜县融媒体中心实地参观学习,并同相关人员进行了深度交流。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>122</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>上饶铅山县考察组赴我县学习村镇污水处理工作</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2018-09-11</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/wmcj/2018-09/11/content_b388d227cd1b477bab76ff1e9edc2868.shtml</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['9月6日，以上饶市铅山县政府副县长李德生为组长的铅山县考察组赴我县考察学习村镇污水处理工作。', '在县政府办主任科员万爱荣，县住建局局长卢峰、副局长袁分生的陪同下，考察组先后参观了钤山镇污水处理厂及下田村污水处理设施，并就如何推进农村生活污水治理工作进行了深入交流。', '考察组成员基本由铅山县建设局、城管局、乡镇主要领导组成，在分宜县住建局副局长袁分生的介绍下，他们着重了解了集镇污水处理厂和污水管网的建设成本、运维投入、处理工艺及运行成效。', '我县自2016年被住建部确定为全国100个农村生活污水治理示范县（市、区）以来，通过编制专项规划、多方筹措项目资金、积极探索建设模式、加强项目调度等举措，全力推动农村生活污水治理工作,为改善农村人居环境、提升乡村振兴作出了积极贡献。', '铅山县考察组对我县村镇污水处理工作给予了高度肯定，并表示我县的村镇污水处理项目建设走在全省前列，成效斐然，具有很强的学习和借鉴意义。', '分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>122</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>吉安市厕所革命考察团到我市考察学习</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2018-08-27</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://zjw.xinyu.gov.cn/zjw/zwdt/2018-08/27/content_c7b0b0c4fb8243dea51fc8716869c378.shtml</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['，以吉安市城管局局长刘治平为组长的吉安市“厕所革命”考察团到我市考察“厕所革命”工作。委总工程师傅建群陪同考察。委主任张晓明参加了双方座谈。', '考察团先后参观了渝水区罗坊镇农村公厕及农村户厕、新钢联天公司装配式公厕、暨阳广场公厕、分宜县双林镇农村公厕等。在随后的座谈会上，傅建群从资源利用，资金渠道，“六个把关”等方面介绍了我市农村公厕建设工作的经验做法。市农村公厕领导小组办公室、市城管局、渝水区等相关部门负责同志就推进农村公厕、城区公厕、农村户厕建设方面工作与考察团进行了深入交流。', '吉安考察团对我市农村公厕、城区公厕的工作给予高度赞誉，认为新余市“厕所革命”工作全省先行先试，成效初显，具有很强的学习和借鉴意义。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>122</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>黔南州考察团来我市学习考察犹王莹陪同</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2018-08-24</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://xfj.xinyu.gov.cn/xfj/zwdt/201808/6e1624830df84b1d821daaa2dbd7d349.shtml</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['8月22日,黔南州委常委、州委秘书长瓦标龙率考察团来到我市分宜县和仙女湖区学习考察工业经济发展和旅游工作。市委副书记、市长犹陪同考察。', '黔南州考察团一行先后来到江西国燕高新材料、新余绿洲橡胶、江西科能新能源、江西雅保锂业等地考察,详细了解企业生产经营状况,项目建设情况和市场发展前景。考察团对分宜工业经济发展表示肯定,认为分宜县立足产业基础和区位优势,推动主导产业膨胀规模,工业经济呈现结构不断优化、优势产业加速聚集、质量效益稳步提升的良好局面。考察团表示,分宜的工业经济发展措施有力、成效显著,有很多好经验值得黔南州学习借鉴,希望两地今后能在多领域加强交流学习。', '在仙女湖区,黔南州考察团考察了仙女湖游客服务中心,并登上爱情岛等景点,领略仙女湖独具魅力的湖光山色。考察团认为仙女湖区在旅游谋划、旅游文化挖掘推介等方面做了不少工作,取得不错的成效,今后一定要学习借鉴好仙女湖区旅游发展的好经验、好做法,进一步挖掘旅游文化内涵,助推黔南旅游工作加速发展。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>122</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>分宜县粮食局赴樟树市考察学习</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2018-07-19</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/yldt/201807/ae4c50965cdf4b6c8e78db06a8e56f3f.shtml</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['为进一步做好我县粮食流通监督检查和“退城进郊”工作，7月18日，我局局长带领全体班子成员赴樟树市粮食局进行了实地考察学习。', '座谈会上，考察组一行听取了樟树市粮食局陈局长就粮食行政执法、执法大队建设和“退城进郊”等工作的经验和做法，随后对两个“退城进郊”后正式使用的仓库进行实地考察参观。（分宜县粮食局 袁江莉）']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>122</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>关于对组团外出学习考察活动加强纪律监督的规定</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2018-07-30</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://wjw.xinyu.gov.cn/wjw/jjjc/201807/8f9e4bf3bbad4311912022f5d510de28.shtml</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['关于对组团外出学习考察活动加强纪律监督的规定 _ 纪检监察 _ 新余市卫生健康委员会', '为进一步加强市直卫计系统党风廉政建设，加强对市直卫计系统干部组团外出学习、考察、培训、参会、招商等活动的纪律监督，根据中央、省、市有关规定精神，结合卫计系统实际，制定本规定。', '本规定所指的组团是指成员人数为三人及三人以上的外出团队，外出指的是离开本市行政区划。', '组团团队应有一名带队领导并指定一名临时纪律监督员(临时纪律监督员原则上由中共党员担任）。带队领导对活动过程中全体成员遵守纪律情况负有领导责任，临时纪律监督员负有监督责任。', '团队外出前除按正常程序履行审批手续外，还必须填写《外出学习考察事前报告单》向纪检监察部门备案。县级领导和直属单位主要领导带队的，向驻委纪检组备案；其他人员带队的，按照干部管理权限，向本单位纪检监察部门备案。', '活动结束后五个工作日内，组团团队应填写《外出学习考察事后报告单》，将活动过程中遵守纪律情况向上述备案部门书面报告，事前、事后报告单由临时纪律监督员填写。', '团队外出期间，如发生违纪违法行为，除追究当事人的责任外，还要按照有关规定对带队领导和临时纪律监督员问责。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>122</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>吉安党政代表团来我市学习考察胡世忠王少玄率队蒋斌犹王莹李新华黄文辉分别陪同</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2018-07-06</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://xfj.xinyu.gov.cn/xfj/zwdt/201807/cfa0f48e1179478f92fab659776085d0.shtml</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['吉安党政代表团来我市学习考察 胡世忠王少玄率队蒋斌犹王莹李新华黄文辉分别陪同 | 新余市信访局', '7月5日,吉安市委书记胡世忠,吉安市委副书记、市长王少玄率吉安党政代表团来我市学习考察高铁新区建设、新宜吉六县跨行政区转型合作试验区建设、“党建+”等工作。市委书记蒋斌,市委副书记、市长犹,市委常委、市委秘书长、统战部部长李新华,市委常委、政法委书记黄文辉分别陪同。', '高铁新区控制面积61平方公里,新区以新余北站为核心建设,是集交通枢纽、商务商业、旅游度假、文化会展、休闲娱乐、理想居住等功能元素为一体的城市新核心,项目完全建成后,将形成“一廊三区四轴多核”的结构。在高铁新区广场,考察团一行详细了解我市高铁新区拆迁安置工作情况,认真听取我市高铁新区总体规划、产业布局和开发建设等情况介绍。', '环城路是我市复市以来投资最大的城建交通工程,项目建成后可从根本上解决货运车辆穿城而过所带来的市区环境污染,交通安全、道路破损等一系列问题,同时将建成城区“环形+放射性”道路交通网络,连接上高县、新干线、峡江县、樟树市等地。在环城路项目指挥部,考察团对我市关注民生、积极打造新宜吉六县跨行政区转型合作试验区“半小时经济圈”做法表示赞赏,考察团表示,新宜吉六县开展跨行政区转型合作,具备良好基础,是顺应时代需要的具体实践,要多加强沟通联系,打破行政区域壁垒,着力推进设施联通、产业互通、贸易畅通、资金融通、民生相通,促进六县竞合发展、融合发展。', '湖陂管理处以农村七项重点工作为抓手,大力开展“拆三房、建三园”和城乡供水一体化工作,按照医养结合理念,打造了“党建+颐养之家”和晓康诊所,为居民构筑了一个集吃、住、医、养、游等功能于一体的“城市后花园”。新余水北商会是我省首家乡镇商会,2016年被中央授予“先进基层党组织”称号。来到湖陂管理处和水北商会两地,考察团一行边走边看,详细了解我市在“党建+”工作方面的成功经验。', '在余期间,考察团一行还来到仙女湖区欢乐大世界、凯光亚热带植物园等地实地考察旅游发展情况。', '考察中,考察团表示,此次学习考察深受启发、收获满满。回去后,将把新余好的经验和做法认真总结归纳,转化为推动吉安经济社会发展的好思路。同时,希望两地继续加强深度交流,持续加强新宜吉六县开展跨行政区转型合作,推动两市共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>122</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>宜春市人社局来我局学习考察多险合一系统先进经验</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2018-05-10</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://rsj.xinyu.gov.cn/rsj/zwdt/201805/b15d038595104e4ab251405d19a78b0c.shtml</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['宜春市人社局来我局学习考察“多险合一”系统先进经验 | 新余市人力资源和社会保障局', '近日,宜春市人社局组织其社保、医保等业务经办机构20余人来我局学习考察我市“多险合一”系统方面的先进经验,双方就有关问题进行了座谈交流。', '座谈会上,新余市人社局副局长邹小云就我市“多险合一”系统建设方面总体情况进行了介绍,并就本地区社保经办工作中的亮点工作、有效措施和遇到的问题进行了探讨交流。宜春市人社局副局长余晓峰对我市“多险合一”系统建设予以高度评价,认为很值得借鉴。座谈会结束后,大家纷纷表示,这次座谈会交流了工作经验,研讨了突出问题,对推动两市今后的社保经办工作起到了积极作用。(何阳洋)']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>122</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>陕西省考察团来我县学习考察媒体融合改革工作</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2018-06-14</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2018-06/14/content_c8fbe83ee798437bad3521d6baa7143b.shtml</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['6月13日，陕西省委宣传部副部长李彬率队到我县考察融媒体改革工作。江西广播电视台总编辑、党委副书记马玉玲，江西广电网络公司党委副书记、副董事长、总经理刘发金，市委常委、宣传部部长郭力根，县委常委、宣传部部长陈智明陪同。', '考察团一行先后参观学习了县融媒体中心改革创新、融汇发展工作流程展板、400平米综合演播大厅、中央厨房新闻采访部、编辑制作部，详细了解硬件设施和部门设置，以及媒体如何融合、业态如何创新、人员如何配备等情况。工作人员通过现场直播、现场采集、编辑、撰稿、上传、发稿，向考察团演示了融媒体“中央厨房”的操作流程，展示了新型新闻产品报道效率高、传播速率快的生产方式。', '座谈会上，考察团听取县委宣传部和县融媒体中心负责人关于媒体融合情况汇报，并通过座谈了解全市融媒体改革工作情况。', '郭力根在致辞中说，我市融媒体改革试点工作于2016年5月份正式启动。目前，一县一区，一报一台全部完成了融媒体机构改革，成立了融媒体中心。具体以县区、市级媒体为对象，以机构、内容、技术和渠道为路径，分类分级，全面推进县区媒体机构融合、市级媒体内部融合，与省级媒体达成技术平台融合，与中央级媒体和新浪微博、腾讯微信等进行传播平台融合，形成媒体融合发展“四级跳”局面。', '在实地考察和听取情况介绍后，陕西省委宣传部考察团对我县融媒体中心建设和媒体融合发展给予充分肯定。李彬说，分宜县融媒体建设发展敏感性强，许多做法和经验都走在全国前列，取得了令人瞩目的成效，给其他地市提供了很多值得学习的宝贵经验。陕西省委宣传部将认真学习借鉴，明确媒体融合工作的技术路线和发展路线，按照模式复制推广，推进媒体融合工作快速发展。同时，李彬诚挚邀请与会人员到陕西考察交流，进一步增进沟通，探讨合作，加强两地联动，共同为探索媒体融合发展交流经验，分享成果。', '分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>122</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>市行管委党组书记主任何国新主任一行赴徐州市衢州市考察学习一窗受理集成服务等行政审批服务改革工作</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2018-07-02</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://xgw.xinyu.gov.cn/xysxgw/zwdt/201807/777d08c990b149808c1940f3b8789527.shtml</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['市行管委党组书记、主任何国新主任一行赴徐州市、衢州市考察、学习“一窗受理、集成服务”等行政审批服务改革工作 | 新余市政务服务中心', '市行管委党组书记、主任何国新主任一行赴徐州市、衢州市考察、学习“一窗受理、集成服务”等行政审批服务改革工作', '为积极落实市委、市政府“放管服”改革工作要求,学习先进典型,6月26日,市行管委党组书记、主任何国新携相关单位分管领导、科室负责人等一行,赴徐州市、衢州市考察学习“一窗受理、集成服务”等行政审批服务改革工作。', '在考察中,重点学习了政务服务24小时智能化自助服务工作及“一窗受理、集成服务”的运行机制及具体做法:通过设立主题式综合窗口,率先实现“开办企业3个工作日完成”;不动产登记5个工作日内完成;工业建设项目施工许可50个工作日完成。', '何国新主任在徐州市政务服务中心和衢州市行政服务中心考察后,与一行参加考察学习的相关单位分管领导、科室负责人进行了简短的学习经验交流座谈,座谈会上大家积极分享了考察学习体会,认识到了与先进地市“放管服”改革工作方面的差距。', '何国新主任在座谈会上强调,要将学习的先进经验转化为工作的内部动力,同时结合各单位的实际,从细节入手,从群众的痛点、累点、难点问题入手,积极地应用技术手段,更广泛地激发基层的服务意识和创新意识,有计划有步骤地落实好行政审批服务改革工作。']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>122</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>学习借鉴先进经验加强合作实现共赢曾萍赴贵州重庆考察招商</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2018-04-24</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://xfj.xinyu.gov.cn/xfj/zwdt/201804/ea53a3197ecf459395b61e77df7dd2c6.shtml</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['4月16日-20日,市委副书记曾萍率队赴贵州贵阳、遵义和重庆荣昌区考察大数据综合试验区和美丽乡村建设工作,走访贵阳货车帮科技有限公司等10余家企业。', '在贵阳,曾萍先后参观贵州大数据综合试验区展示中心、大数据国家工程实验室、贵阳大数据交易所,走访贵阳货车帮科技有限公司、贵安新区贝格大数据服务有限公司、贵澳实业等企业,详细了解大数据运用、区块数据收集和当地投资环境等问题,并与相关人员座谈交流。曾萍说,贵州大数据综合试验区是首个国家级大数据综合试验区,贵州的数字经济走在全国前列,新余可以借鉴贵州大数据建设经验,加快实体经济和数字经济融合发展,加强我市新能源领域的大数据运用,推动新能源大数据交易中心建设。', '在遵义,曾萍先后考察湄潭县偏岩镇农村人居环境整治点、兴隆镇龙凤村田家沟,播州区枫香镇花茂村“四在农家、美丽乡村”升级示范点,赤水市复兴镇张家湾新农村建设示范点等,详细了解遵义美丽乡村建设经验做法。曾萍说,遵义发展产业壮大村级经济、农村建房规划“一图一表一说明”和旧房拆除中“留住乡愁”等做法值得新余学习借鉴,在实施乡村振兴战略过程中,要加快产业发展,做好乡村规划,充分调动村民参与建设美丽乡村的积极性。在赤水市,曾萍考察了赤水经济开发区高新技术产业园,走访了贵州金睿建设控股有限公司,就渝水区与该公司的产业园建设合作项目进行座谈,要求渝水区加强对接,力争项目早日落地。', '在重庆市荣昌区,曾萍先后走访德南麻纺织有限公司等企业,考察荣昌夏布非遗文化园、中国夏布小镇项目,要求分宜县借鉴中国夏布小镇经验,加强两地合作,大力推进麻纺小镇建设。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>122</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>新干县创业贷款担保中心来我市学习考察</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2018-05-16</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://rsj.xinyu.gov.cn/rsj/zwdt/201805/cd3e8cbf6d1a47ea8b64c3edc8a2cbf8.shtml</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['5月8日,吉安市新干县创业贷款担保中心刘金生、副主任李四儿一行4人来我市学习考察《创业担保贷款财政贴息核算系统》。', '在座谈会上,新余市创业贷款担保中心主任廖蓉向考察团介绍了贴息系统的功能,工程师李悌详细讲解系统数据初始化、使用方法,并指导新干县工作人员现场操作生成2018年第1季度贴息报表数据。随后,双方就创业担保贷款工作中新政策的执行、逾期贷款的催缴、与银行的合作等方面进行了经验交流。', '渝水区创业贷款担保中心主任张洪余、分宜县创业贷款担保中心主任邓柏林等相关人员参加了座谈会。(廖蓉)']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>122</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>全省水文化建设骨干赴山东省考察学习</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2017-12-16</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/201712/6028f7a7e57e463b9d645cb849b50633.shtml</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['为进一步推进我省水文化建设工作,学习借鉴外省先进经验,12月13-16日,在厅副巡视员黎文杰的带领下,来自全省各设区市水利(水务)局、赣州市水保局和厅直各单位分管领导和水文化建设骨干人员、2016年《江西水文化》优秀特约通讯员共55人赴山东省考察学习。', '考察组先后实地考察了国家水情教育基地——东平县戴村坝、国家级水利风景区——天平湖、济南水利展览馆、济南市玉符河综合治理工程、济南国家湿地、黑虎泉泉水直饮、趵突泉泉水文化保护等水文化建设、水资源配置和调度、生态修复与保护等工作现场,并与山东省水利厅相关负责人进行深入探讨。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>122</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>共青城市来我县学习考察融媒体融合</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2017-12-22</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2017-12/22/content_37b508ee69574dc783e776ab9fc363d2.shtml</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['12月20日，共青城市委副书记杨龙兴带领共青城市委宣传部一行来到我县，学习考察媒体融合发展的做法与经验。县委常委、宣传部长陈智明陪同。', '考察团一行先后参观了县融媒体中心创建工作步骤与成立后业务工作流程展板、400米综合演播大厅，中央厨房新闻采访部、编辑制作部，详细了解中心硬件设施和部门设置，以及媒体如何融合、业态如何创新、人员如何配备等情况。工作人员通过现场采集、拍摄、编辑、撰稿、上传、发稿，向考察团演示了融媒体“中央厨房”的操作流程，展示了新型新闻产品报道效率高、传播速率快的生产方式。', '在随后的座谈会上，陈智明向考察团一行重点介绍了我县融媒体中心改革进程和改革经验，并就地方新闻单位改革发展情况、媒体融合发展措施和成效等相互探讨交流,一致认为在新形势下，要多发挥新媒体作用，集中优势资源深度推进媒体融合，实现新媒体与传统媒体融为一体、齐唱共鸣。', '通过学习考察，大家看到了彼此改革的经验和做法，也发现了自身存在的不足，纷纷表示要相互学习对方好经验、好做法，迎难而上，全力以赴做大做强媒体融合，发挥舆论引导作用。', '分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>122</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>江西水利考察团赴贵州考察学习</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2017-11-22</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/tpxw/2017-11/22/content_8677f74cf9254bc4b7b261a89468c814.shtml</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['11月17日—11月20日,罗小云厅长率江西水利系统考察团赴贵州省考察学习水利工作,重点考察学习贵州省在水利投融资、水利建设管理和水生态文明建设等方面的经验。', '厅领导吴信根、吴义泉、蔡勇、姚毅臣、黎文杰、袁国荣,省鄱建办领导纪伟涛、罗传彬和省政府办公厅有关同志参加考察学习。贵州省水利厅厅长王扬、副厅长鲁红卫、总工程师李晋,省水投集团公司总经理樊新中、省水文水资源局党委书记曾信波,省水利厅、省水投集团公司相关处室和部门负责同志参加座谈。贵州省水利厅总工程师李晋、省水投集团公司总会计师李明金陪同考察。', '座谈会上,贵州省水利厅有关负责同志就贵州水利改革发展基本情况,水利投融资工作、水利建设与管理情况、生态文明建设等方面作了详细的介绍,双方就有关工作进行了深入交流。贵州省在水利投融资方面,发挥规划引领和指导保障作用,努力拓宽水利投融资渠道,创新投融资方式,形成公共财政、信贷融资和社会投入“三驾马车”共同推进水利基础设施建设的格局,2017年度全省水利投入达到390亿元。在水利工程建设管理中,大力推行代建制、设计采购总承包(EPC)、项目管理总承包(PMC)及项目管理承包(PM)等模式,转变监管方式,采用信息化完善监管手段,取得较好成效。在生态文明建设中,亮点纷呈,在框架体系、考核、投入、管理等方面都卓有成效,尤其是设立“河长日”并举办由四套班子组织参与的“保护母亲河,河长大巡河”6.18生态主题活动。', '座谈会后,江西水利考察团一行先后实地调研贵州水利水电职业技术学院,安顺市平坝区朱桥水库、飞虎山山区现代水利、安顺市污水处理厂,黔中水利枢纽平寨水库、龙场渡槽,贵安新区月亮湖、中心大道、星湖云社区海绵城市建设等情况。每到一处,考察团成员认真听取讲解,详细了解有关做法和经验。', '11月18日晚,在厅党委举办的党的十九大精神专题学习班上,参加考察的各设区市、省直管试点县水利(水务)局局长畅谈了学习调研体会。罗小云厅长就学习借鉴贵州水利工作经验,进一步做好下一步我省水利工作提出了要求。他指出,要以党的十九大精神为引领,切实把思想和行动统一到党的十九大精神上来,把力量凝集到水利事业的各项工作任务上来,以学习贯彻党的十九大精神为强大动力,学习借鉴贵州水利工作经验,进一步坚持好、完善好、深化好厅党委提出的水利工作思路、方向、目标和举措,奋力推动新时代江西水利发展事业迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>122</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>我市赴异地学习考察三拆三建等工作</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2018-01-31</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/201801/5d212c70d4a74a1ab9f863a3759d6b10.shtml</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['为更好地推动我市农村工作,1月25日~26日,副市长林愚带队,组织市直有关部门、县(区)有关负责人赴上饶市万年县、横峰县学习考察新农村建设、农村建房整治、宅基地改革等经验。', '考察团一行先后来到横峰县亭子上乡、莲荷乡上畈村和梧桐畈以及万年县齐埠乡星明村、青云镇祠堂湾、石镇横山村等地考察。每到一处,考察团都被鲜明的改良徽派风格的房屋效果、优美整洁的村庄环境、如诗如画的乡村美景所深深吸引。大家边走边看,认真听取了相关负责人对各村建设情况介绍,详细了解他们在推进秀美乡村建设中的资金筹措、规划编制和“三拆三建”、农村宅基地改革等工作的具体措施,真切感受当地呈现出的新气象。大家纷纷表示,横峰、万年两县的秀美乡村建设工作规划大手笔,投入大气魄,成效显著,令人赞叹。', '在随后召开的座谈会上,考察团首先对横峰县和万年县提供参观学习的平台表示感谢。考察团认为,横峰县和万年县在秀美乡村建设工作上领导干部决心大、组织有力、发动广泛,机制健全、建设标准高且接地气、效果显著,相关部门要认真借鉴横峰县和万年县好的机制和做法,回去后要消化融入,借他山之石,快速行动,创造性地开展工作,以此次考察为契机,大力推进我市农业农村工作取得新进展。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>122</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>市林业局调研组到湖南省永州市学习考察油茶产业发展</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2017-10-17</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/201710/33edff1e8e16491d908ce33d5ae40613.shtml</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['市林业局调研组到湖南省永州市学习考察油茶产业发展 _ 市林业要闻 _ 新余市林业局', '湖南省属全国油茶重点产区，发展历史悠久，油茶产业起步早，永州市是湖南省四大重点林区之一，', '年被国家林业局确定为全国油茶产业发展示范市。考察组一行先后考察了永州市永丰农林科技开发有限公司良种油茶采穗圃、永州伊园油茶种植专业合作社油茶种植基地、湖南林之神林韵油茶科技发展有限公司油茶加工生产线、湖南天惠油茶开发有限公司油茶苗林一体化种植及油茶林套种罗汉果基地，并就油茶品种、经营模式、经营理念、经营思路、经营技术、产品加工及销售等进行了深入交流学习。', '本次学习考察，大家普遍感到受益匪浅，纷纷表示回去后将结合本地实际，借鉴学习湖南永州的先进种植技术和经营管理经验，进一步推动我市油茶产业更快更好地发展。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>122</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>渝水区水务局到江苏学习考察农业水价综合改革等工作</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2017-09-25</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/201709/b971fdc9b43f48ee9f2eb55a8e7b91c5.shtml</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['为学习借鉴外省市先进工作经验,加快推进渝水区农业水价综合改革进程,切实提高我区高效节水等工作水平,9月20日,区水务局党组成员陈红根带队,组织农水负责人及施工单位等相关人员赴江苏省宿迁市宿豫区学习考察高效节水、农业水价综合改革以及河长制等工作的先进技术和成功经验。', '考察组一行先后参观了来龙灌区农业水价综合改革推广项目区、玉皇农民用水协会及灌区信息化管理系统,并与宿豫区水务局领导及相关负责同志进行深入的交流。座谈会上,宿豫区水务局详细介绍了开展农业水价综合改革试点的工作流程及取得的成效。', '宿豫区水价改革作为全国水价改革试点率先通过了国家检查组的考核验收,宿豫区2013年以来,紧扣改革目标,突出试点特色,围绕“设施配套完整化、协会运行规范化、产权明晰责任化、定额管理标准化、奖补激励精细化”五大机制建设,开始农业水价综合改革试点,在水价行政审批、分类用水计价、节水奖励基金筹集、精准补贴方法等方面形成了很多可复制、可推广的典型经验。', '之后查看了宿豫区河长制工作落实情况以及2016年宿豫区高效节水灌溉项目现场,了解试验示范区在高效节水灌溉领域的经验。此次学习考察,开阔了我们的视野,受到了启发,为下一步推进我区农业水价综合改革、高效节水灌溉项目及河长制建设等方面具有指导意义。(渝水区水务局 张颖宇)']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>122</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>新余市国资委前往抚州上饶鹰潭等地开展学习考察</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2017-07-25</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/zwdt/201707/3aa95bbbd06b480990ad6487bd6d98d4.shtml</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['新余市国资委前往抚州、上饶、鹰潭等地开展学习考察 | 新余市国有资产监督管理委员会', '为学习借鉴兄弟地市的成功做法，进一步推动我市国资国企改革和监管工作，推进央企对接、省企对接和招商引资工作，市国资委领导易勇、雷蕾、刘佺翔带领相关科室负责人到抚州、上饶、鹰潭等地市，实地学习考察他们在国资监管、国资国企改革、监管企业干部及薪酬管理、央企（省企）对接，招商引资等方面的成功经验。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>122</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>衡阳市国资委来我市学习考察国有企业社区分离移交工作</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2017-09-05</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/tpxw/201709/ff444dd505cd4aaa8aa4aba654b076f8.shtml</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['衡阳市国资委来我市学习考察国有企业社区分离移交工作 _ 图片新闻 _ 新余市国有资产监督管理委员会', '8月24日，湖南省衡阳市国资委陈书伟及中核25公司社区总部于晓华一行来我市考察，主要学习我市剥离国有企业办社会职能方面的成功经验。', '我委分管领导曾卓全程负责接待，并陪同到新钢街道办、铁山棚户区及大唐新电公司社区进行实地考察学习，交流讨论我市国有企业社区分离移交工作的具体实施步骤。', '最后，衡阳市国资委在我委会议室与新余市房管局、国网赣西公司等接收单位分管领导进行面对面的交流，双方就改造接收的技术标准及费用进行讨论，同时衡阳市国资委也分享了其省属国有企业“三供一业”分离移交工作的一些经验做法。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>122</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>九江市数字城管考察团来我市学习考察</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2017-07-04</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://cgj.xinyu.gov.cn/cgj/cgyw/201707/1070d7fb680f4acc92539d9729eb04dd.shtml</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['2月8号，以九江市市政府副秘书长、市城管执法局局长曹俊良为首的九江市数字城管考察团一行来我市数字化城管监督指挥中心学习考察。考察团参观了监督指挥大厅，现场观看了数字城管系统操作流程演示。在随后的座谈会上，我局局党组成员、副调研员章海清就数字城管建设的意义和我市数字化城管系统建设情况进行了介绍。考察团认为我市结合实际，在实践中探索出了一条具有新余特色的数字化城管之路，许多经验方法值得借鉴和学习。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>122</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>新余市水务局赴峡江水利枢纽考察学习</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2017-08-28</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/201708/eeeaf64ec78343c2abf59c6ebf7d8a60.shtml</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['为全面推进我市水利工程标准化管理工作,2017年8月17日,市水务局副局长刘国新同志带队赴峡江水利枢纽进行考察学习。现场参观了峡江水利枢纽的鱼道、电站厂房、泄洪闸、船闸等建筑物及相关标准化管理工作。', '峡江水利枢纽工程是鄱阳湖生态经济区建设的重点水利工程之一。大坝位于赣江中游峡江老县城巴邱镇上游4公里处,是赣江上的一座大型控制性水利枢纽工程,为中国规模最大的水电站之一。', '该工程以防洪、发电为主,兼顾航运、灌溉等。总库容16.7亿立方米,防洪库容9亿立方米,工程建成后,可将南昌市防洪标准从100年一遇提高到200年一遇,使赣东大堤的防洪标准从50年一遇提高到100年一遇。从水库引水,可为峡江、新干两县及樟树市18个乡镇的33万亩耕地提供可靠的灌溉水源。(市水务局建管科 傅梨)', '枢纽电站装机容量36万千瓦,年平均发电量11.42亿千瓦时,将有效缓解我省电力系统用电的紧张状况。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>122</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>肖秋根局长赴上海学习考察垃圾分类和城管执法进社区</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2017-07-04</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://cgj.xinyu.gov.cn/cgj/tpxw/201707/7bbb36a2138247e391fa0051f675c8cb.shtml</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['肖秋根局长赴上海学习考察垃圾分类和城管执法进社区 _ 图片新闻 _ 新余市城市管理局', '6月25至27日，肖秋根局长在省住建厅喻家凯副巡视员率队下，与南昌、宜春、抚州、九江等地市城管执法局的主要负责人及省厅城建处相关人员一行到上海学习考察垃圾分类和城管执法进社区工作。', '学习考察组首先在上海市绿化市容局就垃圾分类管理和城管执法进社区工作进行了座谈和学习交流，然后到闵行区、虹口区绿化市容局进行实地学习考察，实地学习了闵行区古美镇垃圾分类试点示范社区的管理经验；实地参观了吴泾镇有机垃圾处置场等。（局办）']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>122</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>赴北京市学习考察报告</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2017-05-15</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://wxj.xinyu.gov.cn/wxj/zwdt/201705/7fc19b02cd8e422eb76809025f6b82b4.shtml</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['至4月1日，我局由局党委书记、局长刘献忠带队一行5人赴北京市学习考察文化创意产业，学习北京市各类文化创意企业的先进经验和好的做法。现将考察情况汇报如下：', '北京三六三教育科技股份有限公司。该公司是一家集科技、教育、娱乐为一体的新生代儿童教育品牌公司，拥有经验丰富的导演策划和技术人员，并联合一线教育专家，共同秉承“创造快乐新境界”的企业文化，在寓教于乐的道路上不断探寻求索，在少儿动漫安全教育线上线下行业中处全国领先地位。', '北京麒麟网文化股份有限公司（简称“麒麟游戏”） 。该公司成立于2007年7月，是一家综合性文化娱乐企业。麒麟游戏拥有扎实的核心技术，以及多个经典游戏品牌。自成立以来，麒麟游戏一直强调创新理念的游戏设计和弘扬民族文化精神，走在国产原创游戏的潮流前端。3月30日，主打产品《成吉思汗》Ⅱ正式上线，每月可以为公司增加5000万元的营业收入。', '、北京每日视界影视动画股份有限公司。每日视界创始于1997年，中国最早的数字图像制作公司，国内最具竞争力的影视动画公司，持有国家动漫企业认证。具体业务包括：三维动画电影（电视）、影视特效全案、多媒体数字影像、广告制作等多个方面，作品多次在国内外获奖，并两次被评为中国十大CG制作公司，行业中具有领先地位。', '北京世纪元通网络科技有限公司（二次元界）。北京世纪元通网络科技有限公司成立于2014年初，注册资本1000万元，主要投资、开发和运营中国动漫产业链互联网生态圈------二次元界网。二次元界是动画、漫画界的Uber,该项目为中国创意产业联盟动画产业中心重点扶持项目，是中国首个原创ACG（动画、漫画、游戏）重度垂直网络平台。', '北京世纪元通网络科技有限公司成立于2014年初，注册资本1000万元，主要投资、开发和运营中国动漫产业链互联网生态圈------二次元界网。', '动画、漫画界的Uber,该项目为中国创意产业联盟动画产业中心重点扶持项目，是中国首个原创ACG（动画、漫画、游戏）重度垂直网络平台。', '此次的学习交流工作活动，内容丰富、全面、具体，针对性强、效果明显突出。五天的考察学习,虽然时间很短，但对考察组受益匪浅。', '通过这次学习考察，我们学习了北京市发展文化产业的先进经验，并开阔了视野。我们将用这次学习考察收获到的先进经验，用动漫、手游等创意服务文化产业实体经济，注重粉丝的力量，创造性地发展我市文化产业，力争实现我市文化产业跨越式发展。', '、创新是文化创意企业发展之本。北京三六三教育科技股份有限公司就是抓住少儿安全动漫教育之新，使企业快速发展，从几个人的小公司发展为200左右的文创团队，占据了全国少儿安全动漫教育主要市场。', '、“接地气”是文化创意企业发展之基。北京世纪元通网络科技有限公司（二次元界）、北京每日视界影视动画股份有限公司两家文创企业就是分别抓住各自领域的“地气”，使企业快速成长，在行业领先的前提下，并取得可观的经济效益。', '、“民族文化创意”是文化创意发展之路。北京麒麟网文化股份有限公司自成立以来，麒麟游戏一直强调“民族文化创意”理念的游戏设计和弘扬民族文化精神，走在民族文化原创游戏的潮流前端，以民族英雄“成吉思汗”为题材，进行深度游戏开发创意，探索出了一条走“民族文化创意”行业高速发展之路。', '通过几天的学习考察，认识到各类文化企业的春天已经到来，文化消费市场潜力无穷，我们要善于抓住和把握。', '、我市的文化＋旅游领域发展应抓住“创新”之本。我市的“七仙女”文化旅游发展，可以创新营销方式，任意把7个家庭夫妇组成7个“仙女”，7个“董郎”的旅游营销模式或者任意把7个女性及7个男性组成7个“仙女”，7个“董郎” 营销模式在全国旅游市场进行营销推广，在很大程度上能解决仙女湖景区旅游人口不足的问题。', '、我市的文化创意产业发展应抓住“接地气”之基。可以抓住市民周末、假期休闲旅游旺盛的优势，植入市民喜闻乐道的文化元素，促进文化＋旅游的融合，助推文化产业的跨越式发展。', '、我市的文化创意产业发展应走“特色”之路。我市是国家新能源科技创新及城市设计示范城市，我们在文化创意产业发展上要抓住这个特色，借鉴二次元界的做法，对我市的新能源科技、城市设计IP进行二次开发，做长创意IP产业链，为我市创造最大的经济效益。“IP”就是核心竞争力，我市经济要健康高速发展就应该抓住这个“牛鼻子”。', '江西省新余市文化广电新闻出版旅游（版权）局主办 地址：新余市渝水区仰天东大道69号']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>122</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>渝水区考察团到新干县学习考察禁毒工作</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2017-05-05</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.yushui.gov.cn/yushui/zzgzzl/2017-05/05/content_21b7a9696fa74a488a284de21a49998c.shtml</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['\u200b\u200b\u200b一周天气展望：预计下周我区以晴热高温天气为主。具体预报如下：周一到周四晴天多云，偏南风3到4级，气温28到37度；周五多云；周六到周日晴天多云。温馨提示：下周我区以晴热高温天气为主，水电供应将进入高峰，各地需做好水电调度等能源保障工作，注意做好防暑降温工作，户外活动避开高温时段。（渝水区气象局2024年7月14日16时发布）', '毒品是全社会的公害。为进一步扩大禁毒宣传教育社会覆盖面，打赢禁毒工作这场人民战争，摘除“全省禁毒工作重点关注县（区）”这个帽子，5月4日，渝水区禁毒工作学习考察团在区委常委、政法委书记周斌，区政府副区长、渝水公安分局局长朱东飞的率领下，前往新干县考察学习禁毒工作。新干县委常委、政法委书记邹友根，新干县政府副县长、公安局长李春平陪同考察。 周斌一行首先听取了新干县委、县政府相关领导对禁毒工作的成果介绍，尔后前往新干中学禁毒宣传教育展览室、金川镇湄湘社区戒毒康复管理工作站、新干县禁毒教育基地等地，现场了解禁毒教育基地建设和社区禁毒工作站建设情况，实地察看禁毒资料和宣传视频，全面了解新干县在禁毒方面工作开展情况。 周斌表示，通过此次学习考察，拓宽了视野，看到了差距，获得了启示，明确了目标，新干县在推进禁毒工作采取的做法和经验值得我们学习和借鉴，具有很强的可复制性，我们要进一步理清思路、正视差距、坚持问题导向，有针对性地开展禁毒工作，更好地推动渝水区禁毒工作的开展，同时，要以这次考察学习为契机，认真学习总结兄弟县的工作经验，结合渝水实际，精准发力，综合施策，举渝水之力，打好禁毒这场人民战争。', '毒品是全社会的公害。为进一步扩大禁毒宣传教育社会覆盖面，打赢禁毒工作这场人民战争，摘除“全省禁毒工作重点关注县（区）”这个帽子，5月4日，渝水区禁毒工作学习考察团在区委常委、政法委书记周斌，区政府副区长、渝水公安分局局长朱东飞的率领下，前往新干县考察学习禁毒工作。新干县委常委、政法委书记邹友根，新干县政府副县长、公安局长李春平陪同考察。', '周斌一行首先听取了新干县委、县政府相关领导对禁毒工作的成果介绍，尔后前往新干中学禁毒宣传教育展览室、金川镇湄湘社区戒毒康复管理工作站、新干县禁毒教育基地等地，现场了解禁毒教育基地建设和社区禁毒工作站建设情况，实地察看禁毒资料和宣传视频，全面了解新干县在禁毒方面工作开展情况。', '周斌表示，通过此次学习考察，拓宽了视野，看到了差距，获得了启示，明确了目标，新干县在推进禁毒工作采取的做法和经验值得我们学习和借鉴，具有很强的可复制性，我们要进一步理清思路、正视差距、坚持问题导向，有针对性地开展禁毒工作，更好地推动渝水区禁毒工作的开展，同时，要以这次考察学习为契机，认真学习总结兄弟县的工作经验，结合渝水实际，精准发力，综合施策，举渝水之力，打好禁毒这场人民战争。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>122</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>市发改委组织到浙江江苏开发区学习考察</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2018-03-26</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://fgw.xinyu.gov.cn/fgw/tpxw/201803/67537087a89b46f1840c6be3610914cb.shtml</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['为全面落实省委、省政府《关于促进开发区改革和创新发展实施意见》，3月20至22日，由我委邹建春副调研员带队，市发改委、市工信委、市商务局、市科技局、市编委办、市人社局、市国土局、市行管委等市直8部门和新余高新区管委会相关负责同志组成的新余市开发区改革创新学习考察小组，到浙江莫干山国家高新技术产业开发区，江苏昆山经济技术开发区、昆山高新技术产业开发区、苏州工业园区进行了学习考察。学习考察的主要内容有工业用地“标准地”改革、创优营商环境、招商引资、土地清理利用、产业集聚、项目推进、赋权、干部人事薪酬、金融扶持、绩效考核等改革创新发展经验。通过经验介绍、相互交流、参观等对江浙开发区改革创新发展有了进一步了解。（胡二根）']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>122</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>市国资委赴景德镇市淮南市考察学习</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2018-04-08</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/tpxw/201804/c2f966c8f1114cbc8eb1528662569135.shtml</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['市国资委赴景德镇市、淮南市考察学习 _ 图片新闻 _ 新余市国有资产监督管理委员会', '为借鉴外省市先进经验，更好地盘活国有资产，3月27日--29日，由市国资委、市城管局、市投控集团共同组成考察小组，赴景德镇市、淮南市考察户外广告、停车场、地下管廊建设、管理、经营的先进经验。考察组采取实地现场参观、座谈会等形式了解相关情况，对今后我市的相关资产管理提供了宝贵经验。（产权管理科 陈军）']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>122</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>市发改委组织到南昌学习考察开发区改革创新经验</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2018-03-09</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://fgw.xinyu.gov.cn/fgw/tpxw/201803/3af0dc5537b14c56aa336724782f1af2.shtml</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['市发改委组织到南昌学习考察开发区改革创新经验 _ 图片新闻 _ 新余市发展和改革委员会', '为全面落实省委、省政府《关于促进开发区改革和创新发展实施意见》，3月6日，由我委邹建春副调研员牵头，市工信委、市商务局、市编委办、市人社局、市国土局、市政府金融办等市直7部门和新余高新区管委会相关负责同志组成的市开发区改革创新学习考察小组，到', '南昌国家高新区、南昌经济技术开发区进行了学习考察。学习考察的主要内容为创优营商环境、招商引资、土地清理利用、产业发展、项目推进、开发区赋权、干部人事薪酬制度、金融扶持、绩效考核等开发区改革创新发展典型经验。通过座谈会听取了经验介绍，相互交流进一步了解了好经验好做法获，收到了良好效果。（胡二根）']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>122</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>吉水县卫计考察团一行来渝水区学习考察</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2018-04-08</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://wjw.xinyu.gov.cn/wjw/tpxw/201804/4f2aec486e8847638609fbb51f84dad4.shtml</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['人到渝水区学习考察基层卫计工作。考察团一行深入良山镇夏莲村、垣下村、白沙村卫生计生服务室、良山镇中心卫生院、城北街道沙土社区卫生服务中心进行实地参观考察。']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>122</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>赣州市河长办来我区考察交流学习河长制工作</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2018-03-24</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/hhc/201803/e4b5b876825a4540ae4d23c81738f46c.shtml</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['3月23日,由赣州市河长办及相关县(区)组成的考察团来我区就河长制、消灭劣V类水工作、水生态文明建设进行考察交流学习。市、区两级河长办相关负责同志陪同考察。', '考察团一行先后深入我区城北办、良山镇、罗坊镇,实地参观考察了孔目江86号排污口、下保水生态文明村、罗坊镇正合沼气发电工程项目。每到一处,考察团都详细听取相关负责人介绍,仔细询问我区河长制工作的具体经验做法。', '通过此次考察交流学习,彼此了解了兄弟单位工作开展情况与典型经验做法,增强了兄弟单位的工作感情,开拓了视野和思路,有助于下步工作更好开展。(渝水区水务局 倪乐峰)']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>122</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>渝水区科技局赴海宁市学习考察科技工作</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2018-03-07</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://kjj.xinyu.gov.cn/kjj/zwdt/201803/73af89e4c3fd40a79381f3406923b990.shtml</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['为进一步推动渝水区科技创新发展，完善渝水区科技云平台建设，3月5日—6日，渝水区谢淘副区长及科技局局长王娟一行，赴浙江省海宁市学习考察科技创新工作。 6日上午， 我区一行与海宁市科技局进行调研座谈。会上，海宁市科技局对我区一行的到来表示热烈欢迎，并介绍了海宁科技工作好的做法与经验，重点介绍了海宁市网上技术交易平台——淘科技，详细介绍了淘科技的运行情况及运营效果。王娟局长表示渝水区科技云平台2017年才正式上线运行，还处于摸索阶段，许多功能还不够完善，这次的学习考察受益匪浅，希望在今后的工作中多多交流学习。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>122</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>市林业局组织人员到新干学习考察枳壳种植情况</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2018-03-08</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/201803/596ac602c83341149df39f1f3194d694.shtml</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['考察组在“商洲枳壳”原产地的新干县了解了该县枳壳、黄栀子等森林中药材种植情况，并实地察看了二个良种育苗基地和一个种植山场。', '通过考察学习，了解了先进县在发展森林中药材方面的成功经验，拓宽了产业发展思路，为下一步新余进一步发展森林中药材产业奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>122</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>哈尔滨市河长制工作考察组来考察学习</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2018-02-03</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/201802/4d4d234b7b42490bab4ded665c331dd1.shtml</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['1月30-31日,由哈尔滨市河长制工作处处长刘鸿雁带队的考察组一行13人来我市考察河长制工作。局党组书记、局长郭瑞新会见了考察组一行,市水务局副局长、市河长办副主任龚铁军陪同。', '在余期间,考察组参观了我市河长制挂图作战工作法,听取了新余市河长制工作情况介绍,交流了工作中的一些心得体会。(市河长办 何绍辉)']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>122</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>市国信担保公司党支部主题党日深入下保村学习考察党建工作</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2017-04-14</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/qydt/201704/8d2b2e7b03f4423180e15282fb84a467.shtml</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['市国信担保公司党支部“主题党日”深入下保村学习考察党建+工作 _ 企业动态 _ 新余市国有资产监督管理委员会', '（通讯员：胡兰波 龚永青）为践行“两学一做”，深入扎实开展4月份主题党日活动，4月7日下午，由市国资委副调研员、市国信担保公司党支部书记兼董事长胡兰波同志率领公司党员十余人来到江西省生态文化村—良山镇下保中心村参观考察党建+工作情况。', '在下保村党支部副书记陶海根同志的陪同下，全体党员兴致勃勃地来到下保村文化展示馆参观了该村新农村建设成果展和农耕器具展，深入了解下保村的历史文化。在参观过程中，党员们还认真细致地考察了该村以展示社会主义核心价值观为主题的文化墙、下保暴动旧址和党建活动室。每到一处，公司党员都认真倾听，边走边问，与该村干部就开展党建工作及新农村建设等方面进行深入交流，全面了解该村党建和新农村发展规划情况。活动最后胡兰波带领全体党员走访了下保村“颐养之家”，党员们奉献个人爱心，自发为“颐养之家”的老人们送上了大米、食用油和面条，表达了市国信担保公司党员们关爱老人的一片心意。', '胡兰波表示，公司党支部组织这次活动非常有意义，下保村能取得今日的成绩得益于该村党支部基层党建工作做的好， 筑牢了基层战斗堡垒，使当地农民群众切身感受到了“党建+新农村建设”带来的巨大变化。我们作为国有政府性担保机构党员，要始终牢记党的优良传统和作风，树立责任意识，强化担当精神；要深刻贯彻《中共中央、国务院关于深化国有企业改革的指导意见》精神，充分发挥国有企业基层党组织战斗堡垒作用和共产党员先锋模范作用，在平时担保业务工作中要兢兢业业，尽心尽力，坚决杜绝人情担保，为做大做强担保公司，助推我市经济社会发展发挥党员应有作用。']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>122</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>新余市产业集群公共服务平台调研组赴永康宁波泉州学习考察</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2017-04-25</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://gxw.xinyu.gov.cn/gxw/tpxw/201704/b1f0f83ed742432faf6c43a62332c22a.shtml</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['新余市产业集群公共服务平台调研组赴永康、宁波、泉州学习考察 _ 图片新闻 _ 新余市工业和信息化局', '4月17日，市政协副主席邹基云带队赴永康、宁波、泉州学习考察当地产业集群公共服务平台相关情况，市政协文史委、市宣传部、市工信委等部门陪同学习考察。', '考察组一行分别走访了永康市物流中心、永康市模具产业园、浙江省五金科技创新平台、宁波国际物流发展股份有限公司、中科院宁波材料所、宁波模具产业园、宁波市象山县新桥工业园、福建省南安华源电镀集控区投资有限公司、泉州市网商(虚拟)产业园、泉州市中小企业公共服务平台、源和1916创意产业园等十余个产业集群公共服务平台和有关企业。', '考察组一行分别走访了永康市物流中心、永康市模具产业园、浙江省五金科技创新平台、宁波国际物流发展股份有限公司、中科院宁波材料所、宁波模具产业园、宁波市象山县新桥工业园、福建省南安华源电镀集控区投资有限公司、泉州市网商', '考察组就产业集群公共服务平台的相关情况和有关单位及企业进行了座谈交流，详细了解了当地公共服务平台的建设、规模、效益、投资方式、发展理念、产业配套、管理模式、企业入驻等情况进行了深度的交流，并为我市的产业招商进行了推荐。通过学习考察，了解了当地产业集群公共服务平台一些好的做法和经验，为我市平台建设工作提供了可供参考性的先进经验。(投融资科)', '考察组就产业集群公共服务平台的相关情况和有关单位及企业进行了座谈交流，详细了解了当地公共服务平台的建设、规模、效益、投资方式、发展理念、产业配套、管理模式、企业入驻等情况进行了深度的交流，并为我市的产业招商进行了推荐。通过学习考察，了解了当地产业集群公共服务平台一些好的做法和经验，为我市平台建设工作提供了可供参考性的先进经验。']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>122</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>学习考察组在我县考察图书馆总分管制建设工作</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2017-04-18</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2017-04/18/content_584ef7f2a68146cb98f4ffbb648054d5.shtml</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['4月12日，由省文化厅率队，全省各市、县图书馆相关负责人组成的学习考察组在我县考察图书馆总分管制建设工作。', '在县图书馆，考察组一行实地参观了青少年阅览室、电子阅览室、期刊阅览室、多功能报告厅等处，详细了解了我县图书馆的规划设计、智能化服务管理、古文献及特色馆藏建设等内容。考察团一行对我县图书馆的功能建设、服务读者的理念给予高度评价，认为我县图书馆功能设施完善，服务管理体现了现代化、智能化，场馆的布局、设施到每个细节都体现出人性化特点。', '通过学习交流活动，让大家开阔了眼界，加深了对图书馆功能布局、规划思路的认识，有效促进了图书馆之间的相互交流与学习，对于共同探讨研究图书馆建设经验起到了积极的推动作用。', '学习考察组还来到介桥村农家书屋，进一步了解我县图书馆的基础设施建设与文化建设情况。', '据了解，2015年以来，我县扎实推进图书馆总分管制建设工作，目前全县6镇3乡1场的分管计算机编目系统已安装调试到位，3万多册图书完成编目；联网后各馆间可进行文献资源共享、通借通还，为广大读者借阅创造了便利条件。', '分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>122</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>新余市国资委前往抚州上饶鹰潭等地开展学习考察</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2017-03-23</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>http://gzw.xinyu.gov.cn/gzw/tpxw/201703/4e2b89cff35e4d5c991f545b0c6fe29e.shtml</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['新余市国资委前往抚州、上饶、鹰潭等地开展学习考察 _ 图片新闻 _ 新余市国有资产监督管理委员会', '为学习借鉴兄弟地市的成功做法，进一步推动我市国资国企改革和监管工作，推进央企对接、省企对接和招商引资工作，市国资委领导易勇、雷蕾、刘佺翔带领相关科室负责人到抚州、上饶、鹰潭等地市，实地学习考察他们在国资监管、国资国企改革、监管企业干部及薪酬管理、央企（省企）对接，招商引资等方面的成功经验。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>122</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>新余市水务局组团赴浙江考察学习标准化管理工作</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2017-02-22</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://slj.xinyu.gov.cn/slj/zwdt/201702/8d0ebf60cbde4810aec671624a6d6af0.shtml</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['新春伊始，当人们还沉浸在春节余欢之际，为全面推进新余市水利工程标准化管理及水生态文明建设工作，2017年2月中旬，由市水务局副局长刘国新带队，组织市水务局建管科长、农水科长、城防处处长，渝水区水务局局长、龙门口水库管理所所长，分宜县水务局局长、西坑水库管理所所长，仙女湖区农工局副局长等赴浙江宁波、湖州、杭州等地考察学习水利工程管理标准化工作及水生态文明建设。先后考察了2座中型水库、1座小型水库、2座排涝泵站标准化管理现场；参观了宁波皎口复合生态湿地、姚江堤防生态护岸工程，湖州中小河流治理生态护岸、节水灌溉工程等；听取了宁波市水利局，余姚市水利局水利工程标准化管理经验介绍，浙江省水利河口研究院对标化管理工作及信息管理平台的介绍，并与余姚市水利局及河口研究院有关人员进行座谈。', '考察组人员通过参观工程建设及管理现场，听取经验介绍，收集有关资料，发现了自己存在的差距，明确了各自努力的方向，决心回去后认真研究部署，积极学习浙江经验，全面推进新余市水利工程标准化管理工作及水生态文明建设。（建管科 黄贱牙）']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>122</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>上饶市城管支队来我局考察学习城市管理体制改革工作</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2016-12-15</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://cgj.xinyu.gov.cn/cgj/zwdt/201612/3cf33bcf64c944ca9df26df786199e97.shtml</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['日上午，上饶市城管支队仇从军副支队长带队来我局考察学习城市管理体制改革、财务管理工作，局党组成员、副局长邓黎明、副调研员章海清接待了考察组一行。会上，邓黎明、章海清分别就我局财务管理和城市管理体制改革情况作了介绍，随后，双方就城市管理工作进行了探讨交流。']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>122</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>渝水区林业局到丰城考察学习高产油茶产业发展</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2017-03-13</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/201703/3b72a101f2c34fa6a469bddd8387e582.shtml</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['，渝水区林业局在省厅原造林处调研员、油茶办主任孙勇的带领下，渝水区林业局局长杨华申会同省级林业龙头企业欣源农业开发有限公司负责人一行，到丰城市考察学习高产油茶产业发展。', '实地考察结束之后，在丰城市林业局举行了座谈会，听取了该局关于高产油茶科学管护模式的先进经验介绍。两地领导表示，要不断加强交流与合作，互相学习，共谋发展。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>122</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>赣中西林业有害生物联防片区赴湖南学习考察</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2016-11-02</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>http://lyj.xinyu.gov.cn/lyj/slyyw/201611/59103a6f5c6b410d88593506cb404d39.shtml</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['日，赣中西林业有害生物联防指挥部组织萍乡、宜春、吉安、新余四设区市指挥长、森防局（站）长以及部分业务骨干赴湖南长沙，进行林业有害生物天敌繁育技术学习考察。江西省林科院林业有害生物防治研究所喻爱林所长带队考察。', '学习考察组先后考察了湖南省天敌繁育中心、湖南省林业生物防治技术研究示范基地、湖南省林业种苗中心，并与湖南省林科院森防专家进行了座谈。考察组听取了湖南省在天敌防控和生物防控方面的经验介绍，就松褐天牛、松毛虫等生物技术防控、除治工程管理、种苗病虫害防治方面进行了合作交流。', '学习考察组一致认为，湖南省在天敌生物防控工作上值得我们江西学习借鉴：一是建立完备的天敌研究繁育体系；二是制定完善成熟的野外天敌种群培养方案；三是完善基础研究配套保障，资金投入是重点，领导重视是关键，研究出成果是前提，市场推广出成效是目的。']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>122</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>市粮食局组团赴湖南广东考察学习粮食产业化工作</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2016-11-23</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>http://lsj.xinyu.gov.cn/lsj/yldt/201611/55f17362f2bb432ea814838be2912d32.shtml</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['2016年11月16日至18日，市粮食局调研员余小敏携局产业发展办公室一行5人赴湖南长沙、广东广州就粮油集团组建、粮油保障配送、粮食产业化工作进行了深入学习考察。 在湖南粮食集团，考察组一行先后参观了金霞现代粮食物流中心、铁路散粮装卸现场和港口物流泊位、“北粮南运”铁路运输情况以及粮食“四散化”运输的全过程、集团信息化展示中心，随后观看了集团专题片《领先•永不停步》。在湖南粮食集团总部会客厅，集团副董事长、总裁杨永圣介绍了湖南粮食集团的组建过程、发展历程与经营管理情况。 在广州，考察组参观了广州鑫邦农业发展有限公司旗下专营健康粮油的品牌连锁机构——美名扬健康粮食研究院。在美名扬健康粮食研究院执行院长唐美明先生带领下参观了“美名扬”自有产品展示馆和美名扬健康粮油配送点门店。 通过考察，我们对湖南、广东两省在做大做强国有粮食企业、强化粮油保障配送、推动粮食产业化发展上的一些做法印象深刻。湖南粮食集团实行目标管理、绩效考核的管理体制，统一管控、分权经营的经营模式，内部培养、外部招聘的人才政策值得我们借鉴；美名扬健康粮食研究院创新、独特的经营模式值得我们学习。']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>122</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>鹰潭市委宣传部新闻单位在我县学习考察媒体融合</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2016-10-20</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2016-10/20/content_a467a2afba65424d8dd2f69eb5de9e9b.shtml</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['10月10日，鹰潭市委常委、宣传部长贺喜灿率鹰潭市委宣传部和新闻单位在我县学习考察媒体融合发展的做法与经验。市委常委、宣传部长郭力根，县政协主席朱运书陪同。 考察团一行在分宜县全媒体中心负责人的引导下，参观了分宜县全媒体中心创建工作步骤与成立后的业务工作流程，并来到编辑机房、新闻采访部、编辑制作部等处，进一步了解媒体融合、业态创新、人员配备等情况，详细了解了我县媒体融合发展改革过程。 为破解传统媒体管办不分、体制机制不灵活，人才奇缺等诸多问题，我县融合了分宜广播电台、分宜电视台、分宜报、官方微博分宜发布、微信公众号分宜发布、江西手机报和分宜政府网7个媒体，建设全媒体“中央厨房”，建成融合平台“全媒体中心”，搭建各岗位人员共享的集电视、网站、报纸、手机和智能终端为一体的组合信息终端平台，走出一条具有本土特色的融媒模式，推动“+互联网”向“互联网+”转型。同时，致力打造“新闻超市”，努力形成县与市、省、甚至中央媒体的互通对接，填平纵向“信息鸿沟”，形成“一次采集、多次生成、N次传播”的新局面。 通过参观考察，考察团成员纷纷表示，融合是媒体发展的大势与方向，分宜县成立全媒体中心，为县域媒体改革发展破了题、开了局，分宜的经验值得借鉴。', '分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>122</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>九江市文广新局来新余学习考察示范区创建工作</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2016-10-08</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>http://wxj.xinyu.gov.cn/wxj/tpxw/201610/cd9baa3318bf4914914fd614bc1b32c3.shtml</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['九江市文广新局来新余学习考察示范区创建工作 _ 图片新闻 _ 新余市文化广电新闻出版旅游（版权）局', '9月29-30日，九江市文广新局、财政局、九江部分县市文化部门负责人组成的一行11人考察组在文广新局党委书记石峰带领下来我市学习考察国家公共文化服务体系示范区创建工作。', '市文广新局党委书记、局长刘献忠对九江考察组一行的到来表示热烈的欢迎。市文广新局正县级干部万小亻毛向九江考察组介绍了我市国家公共文化服务体系示范区的创建经验。对于九江局提出的有关示范区创建制度设计、经费保障、亮点特色打造、新余数字文化网、创建重难点突破等问题，市文广新局、市财政局相关负责同志都做了一一解答。九江市局一行还实地考察了市文化馆、市图书馆、良山镇综合文化馆、良山镇下保村文化服务中心等基层文化场所。（敖丽阳）', '江西省新余市文化广电新闻出版旅游（版权）局主办 地址：新余市渝水区仰天东大道69号']</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>122</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>靠大联强加快推进媒体融合发展郭力根率队赴江西日报学习考察</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2016-09-19</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>http://www.xinyu.gov.cn/xinyu/xyyw/201609/963798f92d6f4662840f036b45964dcc.shtml</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['为探索新形势下媒体创新发展之路，加快我市媒体融合发展，9月14日，市委常委、宣传部部长郭力根率市、县、区委宣传部门有关负责同志以及一报一台主要领导赴江西日报社考察，受到江西日报社社长王晖热情接见。', '王晖介绍了江西日报社近年来媒体融合发展情况。他说，江西日报社近年来着力推进媒体融合创新发展，以平台建设为突破口，组建江西日报社全媒体中心，打造布局合理、设置科学、技术先进，集采编、发布、经营、管理为一体的集团全媒体数字化转型技术支撑平台。报社新成立新媒体部，推出七大新媒体拳头平台，形成江西日报社微博微信矩阵，媒体融合平台建设在深度和广度上正不断推进。投入数千万元，建设一体化采编播集成平台，实现报网融合。该项目运用互联网思维，以云计算技术建设为支撑，充分发挥大数据作用，创新采编播流程，实现新闻资源一次采集、多种生成、多元传播，有效提高采编时效，充分满足新闻资源全媒体化、视频化需求，努力打造全媒体“中央厨房”。', '郭力根介绍了新余媒体融合发展情况。他说，近两年来，新余市宣传部门紧跟时代发展步伐，加快传统媒体和新兴媒体融合发展，新余发布、政务微博微信走在全国地市级政务微博、微信前列，在全国影响力排名靠前。近日，分宜县在全省率先组建县级全媒体中心，整合7家县属新闻机构和内容渠道，打破传统媒体与新媒体的壁垒，实现新闻资源“一次采集、多样生成、N次传播”，为全市媒体大融合作出了有益探索。新余宣传工作要上新台阶，扩大影响力，就必须创新发展，走靠大联强、融合发展之路，希望能借助江西日报社这艘旗舰，通过与江西日报社合作，利用江西日报社全媒体平台优势，将新余媒体与江西日报全媒体深度融合，实现新余宣传从内容到技术的全面革新和升级，并由此创造省级媒体与地市级媒体融合发展的新典范。', '在江西日报社，新余媒体考察团考察了江西日报社全媒体中心、中国江西网全媒体采编调度中心、大江大数据研究中心等。']</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>122</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>景德镇市城市管理行政执法局来我局考察学习城市管理体制改革工作</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2016-11-29</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>http://cgj.xinyu.gov.cn/cgj/cgyw/201611/545faeaca30a4fa8a549140dbb7b3f4a.shtml</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['景德镇市城市管理行政执法局来我局考察学习城市管理体制改革工作 _ 城管要闻 _ 新余市城市管理局', '月28日，景德镇市城市管理行政执法局刘丰来副局长带队来我局考察学习城市管理体制改革工作，学习考察主要以座谈会进行。局党组成员、副调研员章海清，办公室、人事教育科、公用事业科相关人员参加了会议。会上，副调研员章海清就我局当前城市管理体制改革作了情况介绍，随后，双方就我局城市管理体制改革和城市管理工作进行探讨。（赵自科）']</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>122</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>市审计局赴赣州吉安市审计局考察学习</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2016-07-25</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>http://sjj.xinyu.gov.cn/sjj/zwdt/201607/6dcb1a685f934db3b89e8bc6c727a32f.shtml</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['(交流会上，我局与赣州市审计同行针对如何提高财政同级审计质量，加强审计整改力度。如何组织优秀审计项目评比等问题进行了充分的交流讨论。)', '交流会上，我局与赣州市审计同行针对如何提高财政同级审计质量，加强审计整改力度。如何组织优秀审计项目评比等问题进行了充分的交流讨论。', '(交流会上，我局与吉安市审计同行针对如何提高财政同级审计质量，加强审计整改力度。如何组织优秀审计项目评比等问题进行了充分的交流讨论。)', '交流会上，我局与吉安市审计同行针对如何提高财政同级审计质量，加强审计整改力度。如何组织优秀审计项目评比等问题进行了充分的交流讨论。', '7月13日-7月15日，新余市审计局总审计师稂小毛率领综合科及财金科一行4人组成学习组赴赣州市、吉安市审计局就如何提高财政预算同级审计报告质量、如何强化审计整改力度、组织优秀项目评选、审计志的编撰等问题进行考察学习。此次学习考察得到了当地审计机关的精心组织，悉心指导，学习考察取得圆满成功。', '人组成学习组赴赣州市、吉安市审计局就如何提高财政预算同级审计报告质量、如何强化审计整改力度、组织优秀项目评选、审计志的编撰等问题进行考察学习。此次学习考察得到了当地审计机关的精心组织，悉心指导，学习考察取得圆满成功。', '学习考察组分别与两市审计同行进行了充分的座谈与交流，在很多方面取到了“真经”，拓展了我们的审计思路。两市的审计同行均表示希望在今后的各项审计工作中继续加强交流，取长补短，相互学习，相互促进，全面提升审计质量。', '在很多方面取到了“真经”，拓展了我们的审计思路。两市的审计同行均表示希望在今后的各项审计工作中继续加强交流，取长补短，相互学习，相互促进，全面提升审计质量。']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>122</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>宜春市文广新局来我市学习考察</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2016-06-03</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>http://wxj.xinyu.gov.cn/wxj/tpxw/201606/fdb5cf6ebc6e4c36b4e2844862ba1cfa.shtml</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>['宜春市文广新局来我市学习考察 _ 图片新闻 _ 新余市文化广电新闻出版旅游（版权）局', '宜春市文广新局考察团先后前往渝水区良山镇下保村、良山镇综合文化站、渝水区城北办电工厂社区文化服务中心、市图书馆、市文化馆等地进行实地考察并座谈,现场听取了我市村(社区)综合性文化服务中心整合建设、全民阅读、市文化艺术大学、免费培训等方面工作情况经验介绍。', '吴俊平表示新余市通过创建国家公共文化服务体系示范区,公共文化工作成效显著,尤其村(社区)基层综合文化服务中心、新余文化艺术大学免费培训、图书馆免费心理咨询服务等工作值得宜春市文广新局借鉴学习。(敖丽阳)', '江西省新余市文化广电新闻出版旅游（版权）局主办 地址：新余市渝水区仰天东大道69号']</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>122</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>分宜县赴共青城学习考察不动产统一登记工作</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2015-08-21</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>http://bnr.xinyu.gov.cn/xyszrzyj/zrdt/201508/f8865bb8d734437d88be30b9fc806710.shtml</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['日，分宜县政府组织人员赴共青城市学习考察不动产统一登记工作。考察组详细了解了共青城市不动产统一登记工作的开展情况，重点学习了共青城市不动产统一登记的主要做法和经验，为更好的推动分宜县不动产统一登记工作奠定了坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A207" t="n">
+        <v>122</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
           <t>永新县党政领导学习考察分宜县光伏发电项目</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="E207" t="inlineStr">
         <is>
           <t>2016-03-17</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/fyyw/2016-03/17/content_4658b9176d324476a7b047c14b536777.shtml</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>['3月16日，永新县党政领导班子在分宜县学习考察光伏发电项目。 考察团一行深入分宜六中、城东工业园中电长城5MW光伏发电项目，彩虹精化35MW、陆辉70MW光伏发电渔光互补项目现场，听取该项目负责人对项目建设情况的汇报，详细询问工程建设进度、质量等方面的问题，以及光伏发电项目前期工作和下一步工作打算。 近年来，分宜县充分发挥市、县电网接入和市场消纳优势，利用荒山荒地、屋顶、水面等未利用地，推进各种类型光伏电站建设，市政府确定分宜县共有11个光伏电站项目列入市2015—2017年发展规划。目前，分宜县启动光伏项目共有6个，合计205.6MW，总投资17.11亿元。这些项目利用太阳能发电，不仅节约了化石能源消耗，而且减少了温室气体排放，为分宜县经济发展提供一定的电力保障，促进能源结构调整，实现社会效益、环境效益和经济效益的共赢。 考察团认为，分宜在光伏发电项目建设和光伏扶贫推进上成效显著，为兄弟县创造了一批可推广、可借鉴的好经验好做法，深受教育和启发，更加增添了抓紧推进永新县光伏项目建设的决心和信心。大家一致表示，永新县从县情特征、区位条件、产业基础来看，都与分宜县有着很多相似之处，要以此次考察为契机，认真总结、学习借鉴分宜县光伏扶贫项目建设的成功经验，进而推动永新县光伏发电项目的快速发展，为群众脱贫致富探索新的“助力器”。', '分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A208" t="n">
+        <v>122</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
           <t>我市赴赣州吉安两地学习考察不动产统一登记工作</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="E208" t="inlineStr">
         <is>
           <t>2015-07-13</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>http://bnr.xinyu.gov.cn/xyszrzyj/zrdt/201507/7c9e8d673da74592825fda5cd83b4950.shtml</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>['至9日，市国土资源局党组书记、局长钟兆辉会同市编办领导一行五人赴赣州市国土资源局（赣州市不动产登记局）、吉安市国土资源局学习考察不动产统一登记机构建设工作。', '赣州市国土资源局（赣州市不动产登记局）主要负责人介绍了赣州市在不动产登记职责整合、机构建设、系统应用等方面的工作经验，吉安市国土资源局主要负责人介绍了吉安市不动产统一登记的工作做法，各地都交流了建立和实施不动产统一登记制度的工作体会。', '学习考察组认为，通过面对面学习，学习了各地的工作做法，获得了先进经验，取到了“真经”，找到了自身不足，对我市开展不动产登记工作具有积极借鉴作用。']</t>
         </is>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A209" t="n">
+        <v>122</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
           <t>市局赴徐州市学习考察土地登记即等可取工作机制</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="E209" t="inlineStr">
         <is>
           <t>2011-11-22</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>http://bnr.xinyu.gov.cn/xyszrzyj/zrdt/201111/c9ceec69161640268493cc77b666aa61.shtml</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>['人赴国土资源部地籍管理工作先进单位——江苏省徐州市国土资源局，学习考察土地登记“即等可取”工作机制，该机制充分体现了土地登记工作“规范、便民、优质、高效”的原则。通过实地学习，为市局即将实行“即等可取”的土地登记工作机制奠定了基础。']</t>
         </is>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A210" t="n">
+        <v>122</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
           <t>赣州兴国县代表团莅临我县考察学习</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>2013-07-17</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>http://www.fenyi.gov.cn/fenyi/tpxw/2013-07/17/content_7110fdf2284e4fa084ae3b7edba6f65c.shtml</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>['分宜县凤阳镇白路塘村江西浩森东方生态科技有限公司一体化高效生态农牧示范园项目...', '分宜县自然资源局国有土地使用权招拍挂出让成交公示赣国土资网交地[2020]KB014号', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（生化分析仪）项目竞争性...', '分宜县人民医院发热门诊和核酸检测能力建设医疗器械采购（特定蛋白分析仪）项目中...']</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>江西省</t>
-        </is>
+      <c r="A211" t="n">
+        <v>122</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>新余市</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
+          <t>新余市</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
           <t>上饶市文广新局来我局学习考察</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="E211" t="inlineStr">
         <is>
           <t>2016-05-09</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>http://wxj.xinyu.gov.cn/wxj/tpxw/201605/3119aba40cbb4e409ac6bdb93ab5c693.shtml</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>['上饶市文广新局来我局学习考察 _ 图片新闻 _ 新余市文化广电新闻出版旅游（版权）局', '市文广新局党委书记、局长刘献忠对毛局长的到来表示热烈的欢迎。万小亻毛调研员向上饶局介绍了我市创建国家公共文化服务体系示范区的成功经验和我市在公共文化均等化方面开展的主要工作。何俊秋副局长介绍了我局文化产业发展情况。上饶局一行还实地考察了市文化馆、市图书馆、夏乡博物馆、分宜县文化中心、分宜县青山社区等基层文化场所。供稿办公室', '江西省新余市文化广电新闻出版旅游（版权）局主办 地址：新余市渝水区仰天东大道69号']</t>
         </is>
